--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv2_2023_vs2019_Game2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE71E3-CBC3-4F3E-B6BA-F2A67D719F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063C771-30AC-4181-8515-48A98200CBCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="6" activeTab="6" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="524">
   <si>
     <t>■仕様書リスト</t>
     <rPh sb="1" eb="4">
@@ -1359,26 +1359,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※キーコンフィグが実装されない場合を想定</t>
-    <rPh sb="9" eb="11">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>WASDキーで移動</t>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Wキー : 前方向へ移動</t>
     <rPh sb="6" eb="9">
       <t>マエホウコウ</t>
@@ -1495,22 +1475,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>移動キーを押しながらSpaceキーを押すと回避。</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>●回避の方向は押している移動キーの方向へ回避する。</t>
     <rPh sb="1" eb="3">
       <t>カイヒ</t>
@@ -1625,13 +1589,6 @@
   </si>
   <si>
     <t>マウスクリックでガード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マウス右クリック : ガード</t>
-    <rPh sb="3" eb="4">
-      <t>ミギ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2078,16 +2035,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Qキー: ロックオン状態へ移行</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ロックオン状態中はControlキーを押すと敵の方に向かってカメラが向く。</t>
     <rPh sb="5" eb="7">
       <t>ジョウタイ</t>
@@ -2143,23 +2090,6 @@
   </si>
   <si>
     <t>アイテム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Eキー : アイテムを使用</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マウススクロール : アイテム切り替え</t>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4261,67 +4191,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>マウス左クリック : 通常攻撃1,2 (モーション値 1.0)</t>
-    <rPh sb="3" eb="4">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>マウススクロールクリック : 強攻撃(モーション値 1.5)</t>
-    <rPh sb="15" eb="16">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cキー+マウス左クリック : 弱闘技(モーション値 1.6)</t>
-    <rPh sb="7" eb="8">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cキー+マウス右クリック : 強闘技(モーション値 3.0)</t>
-    <rPh sb="7" eb="8">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>盾を構えるモーション　　　　ジャストガード時は敵の攻撃を盾ではじくようなモーション</t>
     <rPh sb="0" eb="1">
       <t>タテ</t>
@@ -5686,44 +5555,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>空中＋マウス右クリック : 降下攻撃(モーション値 1.3)</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>空中+マウス左クリック : 空中攻撃1,2(モーション値 1.1)</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>空中でのアクション　</t>
     </r>
@@ -5757,25 +5588,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>空中＋Spaceキー : 空中回避(無敵時間はなくてもいい)</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ムテキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>闘技・跳を使った後の空中アクションを想定</t>
     <rPh sb="0" eb="2">
       <t>トウギ</t>
@@ -5817,31 +5629,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>崖飛び降り + マウス左クリック : 降下攻撃(モーション値 1.2)</t>
-    <rPh sb="0" eb="1">
-      <t>ガケ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>空中で剣を振るうモーション</t>
     <rPh sb="0" eb="2">
       <t>クウチュウ</t>
@@ -5948,13 +5735,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アニメーションも含む</t>
-    <rPh sb="8" eb="9">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/medieval-gladiator-warrior-character-239536</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6539,6 +6319,355 @@
   </si>
   <si>
     <t>ゲームオーバーBGM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>地面の材質によって音を変えるとよりgood</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キー入力音声</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２種類を用意</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※進むと戻る</t>
+    <rPh sb="1" eb="2">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>歩きの音声を倍速で使う</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バイソク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上記と同じものを使用</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hardも同じBGMを使用</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※キーコンフィグが実装されない場合を想定　Pad時の操作も記述</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WASDキーまたはLスティックで移動</t>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動キーを押しながらSpaceキー　　　　　　　　　　　　Ｌスティック入力＋Ｂボタンを押すと回避。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウス左クリック、Yボタン : 通常攻撃1,2 (モーション値 1.0)</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウススクロールクリック、Xボタン : 強攻撃(モーション値 1.5)</t>
+    <rPh sb="20" eb="21">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cキー+マウス左クリック、L２＋Aボタン : 弱闘技(モーション値 1.6)</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウス右クリック、L１トリガー : ガード</t>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cキー+マウス右クリック、L2＋Xボタン  : 強闘技(モーション値 3.0)</t>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空中+マウス左クリックorYボタン : 空中攻撃1,2(モーション値 1.1)</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空中＋マウス右クリックorXボタン : 降下攻撃(モーション値 1.3)</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空中＋SpaceキーorBボタン : 空中回避(無敵時間はなくてもいい)</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>崖飛び降り + マウス左クリックorXボタン : 降下攻撃(モーション値 1.2)</t>
+    <rPh sb="0" eb="1">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Qキー、Rスティック押し込み: ロックオン状態へ移行</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Eキー、Aボタン : アイテムを使用</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウススクロール、十字ボタン : アイテム切り替え</t>
+    <rPh sb="9" eb="11">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>随時更新</t>
+    <rPh sb="0" eb="4">
+      <t>ズイジコウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>随時更新</t>
+    <rPh sb="0" eb="2">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>足りない物があれば追加</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7049,7 +7178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7548,336 +7677,333 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7907,6 +8033,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9983,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F273324-931C-4C31-BD68-F66AF2293AC8}">
   <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9998,30 +10163,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
-      <c r="F3" s="192" t="s">
-        <v>410</v>
-      </c>
-      <c r="G3" s="192"/>
+      <c r="F3" s="193" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="193"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
@@ -10041,7 +10206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="190" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -10054,11 +10219,11 @@
         <v>9</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="190"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="41" t="s">
         <v>82</v>
       </c>
@@ -10072,7 +10237,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="190"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
@@ -10085,7 +10250,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="190"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
@@ -10098,7 +10263,7 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="191"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
@@ -10113,14 +10278,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="185" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="83">
-        <v>45169</v>
+        <v>45188</v>
       </c>
       <c r="E10" s="80" t="s">
         <v>29</v>
@@ -10128,7 +10293,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="185"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="79" t="s">
         <v>19</v>
       </c>
@@ -10141,7 +10306,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="185"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="79" t="s">
         <v>21</v>
       </c>
@@ -10154,7 +10319,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="185"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="79" t="s">
         <v>20</v>
       </c>
@@ -10167,9 +10332,9 @@
       <c r="F13" s="84"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="185"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" s="84">
         <v>45148</v>
@@ -10180,7 +10345,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="185"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="79" t="s">
         <v>23</v>
       </c>
@@ -10193,7 +10358,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="185"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="79" t="s">
         <v>34</v>
       </c>
@@ -10206,7 +10371,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="185"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="79" t="s">
         <v>24</v>
       </c>
@@ -10219,7 +10384,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="185"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="79" t="s">
         <v>25</v>
       </c>
@@ -10230,11 +10395,11 @@
         <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="185"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
@@ -10247,7 +10412,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="185"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
@@ -10260,7 +10425,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="186"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="154" t="s">
         <v>17</v>
       </c>
@@ -10273,47 +10438,51 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="194" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="173" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="83">
-        <v>45171</v>
+        <v>45188</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="194"/>
+      <c r="B23" s="195"/>
       <c r="C23" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="84">
-        <v>45170</v>
+        <v>45188</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="195"/>
-      <c r="C24" s="176" t="s">
+      <c r="B24" s="196"/>
+      <c r="C24" s="174" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="26">
-        <v>45171</v>
+        <v>45188</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11023,7 +11192,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B1" s="91" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -11036,34 +11205,34 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="203"/>
+      <c r="C11" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11096,13 +11265,13 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" s="85"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="155" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11110,7 +11279,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>118</v>
@@ -11120,189 +11289,189 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="261"/>
-      <c r="D4" s="220" t="s">
+      <c r="C4" s="262"/>
+      <c r="D4" s="217" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="212" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="263"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="213"/>
+    </row>
+    <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C6" s="263"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="213"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="263"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="213"/>
+    </row>
+    <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="264"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="244"/>
+    </row>
+    <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="263"/>
+      <c r="D9" s="218" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="213" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="263"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="213"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="263"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F11" s="213"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="263"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="241" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="262"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="219"/>
-    </row>
-    <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C6" s="262"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="219"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="262"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="46" t="s">
+      <c r="F12" s="213"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="264"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="219"/>
-    </row>
-    <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="263"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="224"/>
-    </row>
-    <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="262"/>
-      <c r="D9" s="221" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="219" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="262"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="219"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="262"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="219"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="262"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="219"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="263"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="224"/>
+      <c r="F13" s="244"/>
     </row>
     <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="261"/>
-      <c r="D14" s="220" t="s">
+      <c r="C14" s="262"/>
+      <c r="D14" s="217" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="156" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="263"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="157" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="213"/>
+    </row>
+    <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C16" s="263"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="157" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="213"/>
+    </row>
+    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="263"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="157" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="213"/>
+    </row>
+    <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="264"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="244"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="262"/>
+      <c r="D19" s="217" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="212" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="263"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="213"/>
+    </row>
+    <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C21" s="263"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="157" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="213"/>
+    </row>
+    <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C22" s="263"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="157" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="F22" s="213"/>
+    </row>
+    <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="264"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="151" t="s">
         <v>395</v>
       </c>
-      <c r="F14" s="241" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="262"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="157" t="s">
-        <v>401</v>
-      </c>
-      <c r="F15" s="219"/>
-    </row>
-    <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="262"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="157" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="219"/>
-    </row>
-    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="262"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="157" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" s="219"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="263"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="151" t="s">
-        <v>398</v>
-      </c>
-      <c r="F18" s="224"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="261"/>
-      <c r="D19" s="220" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="156" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="241" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="262"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="157" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="219"/>
-    </row>
-    <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="262"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="157" t="s">
-        <v>404</v>
-      </c>
-      <c r="F21" s="219"/>
-    </row>
-    <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C22" s="262"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="157" t="s">
-        <v>405</v>
-      </c>
-      <c r="F22" s="219"/>
-    </row>
-    <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="263"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="151" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" s="224"/>
+      <c r="F23" s="244"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B25" s="260" t="s">
+      <c r="B25" s="261" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="260"/>
+      <c r="C25" s="261"/>
       <c r="D25" s="158"/>
       <c r="E25" s="159" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -11351,7 +11520,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -11360,7 +11529,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>118</v>
@@ -11369,155 +11538,155 @@
         <v>46</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="261"/>
-      <c r="D4" s="206" t="s">
+      <c r="C4" s="262"/>
+      <c r="D4" s="207" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="265" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="C5" s="263"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="266"/>
+      <c r="G5" s="208"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="263"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="266"/>
+      <c r="G6" s="208"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="264"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="267"/>
+      <c r="G7" s="209"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="262"/>
+      <c r="D8" s="254" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="268" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="263"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="269"/>
+      <c r="G9" s="208"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="263"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="269"/>
+      <c r="G10" s="208"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="263"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="269"/>
+      <c r="G11" s="208"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="263"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="269"/>
+      <c r="G12" s="208"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="263"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="264" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C5" s="262"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="265"/>
-      <c r="G5" s="207"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="262"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="265"/>
-      <c r="G6" s="207"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="263"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="208"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="261"/>
-      <c r="D8" s="259" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="60" t="s">
+      <c r="F13" s="269"/>
+      <c r="G13" s="208"/>
+    </row>
+    <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="C14" s="263"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="267" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="262"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="54" t="s">
+      <c r="F14" s="269"/>
+      <c r="G14" s="208"/>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="264"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="268"/>
-      <c r="G9" s="207"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="262"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="268"/>
-      <c r="G10" s="207"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="262"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="268"/>
-      <c r="G11" s="207"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="262"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="268"/>
-      <c r="G12" s="207"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="262"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="268"/>
-      <c r="G13" s="207"/>
-    </row>
-    <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="262"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="268"/>
-      <c r="G14" s="207"/>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="263"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" s="269"/>
-      <c r="G15" s="208"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="209"/>
     </row>
     <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="198" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" s="198"/>
+        <v>189</v>
+      </c>
+      <c r="F17" s="199" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G8:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -11546,7 +11715,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -11556,30 +11725,30 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11609,7 +11778,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
@@ -11618,20 +11787,20 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C3" s="200" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
+      <c r="C3" s="201" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C5" s="270" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
+      <c r="C5" s="271" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" s="139" t="s">
@@ -11642,17 +11811,17 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C7" s="139" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="139" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -11665,50 +11834,50 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C10" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" s="95" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="198" t="s">
+      <c r="B18" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11742,7 +11911,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
@@ -11751,84 +11920,84 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C3" s="200" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="201" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="270" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
+      <c r="C6" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="192"/>
+      <c r="D7" s="193"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="192" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="192"/>
+      <c r="C8" s="193" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="193"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="271" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="271"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="271"/>
+      <c r="C11" s="272" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C12" s="272" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
+      <c r="C12" s="273" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="202" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
+      <c r="C13" s="203" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="192" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="192"/>
+      <c r="C15" s="193" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11870,7 +12039,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -11885,7 +12054,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" s="99" t="s">
         <v>118</v>
@@ -11896,70 +12065,70 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="220"/>
-      <c r="D4" s="206" t="s">
-        <v>356</v>
+      <c r="C4" s="217"/>
+      <c r="D4" s="207" t="s">
+        <v>345</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="221"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="102" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F5" s="102"/>
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="261"/>
-      <c r="D6" s="206" t="s">
-        <v>359</v>
+      <c r="C6" s="262"/>
+      <c r="D6" s="207" t="s">
+        <v>348</v>
       </c>
       <c r="E6" s="146" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F6" s="103"/>
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="263"/>
-      <c r="D7" s="208"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="134" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F7" s="145"/>
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="261"/>
-      <c r="D8" s="259" t="s">
-        <v>364</v>
+      <c r="C8" s="262"/>
+      <c r="D8" s="254" t="s">
+        <v>353</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F8" s="147"/>
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="262"/>
-      <c r="D9" s="251"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="150" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F9" s="148"/>
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="263"/>
-      <c r="D10" s="252"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="151" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F10" s="149"/>
       <c r="G10" s="144"/>
@@ -11972,10 +12141,10 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="198"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="129"/>
       <c r="E12" s="1"/>
       <c r="F12" s="133"/>
@@ -12036,10 +12205,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="244"/>
+      <c r="C1" s="252"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
@@ -12048,103 +12217,103 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="202" t="s">
-        <v>370</v>
-      </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
+      <c r="B6" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="202" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
+      <c r="B8" s="203" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="202" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
+      <c r="B10" s="203" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="202" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
+      <c r="B12" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="200" t="s">
-        <v>374</v>
-      </c>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
+      <c r="B14" s="201" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="203" t="s">
+      <c r="B19" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12171,7 +12340,7 @@
   <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12193,84 +12362,84 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" s="95" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C7" s="95" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" s="95" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17" s="93" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C18" s="94" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="36" x14ac:dyDescent="0.45">
       <c r="C19" s="152" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="196"/>
+      <c r="C21" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12288,8 +12457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCEF241-5FB4-4628-BA45-DE684B49B157}">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12302,271 +12471,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="244"/>
-    </row>
-    <row r="3" spans="2:6" s="167" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="167" t="s">
+      <c r="C1" s="252"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="285" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="292" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="237" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="287"/>
+      <c r="D5" s="183" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="183" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" s="238"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="287"/>
+      <c r="D6" s="183" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" s="183"/>
+      <c r="F6" s="288"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="287"/>
+      <c r="D7" s="183" t="s">
+        <v>468</v>
+      </c>
+      <c r="E7" s="183"/>
+      <c r="F7" s="288"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="287"/>
+      <c r="D8" s="183" t="s">
+        <v>469</v>
+      </c>
+      <c r="E8" s="183"/>
+      <c r="F8" s="288"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="287"/>
+      <c r="D9" s="183" t="s">
+        <v>470</v>
+      </c>
+      <c r="E9" s="183"/>
+      <c r="F9" s="288"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="287"/>
+      <c r="D10" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="183"/>
+      <c r="F10" s="288"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="287"/>
+      <c r="D11" s="183" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="167" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" s="167" t="s">
+      <c r="E11" s="183"/>
+      <c r="F11" s="288"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="287"/>
+      <c r="D12" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="E12" s="183"/>
+      <c r="F12" s="288"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="287"/>
+      <c r="D13" s="183" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="183"/>
+      <c r="F13" s="288"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="287"/>
+      <c r="D14" s="183" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" s="183"/>
+      <c r="F14" s="288"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="287"/>
+      <c r="D15" s="183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="183"/>
+      <c r="F15" s="288"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="287"/>
+      <c r="D16" s="183" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" s="183"/>
+      <c r="F16" s="288"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C17" s="287"/>
+      <c r="D17" s="183" t="s">
+        <v>476</v>
+      </c>
+      <c r="E17" s="183"/>
+      <c r="F17" s="288"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C18" s="287"/>
+      <c r="D18" s="183" t="s">
+        <v>477</v>
+      </c>
+      <c r="E18" s="183"/>
+      <c r="F18" s="288"/>
+    </row>
+    <row r="19" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="290"/>
+      <c r="D19" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="167" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="273" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="291"/>
+      <c r="K19" s="160"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C20" s="287" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="273"/>
-      <c r="D5" t="s">
+      <c r="D20" s="183" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="273"/>
-      <c r="D6" t="s">
+      <c r="E20" s="183"/>
+      <c r="F20" s="288"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C21" s="287"/>
+      <c r="D21" s="183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="273"/>
-      <c r="D7" t="s">
+      <c r="E21" s="183"/>
+      <c r="F21" s="288"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C22" s="287"/>
+      <c r="D22" s="183" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="273"/>
-      <c r="D8" t="s">
+      <c r="E22" s="183"/>
+      <c r="F22" s="288"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C23" s="287"/>
+      <c r="D23" s="183" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="273"/>
-      <c r="D9" t="s">
+      <c r="E23" s="183"/>
+      <c r="F23" s="288"/>
+    </row>
+    <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="287"/>
+      <c r="D24" s="183" t="s">
+        <v>492</v>
+      </c>
+      <c r="E24" s="183"/>
+      <c r="F24" s="288"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C25" s="292" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="273"/>
-      <c r="D10" t="s">
+      <c r="D25" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="293"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C26" s="287"/>
+      <c r="D26" s="183" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="273"/>
-      <c r="D11" t="s">
+      <c r="E26" s="183"/>
+      <c r="F26" s="288"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C27" s="287"/>
+      <c r="D27" s="183" t="s">
+        <v>488</v>
+      </c>
+      <c r="E27" s="183"/>
+      <c r="F27" s="288"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C28" s="287"/>
+      <c r="D28" s="183" t="s">
+        <v>489</v>
+      </c>
+      <c r="E28" s="183"/>
+      <c r="F28" s="288"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C29" s="287"/>
+      <c r="D29" s="183" t="s">
+        <v>485</v>
+      </c>
+      <c r="E29" s="183"/>
+      <c r="F29" s="288"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C30" s="287"/>
+      <c r="D30" s="183" t="s">
+        <v>490</v>
+      </c>
+      <c r="E30" s="183"/>
+      <c r="F30" s="288"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C31" s="287"/>
+      <c r="D31" s="183" t="s">
+        <v>491</v>
+      </c>
+      <c r="E31" s="183"/>
+      <c r="F31" s="288"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C32" s="287"/>
+      <c r="D32" s="183" t="s">
+        <v>484</v>
+      </c>
+      <c r="E32" s="183"/>
+      <c r="F32" s="288"/>
+    </row>
+    <row r="33" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C33" s="290"/>
+      <c r="D33" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="291" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="289" t="s">
+        <v>495</v>
+      </c>
+      <c r="D34" s="182" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="273"/>
-      <c r="D12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="273"/>
-      <c r="D13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="273"/>
-      <c r="D14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="273"/>
-      <c r="D15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="273"/>
-      <c r="D16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="273"/>
-      <c r="D17" t="s">
+      <c r="E34" s="183"/>
+      <c r="F34" s="288"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C35" s="289"/>
+      <c r="D35" s="182" t="s">
+        <v>500</v>
+      </c>
+      <c r="E35" s="183"/>
+      <c r="F35" s="288" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C36" s="289"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="288" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C37" s="292" t="s">
+        <v>442</v>
+      </c>
+      <c r="D37" s="60" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C18" s="273"/>
-      <c r="D18" t="s">
+      <c r="E37" s="60"/>
+      <c r="F37" s="293"/>
+    </row>
+    <row r="38" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C38" s="290"/>
+      <c r="D38" s="32" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C19" s="273"/>
-      <c r="D19" t="s">
+      <c r="E38" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="F38" s="291"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C39" s="287" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="183" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" s="183"/>
+      <c r="F39" s="288"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C40" s="287"/>
+      <c r="D40" s="183" t="s">
+        <v>498</v>
+      </c>
+      <c r="E40" s="183"/>
+      <c r="F40" s="288"/>
+    </row>
+    <row r="41" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C41" s="290"/>
+      <c r="D41" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="K19" s="160"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C20" s="273" t="s">
-        <v>497</v>
-      </c>
-      <c r="D20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C21" s="273"/>
-      <c r="D21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="273"/>
-      <c r="D22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C23" s="273"/>
-      <c r="D23" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C24" s="273"/>
-      <c r="D24" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="273" t="s">
-        <v>502</v>
-      </c>
-      <c r="D25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="273"/>
-      <c r="D26" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="273"/>
-      <c r="D27" t="s">
+      <c r="E41" s="32" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="273"/>
-      <c r="D28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="273"/>
-      <c r="D29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C30" s="273"/>
-      <c r="D30" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C31" s="273"/>
-      <c r="D31" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C32" s="273"/>
-      <c r="D32" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C33" s="273"/>
-      <c r="D33" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="274" t="s">
-        <v>511</v>
-      </c>
-      <c r="D34" s="166" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C35" s="274"/>
-      <c r="D35" s="166"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C36" s="274"/>
-      <c r="D36" s="166"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C37" s="273" t="s">
-        <v>458</v>
-      </c>
-      <c r="D37" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C38" s="273"/>
-      <c r="D38" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C39" s="273" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C40" s="273"/>
-      <c r="D40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C41" s="273"/>
-      <c r="D41" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="203" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="203"/>
-      <c r="D43" s="203"/>
+      <c r="F41" s="291"/>
+    </row>
+    <row r="43" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B43" s="204" t="s">
+        <v>430</v>
+      </c>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="C4:C19"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B43:D43"/>
@@ -12588,7 +12851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE90214-F7BE-4C55-839A-B1698CB655A0}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12803,10 +13068,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A49" s="196" t="s">
+      <c r="A49" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="196"/>
+      <c r="B49" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12826,13 +13091,13 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" style="167" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="166" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="50.69921875" customWidth="1"/>
     <col min="6" max="6" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12843,92 +13108,92 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:6" s="167" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="181" t="s">
+    <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="183" t="s">
-        <v>433</v>
-      </c>
-      <c r="E3" s="181" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="181" t="s">
+      <c r="D3" s="181" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="179" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="178" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="179" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="177" t="s">
-        <v>439</v>
+      <c r="D4" s="176" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="175" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="181" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="279" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" s="280"/>
-      <c r="F5" s="177"/>
+      <c r="C5" s="179" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="278" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="279"/>
+      <c r="F5" s="175"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="284" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="281" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" s="281"/>
-      <c r="F6" s="220" t="s">
-        <v>442</v>
+      <c r="C6" s="283" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="280" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="280"/>
+      <c r="F6" s="217" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="285"/>
-      <c r="D7" s="282" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="243"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="281" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="282"/>
+      <c r="F7" s="216"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="181" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" s="275" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="177"/>
+      <c r="C8" s="179" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="274" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="275"/>
+      <c r="F8" s="175"/>
     </row>
     <row r="9" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="182" t="s">
-        <v>443</v>
-      </c>
-      <c r="D9" s="277" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" s="278"/>
-      <c r="F9" s="180" t="s">
-        <v>445</v>
+      <c r="C9" s="180" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="276" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="277"/>
+      <c r="F9" s="178" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="196" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
+      <c r="B12" s="197" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12961,14 +13226,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4269B017-789B-41ED-BD77-7D4EFB97B036}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="167" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="166" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.69921875" customWidth="1"/>
     <col min="6" max="6" width="20.69921875" customWidth="1"/>
@@ -12979,164 +13244,207 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="167" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="167" t="s">
+    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="285" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="297" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="286" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="221" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="222"/>
+      <c r="D5" s="183" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="183"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="222"/>
+      <c r="D6" s="183" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="183"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="222"/>
+      <c r="D7" s="183" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="183"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="222"/>
+      <c r="D8" s="183" t="s">
+        <v>438</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="183"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="222"/>
+      <c r="D9" s="183" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="183"/>
+    </row>
+    <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="239"/>
+      <c r="D10" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="184"/>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="296" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="183" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="183"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="221" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="222"/>
+      <c r="D13" s="183" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="183"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="222"/>
+      <c r="D14" s="183" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="183"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="222"/>
+      <c r="D15" s="183" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="183"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="239"/>
+      <c r="D16" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="184"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="222" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="183"/>
+    </row>
+    <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="222"/>
+      <c r="D18" s="183" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="183"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="221" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="60"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="222"/>
+      <c r="D20" s="183" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="183"/>
+    </row>
+    <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C21" s="239"/>
+      <c r="D21" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E21" s="184"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="222" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="183" t="s">
         <v>459</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="F3" s="167" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="270" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="270"/>
-      <c r="D5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="270"/>
-      <c r="D6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="270"/>
-      <c r="D7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="270"/>
-      <c r="D8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="270"/>
-      <c r="D9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="270"/>
-      <c r="D10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="167" t="s">
-        <v>458</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="183"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C23" s="222"/>
+      <c r="D23" s="183" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="270" t="s">
-        <v>470</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="183"/>
+    </row>
+    <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="239"/>
+      <c r="D24" s="32" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="270"/>
-      <c r="D13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="270"/>
-      <c r="D14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="270"/>
-      <c r="D15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="270"/>
-      <c r="D16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="270" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C18" s="270"/>
-      <c r="D18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C19" s="270" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C20" s="270"/>
-      <c r="D20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C21" s="270"/>
-      <c r="D21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C22" s="270" t="s">
-        <v>474</v>
-      </c>
-      <c r="D22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C23" s="270"/>
-      <c r="D23" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C24" s="270"/>
-      <c r="D24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="203" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B27" s="204" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13169,25 +13477,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="197"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="198" t="s">
+      <c r="B36" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="36"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13217,10 +13525,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="199" t="s">
+      <c r="B1" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="199"/>
+      <c r="C1" s="200"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13231,56 +13539,56 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="201" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
     </row>
     <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
     </row>
     <row r="18" spans="7:14" x14ac:dyDescent="0.45">
-      <c r="G18" s="201" t="s">
+      <c r="G18" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
@@ -13318,10 +13626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="197"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13342,93 +13650,93 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="200"/>
+      <c r="C5" s="201"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="200"/>
+      <c r="C6" s="201"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="200"/>
+      <c r="C7" s="201"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="202"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="201" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I18" s="200" t="s">
+      <c r="I18" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
     </row>
     <row r="20" spans="2:13" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13467,10 +13775,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="198" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="197"/>
+      <c r="C1" s="198"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13478,30 +13786,30 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
@@ -13509,12 +13817,12 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13537,8 +13845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F728D6-6012-4598-8A5B-E2689D47448D}">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13559,10 +13867,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="217" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="217"/>
+      <c r="C2" s="241" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="241"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -13576,803 +13884,783 @@
         <v>118</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" s="71" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="221" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="217" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="217"/>
+      <c r="G4" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="221" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="222"/>
+      <c r="D5" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="208"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C6" s="222"/>
+      <c r="D6" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="208"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="222"/>
+      <c r="D7" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="208"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C8" s="222"/>
+      <c r="D8" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="208"/>
+    </row>
+    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="239"/>
+      <c r="D9" s="142" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="209"/>
+    </row>
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="221" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="220" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="220"/>
-      <c r="G4" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="211" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="212"/>
-      <c r="D5" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="207"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="212"/>
-      <c r="D6" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="207"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="212"/>
-      <c r="D7" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="207"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="212"/>
-      <c r="D8" s="66" t="s">
+      <c r="D10" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="242" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="213" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="207"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="207"/>
-    </row>
-    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="213"/>
-      <c r="D9" s="142" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="142" t="s">
+      <c r="H10" s="207" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="222"/>
+      <c r="D11" s="294" t="s">
+        <v>508</v>
+      </c>
+      <c r="E11" s="242"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C12" s="222"/>
+      <c r="D12" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="242"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="208"/>
+    </row>
+    <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="239"/>
+      <c r="D13" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="243"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="209"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C14" s="207" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="229" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="213" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="225" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="207" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="207" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C15" s="208"/>
+      <c r="D15" s="65" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="229"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C16" s="208"/>
+      <c r="D16" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="229"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+    </row>
+    <row r="17" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="208"/>
+      <c r="D17" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="229"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+    </row>
+    <row r="18" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="209"/>
+      <c r="D18" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+    </row>
+    <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="207" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="223" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="237" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="224" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="207" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" s="207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C20" s="208"/>
+      <c r="D20" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" s="213"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C21" s="208"/>
+      <c r="D21" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="213"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="225"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C22" s="208"/>
+      <c r="D22" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="213"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+    </row>
+    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C23" s="208"/>
+      <c r="D23" s="74" t="s">
+        <v>510</v>
+      </c>
+      <c r="E23" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="215"/>
+      <c r="G23" s="211" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="211" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="211" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C24" s="208"/>
+      <c r="D24" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C25" s="208"/>
+      <c r="D25" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="208"/>
-    </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="211" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="222" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="219" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="214" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="206" t="s">
-        <v>337</v>
-      </c>
-      <c r="I10" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="212"/>
-      <c r="D11" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="222"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="207"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="212"/>
-      <c r="D12" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="222"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207"/>
-    </row>
-    <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="213"/>
-      <c r="D13" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C14" s="206" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="218" t="s">
-        <v>321</v>
-      </c>
-      <c r="F14" s="219" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="215" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="206" t="s">
-        <v>337</v>
-      </c>
-      <c r="I14" s="206" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C15" s="207"/>
-      <c r="D15" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C16" s="207"/>
-      <c r="D16" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="218"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-    </row>
-    <row r="17" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="207"/>
-      <c r="D17" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="218"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-    </row>
-    <row r="18" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="208"/>
-      <c r="D18" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-    </row>
-    <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="206" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="226" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="209" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="214" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="206" t="s">
-        <v>337</v>
-      </c>
-      <c r="I19" s="206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="207"/>
-      <c r="D20" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="E20" s="219"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C21" s="207"/>
-      <c r="D21" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="219"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="207"/>
-      <c r="D22" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="207"/>
-      <c r="D23" s="74" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="227" t="s">
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
+    </row>
+    <row r="26" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C26" s="208"/>
+      <c r="D26" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C27" s="208"/>
+      <c r="D27" s="58" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="227"/>
-      <c r="G23" s="228" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="228" t="s">
-        <v>337</v>
-      </c>
-      <c r="I23" s="228" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="207"/>
-      <c r="D24" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="207"/>
-      <c r="D25" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
-    </row>
-    <row r="26" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C26" s="207"/>
-      <c r="D26" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="207"/>
-      <c r="D27" s="58" t="s">
-        <v>159</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="207" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="207" t="s">
-        <v>337</v>
-      </c>
-      <c r="I27" s="207" t="s">
-        <v>337</v>
+      <c r="G27" s="208" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="208" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C28" s="207"/>
+      <c r="C28" s="208"/>
       <c r="D28" s="58" t="s">
-        <v>319</v>
+        <v>511</v>
       </c>
       <c r="E28" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+    </row>
+    <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="222"/>
+      <c r="D29" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="208"/>
+    </row>
+    <row r="30" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C30" s="208"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C31" s="207" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="168" t="s">
+        <v>406</v>
+      </c>
+      <c r="E31" s="226" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" s="212" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" s="207" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="207" t="s">
+        <v>412</v>
+      </c>
+      <c r="I31" s="207" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C32" s="208"/>
+      <c r="D32" s="169" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" s="227"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+    </row>
+    <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C33" s="208"/>
+      <c r="D33" s="169" t="s">
+        <v>514</v>
+      </c>
+      <c r="E33" s="227"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" s="208"/>
+      <c r="D34" s="164" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="227"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+    </row>
+    <row r="35" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="208"/>
+      <c r="D35" s="163" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="227"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C36" s="208"/>
+      <c r="D36" s="170" t="s">
+        <v>405</v>
+      </c>
+      <c r="E36" s="228"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+    </row>
+    <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C37" s="208"/>
+      <c r="D37" s="123" t="s">
+        <v>515</v>
+      </c>
+      <c r="E37" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+    </row>
+    <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="208"/>
+      <c r="D38" s="123" t="s">
+        <v>516</v>
+      </c>
+      <c r="E38" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="F38" s="126" t="s">
+        <v>415</v>
+      </c>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C39" s="208"/>
+      <c r="D39" s="164" t="s">
+        <v>408</v>
+      </c>
+      <c r="E39" s="229" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" s="215"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+    </row>
+    <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="209"/>
+      <c r="D40" s="295" t="s">
+        <v>517</v>
+      </c>
+      <c r="E40" s="230"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="209"/>
+    </row>
+    <row r="41" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="207" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="217"/>
+      <c r="F41" s="231" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="I41" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C42" s="208"/>
+      <c r="D42" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
-    </row>
-    <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="212"/>
-      <c r="D29" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
-    </row>
-    <row r="30" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="207"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="77" t="s">
+      <c r="E42" s="218"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C43" s="208"/>
+      <c r="D43" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="206" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" s="169" t="s">
-        <v>419</v>
-      </c>
-      <c r="E31" s="231" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="241" t="s">
-        <v>429</v>
-      </c>
-      <c r="G31" s="206" t="s">
-        <v>428</v>
-      </c>
-      <c r="H31" s="206" t="s">
-        <v>427</v>
-      </c>
-      <c r="I31" s="206" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" s="207"/>
-      <c r="D32" s="170" t="s">
-        <v>421</v>
-      </c>
-      <c r="E32" s="232"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C33" s="207"/>
-      <c r="D33" s="171" t="s">
-        <v>418</v>
-      </c>
-      <c r="E33" s="232"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="207"/>
-      <c r="D34" s="164" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" s="232"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-    </row>
-    <row r="35" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C35" s="207"/>
-      <c r="D35" s="163" t="s">
-        <v>415</v>
-      </c>
-      <c r="E35" s="232"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="207"/>
-      <c r="D36" s="172" t="s">
-        <v>416</v>
-      </c>
-      <c r="E36" s="233"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-    </row>
-    <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C37" s="207"/>
-      <c r="D37" s="123" t="s">
-        <v>417</v>
-      </c>
-      <c r="E37" s="173" t="s">
-        <v>425</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-    </row>
-    <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C38" s="207"/>
-      <c r="D38" s="123" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" s="174" t="s">
-        <v>426</v>
-      </c>
-      <c r="F38" s="126" t="s">
-        <v>430</v>
-      </c>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="207"/>
-      <c r="D39" s="164" t="s">
-        <v>422</v>
-      </c>
-      <c r="E39" s="218" t="s">
-        <v>425</v>
-      </c>
-      <c r="F39" s="227"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-    </row>
-    <row r="40" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="208"/>
-      <c r="D40" s="90" t="s">
-        <v>423</v>
-      </c>
-      <c r="E40" s="234"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208"/>
-    </row>
-    <row r="41" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="206" t="s">
+      <c r="E43" s="219"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="208"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C44" s="208"/>
+      <c r="D44" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="E44" s="215"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="211" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="211" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="208"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C45" s="208"/>
+      <c r="D45" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="E45" s="218"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="208"/>
+      <c r="H45" s="208"/>
+      <c r="I45" s="208"/>
+    </row>
+    <row r="46" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C46" s="208"/>
+      <c r="D46" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="235" t="s">
+      <c r="E46" s="219"/>
+      <c r="F46" s="232"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="208"/>
+    </row>
+    <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C47" s="209"/>
+      <c r="D47" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="233"/>
+      <c r="G47" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="162" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" s="209"/>
+    </row>
+    <row r="48" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E48" s="231" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="234" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="207" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="207" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" s="207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C49" s="208"/>
+      <c r="D49" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="E49" s="232"/>
+      <c r="F49" s="235"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="208"/>
+      <c r="I49" s="208"/>
+    </row>
+    <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C50" s="209"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="236"/>
+      <c r="G50" s="209"/>
+      <c r="H50" s="209"/>
+      <c r="I50" s="209"/>
+    </row>
+    <row r="51" spans="2:10" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="207" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="217"/>
+      <c r="F51" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="G41" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="I41" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="207"/>
-      <c r="D42" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="221"/>
-      <c r="F42" s="236"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C43" s="207"/>
-      <c r="D43" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="225"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="207"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C44" s="207"/>
-      <c r="D44" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="227"/>
-      <c r="F44" s="236"/>
-      <c r="G44" s="228" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="228" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="207"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C45" s="207"/>
-      <c r="D45" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="221"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="207"/>
-      <c r="I45" s="207"/>
-    </row>
-    <row r="46" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C46" s="207"/>
-      <c r="D46" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="225"/>
-      <c r="F46" s="236"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="229"/>
-      <c r="I46" s="207"/>
-    </row>
-    <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="208"/>
-      <c r="D47" s="70" t="s">
+      <c r="G51" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="I51" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="208"/>
+      <c r="D52" s="164" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="218"/>
+      <c r="F52" s="232"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="208"/>
+      <c r="I52" s="208"/>
+    </row>
+    <row r="53" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="208"/>
+      <c r="D53" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="237"/>
-      <c r="G47" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="162" t="s">
-        <v>337</v>
-      </c>
-      <c r="I47" s="208"/>
-    </row>
-    <row r="48" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="206" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="235" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="238" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="206" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="206" t="s">
-        <v>337</v>
-      </c>
-      <c r="I48" s="206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C49" s="207"/>
-      <c r="D49" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="236"/>
-      <c r="F49" s="239"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-    </row>
-    <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="208"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="237"/>
-      <c r="F50" s="240"/>
-      <c r="G50" s="208"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="208"/>
-    </row>
-    <row r="51" spans="2:10" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="206" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="E51" s="220"/>
-      <c r="F51" s="235" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="I51" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="207"/>
-      <c r="D52" s="164" t="s">
-        <v>277</v>
-      </c>
-      <c r="E52" s="221"/>
-      <c r="F52" s="236"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-    </row>
-    <row r="53" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="207"/>
-      <c r="D53" s="164" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="221"/>
-      <c r="F53" s="236"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="208"/>
+      <c r="H53" s="208"/>
+      <c r="I53" s="208"/>
     </row>
     <row r="54" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="207"/>
+      <c r="C54" s="208"/>
       <c r="D54" s="164" t="s">
-        <v>363</v>
-      </c>
-      <c r="E54" s="221"/>
-      <c r="F54" s="236"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
+        <v>352</v>
+      </c>
+      <c r="E54" s="218"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="208"/>
+      <c r="I54" s="208"/>
     </row>
     <row r="55" spans="2:10" s="160" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="C55" s="207"/>
+      <c r="C55" s="208"/>
       <c r="D55" s="163" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" s="221"/>
-      <c r="F55" s="236"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="207"/>
-      <c r="I55" s="207"/>
+        <v>268</v>
+      </c>
+      <c r="E55" s="218"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="208"/>
+      <c r="I55" s="208"/>
     </row>
     <row r="56" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="207"/>
+      <c r="C56" s="208"/>
       <c r="D56" s="164" t="s">
-        <v>272</v>
-      </c>
-      <c r="E56" s="221"/>
-      <c r="F56" s="236"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="207"/>
+        <v>265</v>
+      </c>
+      <c r="E56" s="218"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="208"/>
+      <c r="I56" s="208"/>
     </row>
     <row r="57" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="208"/>
+      <c r="C57" s="209"/>
       <c r="D57" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="243"/>
-      <c r="F57" s="237"/>
-      <c r="G57" s="208"/>
-      <c r="H57" s="208"/>
-      <c r="I57" s="208"/>
+        <v>271</v>
+      </c>
+      <c r="E57" s="216"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="209"/>
+      <c r="H57" s="209"/>
+      <c r="I57" s="209"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="196" t="s">
+      <c r="B59" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="196"/>
-      <c r="D59" s="196"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
       <c r="F59" s="161" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="230" t="s">
-        <v>352</v>
-      </c>
-      <c r="I59" s="230"/>
-      <c r="J59" s="230"/>
+      <c r="H59" s="220" t="s">
+        <v>341</v>
+      </c>
+      <c r="I59" s="220"/>
+      <c r="J59" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I31:I40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="F4:F8"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="C19:C30"/>
@@ -14389,20 +14677,40 @@
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14434,22 +14742,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="244" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
+      <c r="B1" s="252" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="217" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="241" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
@@ -14459,271 +14767,271 @@
         <v>118</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="211" t="s">
-        <v>218</v>
+      <c r="C4" s="221" t="s">
+        <v>211</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="245" t="s">
-        <v>221</v>
+        <v>212</v>
+      </c>
+      <c r="E4" s="253" t="s">
+        <v>214</v>
       </c>
       <c r="F4" s="120"/>
-      <c r="G4" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="206" t="s">
-        <v>339</v>
+      <c r="G4" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="207" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="212"/>
+      <c r="C5" s="222"/>
       <c r="D5" s="102" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="222"/>
+        <v>283</v>
+      </c>
+      <c r="E5" s="242"/>
       <c r="F5" s="59"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="209"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="211" t="s">
-        <v>224</v>
+      <c r="C6" s="221" t="s">
+        <v>217</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E6" s="96"/>
-      <c r="F6" s="246" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="214" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="206" t="s">
-        <v>340</v>
+      <c r="F6" s="249" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="224" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="207" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="212"/>
+      <c r="C7" s="222"/>
       <c r="D7" s="102" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E7" s="97"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="207"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="208"/>
     </row>
     <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="212"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="65" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E8" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="207"/>
+        <v>286</v>
+      </c>
+      <c r="F8" s="250"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="208"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="212"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="247"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="207"/>
+        <v>227</v>
+      </c>
+      <c r="F9" s="250"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="208"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="212"/>
+      <c r="C10" s="222"/>
       <c r="D10" s="126" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E10" s="126"/>
       <c r="F10" s="22"/>
       <c r="G10" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="207"/>
+        <v>152</v>
+      </c>
+      <c r="H10" s="208"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="212"/>
+      <c r="C11" s="222"/>
       <c r="D11" s="65" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="250" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="207"/>
+      <c r="G11" s="246" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="208"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="212"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="65" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="207"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="208"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="212"/>
+      <c r="C13" s="222"/>
       <c r="D13" s="114" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="248" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="251"/>
-      <c r="H13" s="207"/>
+      <c r="F13" s="251" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="247"/>
+      <c r="H13" s="208"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="212"/>
+      <c r="C14" s="222"/>
       <c r="D14" s="102" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E14" s="102"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="207"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="208"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="212"/>
+      <c r="C15" s="222"/>
       <c r="D15" s="102" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="135" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="252"/>
-      <c r="H15" s="208"/>
+        <v>294</v>
+      </c>
+      <c r="G15" s="248"/>
+      <c r="H15" s="209"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="211" t="s">
-        <v>266</v>
+      <c r="C16" s="221" t="s">
+        <v>259</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="241" t="s">
-        <v>270</v>
+        <v>260</v>
+      </c>
+      <c r="E16" s="212" t="s">
+        <v>263</v>
       </c>
       <c r="F16" s="60"/>
-      <c r="G16" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="206" t="s">
-        <v>341</v>
+      <c r="G16" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="207" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="212"/>
+      <c r="C17" s="222"/>
       <c r="D17" s="102" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="219"/>
+        <v>261</v>
+      </c>
+      <c r="E17" s="213"/>
       <c r="F17" s="54"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="213"/>
+      <c r="C18" s="239"/>
       <c r="D18" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="224"/>
+        <v>262</v>
+      </c>
+      <c r="E18" s="244"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="212" t="s">
-        <v>178</v>
+      <c r="C19" s="222" t="s">
+        <v>171</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="235" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="206" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="206" t="s">
-        <v>341</v>
+      <c r="F19" s="231" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="207" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="207" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="212"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="65" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="212"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="65" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="212"/>
+      <c r="C22" s="222"/>
       <c r="D22" s="65" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="212"/>
+      <c r="C23" s="222"/>
       <c r="D23" s="115" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="213"/>
+      <c r="C24" s="239"/>
       <c r="D24" s="134" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C25" s="128"/>
@@ -14733,18 +15041,18 @@
       <c r="G25" s="128"/>
     </row>
     <row r="26" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="B26" s="203" t="s">
+      <c r="B26" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="249" t="s">
-        <v>342</v>
-      </c>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
+      <c r="G26" s="245" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="245"/>
+      <c r="I26" s="245"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -14881,6 +15189,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H24"/>
@@ -14889,20 +15211,6 @@
     <mergeCell ref="G11:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14936,111 +15244,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
+      <c r="B1" s="198" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="217" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="241" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C4" s="221" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="253" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="254" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="239"/>
+      <c r="D5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="112" t="s">
+      <c r="E5" s="243"/>
+      <c r="F5" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G5" s="209"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="209"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="231"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="207" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="211" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="245" t="s">
+      <c r="H6" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="222"/>
+      <c r="D7" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="257"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="222"/>
+      <c r="D8" s="125" t="s">
         <v>221</v>
-      </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="206" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="259" t="s">
-        <v>344</v>
-      </c>
-      <c r="I4" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="213"/>
-      <c r="D5" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="223"/>
-      <c r="F5" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="208"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="208"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="211" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="206" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="I6" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="212"/>
-      <c r="D7" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="212"/>
-      <c r="D8" s="125" t="s">
-        <v>228</v>
       </c>
       <c r="E8" s="126"/>
       <c r="F8" s="127"/>
@@ -15049,87 +15357,87 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="212"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="53" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="64" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H9" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I9" s="100" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="212"/>
+      <c r="C10" s="222"/>
       <c r="D10" s="126" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F10" s="127"/>
       <c r="G10" s="124" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H10" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I10" s="124" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="212"/>
+      <c r="C11" s="222"/>
       <c r="D11" s="53" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H11" s="124" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="I11" s="100" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="212"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="126" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F12" s="127"/>
       <c r="G12" s="124" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H12" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I12" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="212"/>
+      <c r="C13" s="222"/>
       <c r="D13" s="65" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="1"/>
@@ -15138,439 +15446,459 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="212"/>
+      <c r="C14" s="222"/>
       <c r="D14" s="126" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F14" s="127"/>
       <c r="G14" s="124" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H14" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="212"/>
+      <c r="C15" s="222"/>
       <c r="D15" s="53" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="64" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H15" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I15" s="100" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="212"/>
+      <c r="C16" s="222"/>
       <c r="D16" s="126" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F16" s="127"/>
       <c r="G16" s="124" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H16" s="124" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I16" s="124" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="212"/>
+      <c r="C17" s="222"/>
       <c r="D17" s="65" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="228" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="228" t="s">
-        <v>337</v>
-      </c>
-      <c r="I17" s="228" t="s">
-        <v>337</v>
+      <c r="G17" s="211" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="211" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="211" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="212"/>
+      <c r="C18" s="222"/>
       <c r="D18" s="119" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="256" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18" s="257"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
+        <v>233</v>
+      </c>
+      <c r="E18" s="255" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="256"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
     </row>
     <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="212"/>
+      <c r="C19" s="222"/>
       <c r="D19" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="242"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="207"/>
+        <v>234</v>
+      </c>
+      <c r="E19" s="214"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="208"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="212"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="65" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="228" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="228" t="s">
-        <v>338</v>
-      </c>
-      <c r="I20" s="228" t="s">
-        <v>338</v>
+      <c r="G20" s="211" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="211" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" s="211" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="212"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="65" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="207"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="212"/>
+      <c r="C22" s="222"/>
       <c r="D22" s="65" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="G22" s="207"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="207"/>
+        <v>258</v>
+      </c>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="212"/>
+      <c r="C23" s="222"/>
       <c r="D23" s="115" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="132" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="207"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="207"/>
+        <v>295</v>
+      </c>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="212"/>
+      <c r="C24" s="222"/>
       <c r="D24" s="114" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="212"/>
+      <c r="C25" s="222"/>
       <c r="D25" s="53" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="208"/>
+      <c r="I25" s="208"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="212"/>
+      <c r="C26" s="222"/>
       <c r="D26" s="53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="212"/>
+      <c r="C27" s="222"/>
       <c r="D27" s="53" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="207"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="212"/>
+      <c r="C28" s="222"/>
       <c r="D28" s="53" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="207"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="212"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="53" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="208"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="212"/>
+      <c r="C30" s="222"/>
       <c r="D30" s="65" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="212"/>
+      <c r="C31" s="222"/>
       <c r="D31" s="53" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="212"/>
+      <c r="C32" s="222"/>
       <c r="D32" s="53" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="212"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="53" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="212"/>
+      <c r="C34" s="222"/>
       <c r="D34" s="53" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
+        <v>255</v>
+      </c>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="212"/>
+      <c r="C35" s="222"/>
       <c r="D35" s="53" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="213"/>
+      <c r="C36" s="239"/>
       <c r="D36" s="55" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="111"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="209"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="211" t="s">
+      <c r="C37" s="221" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="253" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="120"/>
+      <c r="G37" s="207" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="I37" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C38" s="222"/>
+      <c r="D38" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="242"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="239"/>
+      <c r="D39" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="243"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+    </row>
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="207" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="117"/>
+      <c r="F40" s="258" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="I40" s="207" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C41" s="208"/>
+      <c r="D41" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="259"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+    </row>
+    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+      <c r="C42" s="208"/>
+      <c r="D42" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="245" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="120"/>
-      <c r="G37" s="206" t="s">
-        <v>243</v>
-      </c>
-      <c r="H37" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="I37" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="212"/>
-      <c r="D38" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="E38" s="222"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-    </row>
-    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="213"/>
-      <c r="D39" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="223"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-    </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="206" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="259"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C43" s="208"/>
+      <c r="D43" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="47"/>
+      <c r="F43" s="259"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="208"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C44" s="208"/>
+      <c r="D44" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="259"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+    </row>
+    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C45" s="209"/>
+      <c r="D45" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="116" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="253" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="206" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="206" t="s">
-        <v>338</v>
-      </c>
-      <c r="I40" s="206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="207"/>
-      <c r="D41" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-    </row>
-    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C42" s="207"/>
-      <c r="D42" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="254"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C43" s="207"/>
-      <c r="D43" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="254"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C44" s="207"/>
-      <c r="D44" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="254"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-    </row>
-    <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="208"/>
-      <c r="D45" s="72" t="s">
-        <v>278</v>
-      </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="255"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
+      <c r="F45" s="260"/>
+      <c r="G45" s="209"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="209"/>
     </row>
     <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
+      <c r="B47" s="197" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
       <c r="F47" s="141" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="230" t="s">
-        <v>352</v>
-      </c>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
+      <c r="H47" s="220" t="s">
+        <v>341</v>
+      </c>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G20:G36"/>
+    <mergeCell ref="C6:C36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H37:H39"/>
@@ -15584,26 +15912,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I36"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:G36"/>
-    <mergeCell ref="C6:C36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="F40:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063C771-30AC-4181-8515-48A98200CBCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC66E7-D0F4-48A5-8BB7-06290DC75497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="532">
   <si>
     <t>■仕様書リスト</t>
     <rPh sb="1" eb="4">
@@ -879,16 +879,6 @@
   </si>
   <si>
     <t>ゲームフロー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>仕様書リストに戻る</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1942,16 +1932,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>拳で殴るモーション</t>
-    <rPh sb="0" eb="1">
-      <t>コブシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>大きくジャンプし相手を一刀両断するようなモーション</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -1971,16 +1951,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>アシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>キャラクターの拳にバフがかかっているようなエフェクトを付ける</t>
-    <rPh sb="7" eb="8">
-      <t>コブシ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -6484,22 +6454,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Cキー+マウス左クリック、L２＋Aボタン : 弱闘技(モーション値 1.6)</t>
-    <rPh sb="7" eb="8">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウギ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マウス右クリック、L１トリガー : ガード</t>
     <rPh sb="3" eb="4">
       <t>ミギ</t>
@@ -6667,6 +6621,93 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>～大まかなスケジュール～</t>
+  </si>
+  <si>
+    <t>10月末  α版の完成</t>
+  </si>
+  <si>
+    <t>11月末  β版の完成</t>
+  </si>
+  <si>
+    <t>1月末    ゲームのバグや気になる部分の修正</t>
+  </si>
+  <si>
+    <t>3月末    シェーダー周りの描画システムの改善</t>
+  </si>
+  <si>
+    <t>以降       ゲーム全体のブラッシュアップ</t>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様書リストに戻る</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勢いよくジャンプするモーション</t>
+    <rPh sb="0" eb="1">
+      <t>イキオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cキー+マウス左クリック、L２＋Aボタン : 弱闘技</t>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャラクターの足にバフがかかっているようなエフェクトを付ける。　　　　　　少し前方に移動させる</t>
+    <rPh sb="7" eb="8">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12月末  ゲームの全体的な流れを遊ぶことができる</t>
+    <rPh sb="2" eb="4">
+      <t>ガツマツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アソ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -6675,7 +6716,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6784,6 +6825,14 @@
       <u/>
       <sz val="20"/>
       <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -7178,7 +7227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7734,6 +7783,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7770,84 +7852,84 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8001,6 +8083,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8033,45 +8127,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10148,8 +10203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F273324-931C-4C31-BD68-F66AF2293AC8}">
   <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10163,30 +10218,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="A2" s="200"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
-      <c r="F3" s="193" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" s="193"/>
+      <c r="F3" s="204" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="204"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
@@ -10206,7 +10261,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="201" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -10219,11 +10274,11 @@
         <v>9</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="191"/>
+      <c r="B6" s="202"/>
       <c r="C6" s="41" t="s">
         <v>82</v>
       </c>
@@ -10237,7 +10292,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="191"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
@@ -10250,7 +10305,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="191"/>
+      <c r="B8" s="202"/>
       <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
@@ -10263,7 +10318,7 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="192"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
@@ -10274,11 +10329,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="196" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="78" t="s">
@@ -10293,7 +10348,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="186"/>
+      <c r="B11" s="197"/>
       <c r="C11" s="79" t="s">
         <v>19</v>
       </c>
@@ -10306,7 +10361,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="186"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="79" t="s">
         <v>21</v>
       </c>
@@ -10319,7 +10374,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="186"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="79" t="s">
         <v>20</v>
       </c>
@@ -10332,9 +10387,9 @@
       <c r="F13" s="84"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="186"/>
+      <c r="B14" s="197"/>
       <c r="C14" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="84">
         <v>45148</v>
@@ -10345,7 +10400,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="186"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="79" t="s">
         <v>23</v>
       </c>
@@ -10358,7 +10413,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="186"/>
+      <c r="B16" s="197"/>
       <c r="C16" s="79" t="s">
         <v>34</v>
       </c>
@@ -10371,7 +10426,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="186"/>
+      <c r="B17" s="197"/>
       <c r="C17" s="79" t="s">
         <v>24</v>
       </c>
@@ -10384,7 +10439,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="186"/>
+      <c r="B18" s="197"/>
       <c r="C18" s="79" t="s">
         <v>25</v>
       </c>
@@ -10395,11 +10450,11 @@
         <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="186"/>
+      <c r="B19" s="197"/>
       <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
@@ -10412,7 +10467,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="186"/>
+      <c r="B20" s="197"/>
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
@@ -10425,7 +10480,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="187"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="154" t="s">
         <v>17</v>
       </c>
@@ -10438,7 +10493,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="205" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="173" t="s">
@@ -10451,11 +10506,11 @@
         <v>43</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="195"/>
+      <c r="B23" s="206"/>
       <c r="C23" s="41" t="s">
         <v>41</v>
       </c>
@@ -10466,11 +10521,11 @@
         <v>44</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="196"/>
+      <c r="B24" s="207"/>
       <c r="C24" s="174" t="s">
         <v>42</v>
       </c>
@@ -10481,7 +10536,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11181,7 +11236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF1F6AF-A344-4F43-B933-07FDEFF1EDA8}">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11192,7 +11249,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B1" s="91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -11205,34 +11262,34 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="204"/>
+      <c r="C11" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11251,7 +11308,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11265,213 +11322,213 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="85"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="155" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="262"/>
-      <c r="D4" s="217" t="s">
+      <c r="C4" s="273"/>
+      <c r="D4" s="227" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="222" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="274"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="223"/>
+    </row>
+    <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C6" s="274"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="223"/>
+    </row>
+    <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="274"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="223"/>
+    </row>
+    <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="275"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="212" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="263"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="F5" s="213"/>
-    </row>
-    <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C6" s="263"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="46" t="s">
+      <c r="F8" s="255"/>
+    </row>
+    <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="274"/>
+      <c r="D9" s="228" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="223" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="274"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="223"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="274"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="213"/>
-    </row>
-    <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="263"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="213"/>
-    </row>
-    <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="264"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="244"/>
-    </row>
-    <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="263"/>
-      <c r="D9" s="218" t="s">
+      <c r="F11" s="223"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="274"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="F12" s="223"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="275"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="213" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="263"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="46" t="s">
+      <c r="F13" s="255"/>
+    </row>
+    <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="273"/>
+      <c r="D14" s="227" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="222" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="274"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="223"/>
+    </row>
+    <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C16" s="274"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="157" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="223"/>
+    </row>
+    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="274"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="223"/>
+    </row>
+    <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="275"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="151" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="255"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="273"/>
+      <c r="D19" s="227" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="222" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="274"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="F10" s="213"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="263"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="213"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="263"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="213"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="264"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="244"/>
-    </row>
-    <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="262"/>
-      <c r="D14" s="217" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="156" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="212" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="263"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="157" t="s">
+      <c r="F20" s="223"/>
+    </row>
+    <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C21" s="274"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="F15" s="213"/>
-    </row>
-    <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="263"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="157" t="s">
-        <v>385</v>
-      </c>
-      <c r="F16" s="213"/>
-    </row>
-    <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="263"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="157" t="s">
-        <v>386</v>
-      </c>
-      <c r="F17" s="213"/>
-    </row>
-    <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="264"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="244"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="262"/>
-      <c r="D19" s="217" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" s="156" t="s">
+      <c r="F21" s="223"/>
+    </row>
+    <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="C22" s="274"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="F19" s="212" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="263"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="157" t="s">
+      <c r="F22" s="223"/>
+    </row>
+    <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="275"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="F20" s="213"/>
-    </row>
-    <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="263"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="157" t="s">
-        <v>393</v>
-      </c>
-      <c r="F21" s="213"/>
-    </row>
-    <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C22" s="263"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="157" t="s">
-        <v>394</v>
-      </c>
-      <c r="F22" s="213"/>
-    </row>
-    <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="264"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="151" t="s">
-        <v>395</v>
-      </c>
-      <c r="F23" s="244"/>
+      <c r="F23" s="255"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B25" s="261" t="s">
+      <c r="B25" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="261"/>
+      <c r="C25" s="272"/>
       <c r="D25" s="158"/>
       <c r="E25" s="159" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -11520,160 +11577,160 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="262"/>
-      <c r="D4" s="207" t="s">
+      <c r="C4" s="273"/>
+      <c r="D4" s="217" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="276" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="217" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="C5" s="274"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="277"/>
+      <c r="G5" s="218"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="274"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="277"/>
+      <c r="G6" s="218"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="275"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F7" s="278"/>
+      <c r="G7" s="219"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="273"/>
+      <c r="D8" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="265" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C5" s="263"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="51" t="s">
+      <c r="E8" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="266"/>
-      <c r="G5" s="208"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="263"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="54" t="s">
+      <c r="F8" s="279" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="266"/>
-      <c r="G6" s="208"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="264"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="90" t="s">
+      <c r="G8" s="217" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C9" s="274"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="267"/>
-      <c r="G7" s="209"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="262"/>
-      <c r="D8" s="254" t="s">
+      <c r="F9" s="280"/>
+      <c r="G9" s="218"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C10" s="274"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="280"/>
+      <c r="G10" s="218"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="274"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="280"/>
+      <c r="G11" s="218"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C12" s="274"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="280"/>
+      <c r="G12" s="218"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C13" s="274"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="268" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="263"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="269"/>
-      <c r="G9" s="208"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="263"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="54" t="s">
+      <c r="F13" s="280"/>
+      <c r="G13" s="218"/>
+    </row>
+    <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="C14" s="274"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="280"/>
+      <c r="G14" s="218"/>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="275"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="269"/>
-      <c r="G10" s="208"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="263"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="269"/>
-      <c r="G11" s="208"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="263"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="269"/>
-      <c r="G12" s="208"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="263"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="269"/>
-      <c r="G13" s="208"/>
-    </row>
-    <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="263"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="269"/>
-      <c r="G14" s="208"/>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="264"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="270"/>
-      <c r="G15" s="209"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="219"/>
     </row>
     <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="199" t="s">
-        <v>332</v>
-      </c>
-      <c r="G17" s="199"/>
+        <v>186</v>
+      </c>
+      <c r="F17" s="210" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11715,7 +11772,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
@@ -11725,30 +11782,30 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11778,7 +11835,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
@@ -11787,41 +11844,41 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C3" s="201" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
+      <c r="C3" s="212" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C5" s="271" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" s="139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C7" s="139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="139" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -11834,50 +11891,50 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C10" s="138" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" s="95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11899,9 +11956,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528173E-8324-4AE9-B1D3-CA80F2EF098B}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11911,7 +11970,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
@@ -11920,87 +11979,95 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C3" s="201" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
+      <c r="C3" s="212" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="271" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
+      <c r="C6" s="282" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="193"/>
+      <c r="C7" s="204" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="204"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="193" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="193"/>
+      <c r="C8" s="204" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="204"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="272" t="s">
-        <v>342</v>
-      </c>
-      <c r="D11" s="272"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
+      <c r="C11" s="283" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C12" s="273" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
+      <c r="C12" s="284" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="203" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
+      <c r="C13" s="214" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="193" t="s">
-        <v>364</v>
-      </c>
-      <c r="D15" s="193"/>
+      <c r="C15" s="204" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="204"/>
+    </row>
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="208" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="C13:I14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C3:F3"/>
@@ -12015,6 +12082,7 @@
     <hyperlink ref="C7" location="プレイヤー!I3" display="プレイヤー" xr:uid="{CDBE6314-E909-456F-881E-39E9312D991F}"/>
     <hyperlink ref="C8:D8" location="'敵(Normal)'!I3" display="敵(Normal)" xr:uid="{8CBC7FF6-66A2-4195-A3AB-731487C77C7B}"/>
     <hyperlink ref="C15:D15" r:id="rId1" display="サイトはこちら" xr:uid="{261E543C-F75F-4DE7-9A53-4C4456554083}"/>
+    <hyperlink ref="B17" location="リスト!A1" display="仕様書リストに戻る" xr:uid="{44F8269A-EC59-4E4E-A871-176CEE447EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12025,7 +12093,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12039,7 +12107,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" s="86" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12051,13 +12119,13 @@
     </row>
     <row r="3" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>46</v>
@@ -12065,70 +12133,70 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="217"/>
-      <c r="D4" s="207" t="s">
-        <v>345</v>
+      <c r="C4" s="227"/>
+      <c r="D4" s="217" t="s">
+        <v>342</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="218"/>
-      <c r="D5" s="208"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="102" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F5" s="102"/>
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="262"/>
-      <c r="D6" s="207" t="s">
-        <v>348</v>
+      <c r="C6" s="273"/>
+      <c r="D6" s="217" t="s">
+        <v>345</v>
       </c>
       <c r="E6" s="146" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F6" s="103"/>
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="264"/>
-      <c r="D7" s="209"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="219"/>
       <c r="E7" s="134" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F7" s="145"/>
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="262"/>
-      <c r="D8" s="254" t="s">
-        <v>353</v>
+      <c r="C8" s="273"/>
+      <c r="D8" s="265" t="s">
+        <v>350</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F8" s="147"/>
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="263"/>
-      <c r="D9" s="247"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="258"/>
       <c r="E9" s="150" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F9" s="148"/>
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="264"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="259"/>
       <c r="E10" s="151" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F10" s="149"/>
       <c r="G10" s="144"/>
@@ -12141,10 +12209,10 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="199"/>
+      <c r="C12" s="210"/>
       <c r="D12" s="129"/>
       <c r="E12" s="1"/>
       <c r="F12" s="133"/>
@@ -12205,115 +12273,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="252"/>
+      <c r="C1" s="263"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="214" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="214" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="214" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="203" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="214" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="203" t="s">
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="212" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="203" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="203"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="203" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="201" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12362,84 +12430,84 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" s="95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C7" s="95" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" s="95" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17" s="93" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C18" s="94" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="36" x14ac:dyDescent="0.45">
       <c r="C19" s="152" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="197"/>
+      <c r="C21" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12471,361 +12539,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="252"/>
+      <c r="C1" s="263"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="285" t="s">
+      <c r="C3" s="186" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="285" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="248" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="286"/>
+      <c r="D5" s="183" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="183" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="249"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="286"/>
+      <c r="D6" s="183" t="s">
         <v>464</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="292" t="s">
-        <v>463</v>
-      </c>
-      <c r="D4" s="60" t="s">
+      <c r="E6" s="183"/>
+      <c r="F6" s="188"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" s="286"/>
+      <c r="D7" s="183" t="s">
         <v>465</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="237" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="287"/>
-      <c r="D5" s="183" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="188"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" s="286"/>
+      <c r="D8" s="183" t="s">
         <v>466</v>
       </c>
-      <c r="E5" s="183" t="s">
-        <v>503</v>
-      </c>
-      <c r="F5" s="238"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="287"/>
-      <c r="D6" s="183" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="188"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C9" s="286"/>
+      <c r="D9" s="183" t="s">
         <v>467</v>
       </c>
-      <c r="E6" s="183"/>
-      <c r="F6" s="288"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="287"/>
-      <c r="D7" s="183" t="s">
+      <c r="E9" s="183"/>
+      <c r="F9" s="188"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C10" s="286"/>
+      <c r="D10" s="183" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="288"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="287"/>
-      <c r="D8" s="183" t="s">
+      <c r="E10" s="183"/>
+      <c r="F10" s="188"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" s="286"/>
+      <c r="D11" s="183" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="183"/>
+      <c r="F11" s="188"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C12" s="286"/>
+      <c r="D12" s="183" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" s="183"/>
+      <c r="F12" s="188"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C13" s="286"/>
+      <c r="D13" s="183" t="s">
         <v>469</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="288"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="287"/>
-      <c r="D9" s="183" t="s">
+      <c r="E13" s="183"/>
+      <c r="F13" s="188"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="286"/>
+      <c r="D14" s="183" t="s">
         <v>470</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="288"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="287"/>
-      <c r="D10" s="183" t="s">
+      <c r="E14" s="183"/>
+      <c r="F14" s="188"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="286"/>
+      <c r="D15" s="183" t="s">
         <v>471</v>
       </c>
-      <c r="E10" s="183"/>
-      <c r="F10" s="288"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="287"/>
-      <c r="D11" s="183" t="s">
+      <c r="E15" s="183"/>
+      <c r="F15" s="188"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="286"/>
+      <c r="D16" s="183" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" s="183"/>
+      <c r="F16" s="188"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C17" s="286"/>
+      <c r="D17" s="183" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="183"/>
+      <c r="F17" s="188"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C18" s="286"/>
+      <c r="D18" s="183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="183"/>
+      <c r="F18" s="188"/>
+    </row>
+    <row r="19" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="287"/>
+      <c r="D19" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="189"/>
+      <c r="K19" s="160"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C20" s="286" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="183" t="s">
+        <v>479</v>
+      </c>
+      <c r="E20" s="183"/>
+      <c r="F20" s="188"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C21" s="286"/>
+      <c r="D21" s="183" t="s">
         <v>480</v>
       </c>
-      <c r="E11" s="183"/>
-      <c r="F11" s="288"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="287"/>
-      <c r="D12" s="183" t="s">
+      <c r="E21" s="183"/>
+      <c r="F21" s="188"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C22" s="286"/>
+      <c r="D22" s="183" t="s">
+        <v>481</v>
+      </c>
+      <c r="E22" s="183"/>
+      <c r="F22" s="188"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C23" s="286"/>
+      <c r="D23" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="E23" s="183"/>
+      <c r="F23" s="188"/>
+    </row>
+    <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="286"/>
+      <c r="D24" s="183" t="s">
+        <v>489</v>
+      </c>
+      <c r="E24" s="183"/>
+      <c r="F24" s="188"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C25" s="285" t="s">
+        <v>483</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>479</v>
       </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="288"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="287"/>
-      <c r="D13" s="183" t="s">
-        <v>472</v>
-      </c>
-      <c r="E13" s="183"/>
-      <c r="F13" s="288"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="287"/>
-      <c r="D14" s="183" t="s">
-        <v>473</v>
-      </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="288"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="287"/>
-      <c r="D15" s="183" t="s">
-        <v>474</v>
-      </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="288"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="287"/>
-      <c r="D16" s="183" t="s">
-        <v>475</v>
-      </c>
-      <c r="E16" s="183"/>
-      <c r="F16" s="288"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="287"/>
-      <c r="D17" s="183" t="s">
-        <v>476</v>
-      </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="288"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C18" s="287"/>
-      <c r="D18" s="183" t="s">
-        <v>477</v>
-      </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="288"/>
-    </row>
-    <row r="19" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="290"/>
-      <c r="D19" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="291"/>
-      <c r="K19" s="160"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C20" s="287" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="190"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C26" s="286"/>
+      <c r="D26" s="183" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="183"/>
+      <c r="F26" s="188"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C27" s="286"/>
+      <c r="D27" s="183" t="s">
+        <v>485</v>
+      </c>
+      <c r="E27" s="183"/>
+      <c r="F27" s="188"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C28" s="286"/>
+      <c r="D28" s="183" t="s">
+        <v>486</v>
+      </c>
+      <c r="E28" s="183"/>
+      <c r="F28" s="188"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C29" s="286"/>
+      <c r="D29" s="183" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="183"/>
+      <c r="F29" s="188"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C30" s="286"/>
+      <c r="D30" s="183" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="183"/>
+      <c r="F30" s="188"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C31" s="286"/>
+      <c r="D31" s="183" t="s">
+        <v>488</v>
+      </c>
+      <c r="E31" s="183"/>
+      <c r="F31" s="188"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C32" s="286"/>
+      <c r="D32" s="183" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="183" t="s">
-        <v>482</v>
-      </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="288"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C21" s="287"/>
-      <c r="D21" s="183" t="s">
-        <v>483</v>
-      </c>
-      <c r="E21" s="183"/>
-      <c r="F21" s="288"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="287"/>
-      <c r="D22" s="183" t="s">
-        <v>484</v>
-      </c>
-      <c r="E22" s="183"/>
-      <c r="F22" s="288"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C23" s="287"/>
-      <c r="D23" s="183" t="s">
-        <v>485</v>
-      </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="288"/>
-    </row>
-    <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="287"/>
-      <c r="D24" s="183" t="s">
+      <c r="E32" s="183"/>
+      <c r="F32" s="188"/>
+    </row>
+    <row r="33" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C33" s="287"/>
+      <c r="D33" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="189" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="288" t="s">
         <v>492</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="288"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="292" t="s">
-        <v>486</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>482</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="293"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="287"/>
-      <c r="D26" s="183" t="s">
-        <v>487</v>
-      </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="288"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="287"/>
-      <c r="D27" s="183" t="s">
-        <v>488</v>
-      </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="288"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="287"/>
-      <c r="D28" s="183" t="s">
-        <v>489</v>
-      </c>
-      <c r="E28" s="183"/>
-      <c r="F28" s="288"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="287"/>
-      <c r="D29" s="183" t="s">
-        <v>485</v>
-      </c>
-      <c r="E29" s="183"/>
-      <c r="F29" s="288"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C30" s="287"/>
-      <c r="D30" s="183" t="s">
-        <v>490</v>
-      </c>
-      <c r="E30" s="183"/>
-      <c r="F30" s="288"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C31" s="287"/>
-      <c r="D31" s="183" t="s">
-        <v>491</v>
-      </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="288"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C32" s="287"/>
-      <c r="D32" s="183" t="s">
-        <v>484</v>
-      </c>
-      <c r="E32" s="183"/>
-      <c r="F32" s="288"/>
-    </row>
-    <row r="33" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C33" s="290"/>
-      <c r="D33" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="291" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="289" t="s">
-        <v>495</v>
-      </c>
       <c r="D34" s="182" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E34" s="183"/>
-      <c r="F34" s="288"/>
+      <c r="F34" s="188"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C35" s="289"/>
+      <c r="C35" s="288"/>
       <c r="D35" s="182" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E35" s="183"/>
-      <c r="F35" s="288" t="s">
-        <v>501</v>
+      <c r="F35" s="188" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="289"/>
+      <c r="C36" s="288"/>
       <c r="D36" s="182"/>
       <c r="E36" s="183"/>
-      <c r="F36" s="288" t="s">
-        <v>502</v>
+      <c r="F36" s="188" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C37" s="292" t="s">
-        <v>442</v>
+      <c r="C37" s="285" t="s">
+        <v>439</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E37" s="60"/>
-      <c r="F37" s="293"/>
+      <c r="F37" s="190"/>
     </row>
     <row r="38" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="290"/>
+      <c r="C38" s="287"/>
       <c r="D38" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="F38" s="291"/>
+        <v>501</v>
+      </c>
+      <c r="F38" s="189"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C39" s="287" t="s">
-        <v>454</v>
+      <c r="C39" s="286" t="s">
+        <v>451</v>
       </c>
       <c r="D39" s="183" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E39" s="183"/>
-      <c r="F39" s="288"/>
+      <c r="F39" s="188"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C40" s="287"/>
+      <c r="C40" s="286"/>
       <c r="D40" s="183" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E40" s="183"/>
-      <c r="F40" s="288"/>
+      <c r="F40" s="188"/>
     </row>
     <row r="41" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="290"/>
+      <c r="C41" s="287"/>
       <c r="D41" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="F41" s="291"/>
+        <v>501</v>
+      </c>
+      <c r="F41" s="189"/>
     </row>
     <row r="43" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="204" t="s">
-        <v>430</v>
-      </c>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
+      <c r="B43" s="208" t="s">
+        <v>427</v>
+      </c>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12849,10 +12917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE90214-F7BE-4C55-839A-B1698CB655A0}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13034,52 +13102,90 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A49" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="197"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="158" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="195" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="195" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="195" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="195" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="195" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="195" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="195" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A56" s="208" t="s">
+        <v>527</v>
+      </c>
+      <c r="B56" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="A49" location="リスト!A1" display="仕様書リストに戻る" xr:uid="{55461722-BC5B-4DF9-81B3-B3ACA7EF2128}"/>
+    <hyperlink ref="A56" location="リスト!A1" display="仕様書リストに戻る" xr:uid="{15DA151B-CC4B-4625-B8A5-3AE3A03120FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -13110,13 +13216,13 @@
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="181" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="179" t="s">
         <v>46</v>
@@ -13124,76 +13230,76 @@
     </row>
     <row r="4" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="179" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E4" s="177" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F4" s="175" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="179" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="293" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="294"/>
+      <c r="F5" s="175"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="298" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="295" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="295"/>
+      <c r="F6" s="227" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="299"/>
+      <c r="D7" s="296" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="278" t="s">
-        <v>420</v>
-      </c>
-      <c r="E5" s="279"/>
-      <c r="F5" s="175"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="283" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="280" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" s="280"/>
-      <c r="F6" s="217" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="284"/>
-      <c r="D7" s="281" t="s">
-        <v>422</v>
-      </c>
-      <c r="E7" s="282"/>
-      <c r="F7" s="216"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="226"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="179" t="s">
-        <v>424</v>
-      </c>
-      <c r="D8" s="274" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" s="275"/>
+        <v>421</v>
+      </c>
+      <c r="D8" s="289" t="s">
+        <v>422</v>
+      </c>
+      <c r="E8" s="290"/>
       <c r="F8" s="175"/>
     </row>
     <row r="9" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="180" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="291" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="292"/>
+      <c r="F9" s="178" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B12" s="233" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="276" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="277"/>
-      <c r="F9" s="178" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="197" t="s">
-        <v>430</v>
-      </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13246,205 +13352,205 @@
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="285" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="297" t="s">
+      <c r="C3" s="186" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="194" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="187" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="231" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>431</v>
-      </c>
-      <c r="E3" s="286" t="s">
-        <v>432</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="221" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>434</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="222"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="183" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="183"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="222"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="183" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="183"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="222"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="183" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="222"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="183" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="183"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="222"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="183" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="183"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="239"/>
+      <c r="C10" s="250"/>
       <c r="D10" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E10" s="184"/>
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="296" t="s">
-        <v>442</v>
+      <c r="C11" s="193" t="s">
+        <v>439</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="221" t="s">
-        <v>454</v>
+      <c r="C12" s="231" t="s">
+        <v>451</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="222"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="183" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="183"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="222"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="183" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="183"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="222"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="183" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="239"/>
+      <c r="C16" s="250"/>
       <c r="D16" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E16" s="184"/>
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="222" t="s">
-        <v>453</v>
+      <c r="C17" s="232" t="s">
+        <v>450</v>
       </c>
       <c r="D17" s="183" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="183"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="222"/>
+      <c r="C18" s="232"/>
       <c r="D18" s="183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="221" t="s">
+      <c r="C19" s="231" t="s">
+        <v>449</v>
+      </c>
+      <c r="D19" s="60" t="s">
         <v>452</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>455</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="222"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="183" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="183"/>
     </row>
     <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="239"/>
+      <c r="C21" s="250"/>
       <c r="D21" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E21" s="184"/>
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="222" t="s">
-        <v>458</v>
+      <c r="C22" s="232" t="s">
+        <v>455</v>
       </c>
       <c r="D22" s="183" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="183"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="222"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="183" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="183"/>
     </row>
     <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="239"/>
+      <c r="C24" s="250"/>
       <c r="D24" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="32"/>
     </row>
     <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="204" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
+      <c r="B27" s="208" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="208"/>
+      <c r="D27" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13467,9 +13573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57465328-AF83-465A-8937-084765CF5F6C}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13477,25 +13581,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="198"/>
+      <c r="C1" s="209"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="199" t="s">
+      <c r="B36" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="36"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13525,70 +13629,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="200" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="200"/>
+      <c r="B1" s="211" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="211"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="201" t="s">
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="201" t="s">
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="202" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
     </row>
     <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="199" t="s">
+      <c r="B14" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
     </row>
     <row r="18" spans="7:14" x14ac:dyDescent="0.45">
-      <c r="G18" s="202" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="202"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
+      <c r="G18" s="213" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
@@ -13626,117 +13730,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="198"/>
+      <c r="B1" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="209"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="212" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="201" t="s">
+      <c r="C5" s="212"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="201"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="201" t="s">
+      <c r="C6" s="212"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="201"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="201" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="201"/>
+      <c r="C7" s="212"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="214" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="214"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="203" t="s">
+      <c r="C11" s="214"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="214"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="214"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="212" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="I18" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="203"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="201" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I18" s="201" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
     </row>
     <row r="20" spans="2:13" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13775,54 +13879,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="198" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="198"/>
+      <c r="B1" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="209"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="215" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="206" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13846,7 +13950,7 @@
   <dimension ref="B1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13863,14 +13967,14 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="241" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="241"/>
+      <c r="C2" s="252" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="252"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -13878,772 +13982,772 @@
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="71" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="231" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>504</v>
+      </c>
+      <c r="E4" s="227" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="227"/>
+      <c r="G4" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="221" t="s">
+      <c r="H4" s="231" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="232"/>
+      <c r="D5" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="218"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C6" s="232"/>
+      <c r="D6" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="218"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C7" s="232"/>
+      <c r="D7" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="218"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C8" s="232"/>
+      <c r="D8" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="228"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="218"/>
+    </row>
+    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="250"/>
+      <c r="D9" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="142" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="G9" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" s="219"/>
+    </row>
+    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="231" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="253" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="223" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="235" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="232"/>
+      <c r="D11" s="191" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="253"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C12" s="232"/>
+      <c r="D12" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="253"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="236"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+    </row>
+    <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="250"/>
+      <c r="D13" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C14" s="217" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="240" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="223" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="236" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" s="217" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C15" s="218"/>
+      <c r="D15" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="240"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="236"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C16" s="218"/>
+      <c r="D16" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="240"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+    </row>
+    <row r="17" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="218"/>
+      <c r="D17" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="240"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+    </row>
+    <row r="18" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="219"/>
+      <c r="D18" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+    </row>
+    <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="217" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="234" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="248" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="235" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="I19" s="217" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C20" s="218"/>
+      <c r="D20" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20" s="223"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C21" s="218"/>
+      <c r="D21" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="223"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C22" s="218"/>
+      <c r="D22" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="223"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="236"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+    </row>
+    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C23" s="218"/>
+      <c r="D23" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="E4" s="217" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="217"/>
-      <c r="G4" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="221" t="s">
-        <v>326</v>
-      </c>
-      <c r="I4" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="222"/>
-      <c r="D5" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="208"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="222"/>
-      <c r="D6" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="208"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="222"/>
-      <c r="D7" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="208"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="222"/>
-      <c r="D8" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="208"/>
-    </row>
-    <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="239"/>
-      <c r="D9" s="142" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="142" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" s="209"/>
-    </row>
-    <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="221" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="242" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="213" t="s">
+      <c r="E23" s="225" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="225"/>
+      <c r="G23" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="224" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="207" t="s">
-        <v>326</v>
-      </c>
-      <c r="I10" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="222"/>
-      <c r="D11" s="294" t="s">
-        <v>508</v>
-      </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="208"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="222"/>
-      <c r="D12" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="242"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-    </row>
-    <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="239"/>
-      <c r="D13" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="243"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C14" s="207" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="229" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="213" t="s">
+      <c r="H23" s="221" t="s">
+        <v>323</v>
+      </c>
+      <c r="I23" s="221" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C24" s="218"/>
+      <c r="D24" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="225" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="207" t="s">
-        <v>326</v>
-      </c>
-      <c r="I14" s="207" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C15" s="208"/>
-      <c r="D15" s="65" t="s">
-        <v>512</v>
-      </c>
-      <c r="E15" s="229"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C16" s="208"/>
-      <c r="D16" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="229"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="225"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-    </row>
-    <row r="17" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="208"/>
-      <c r="D17" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="229"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-    </row>
-    <row r="18" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="209"/>
-      <c r="D18" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-    </row>
-    <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="207" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="237" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="224" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="207" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19" s="207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="208"/>
-      <c r="D20" s="58" t="s">
-        <v>509</v>
-      </c>
-      <c r="E20" s="213"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C21" s="208"/>
-      <c r="D21" s="59" t="s">
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C25" s="218"/>
+      <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="213"/>
-      <c r="F21" s="238"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="208"/>
-      <c r="D22" s="59" t="s">
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+    </row>
+    <row r="26" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C26" s="218"/>
+      <c r="D26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="213"/>
-      <c r="F22" s="238"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-    </row>
-    <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="208"/>
-      <c r="D23" s="74" t="s">
-        <v>510</v>
-      </c>
-      <c r="E23" s="215" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="215"/>
-      <c r="G23" s="211" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="211" t="s">
-        <v>326</v>
-      </c>
-      <c r="I23" s="211" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="208"/>
-      <c r="D24" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="208"/>
-      <c r="D25" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
-    </row>
-    <row r="26" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C26" s="208"/>
-      <c r="D26" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="208"/>
+      <c r="C27" s="218"/>
       <c r="D27" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="208" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="208" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27" s="208" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C28" s="208"/>
+      <c r="G27" s="218" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="218" t="s">
+        <v>323</v>
+      </c>
+      <c r="I27" s="218" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C28" s="218"/>
       <c r="D28" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="E28" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>528</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+    </row>
+    <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="232"/>
+      <c r="D29" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-    </row>
-    <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="222"/>
-      <c r="D29" s="58" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
     </row>
     <row r="30" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="208"/>
+      <c r="C30" s="218"/>
       <c r="D30" s="38"/>
       <c r="E30" s="167"/>
       <c r="F30" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C31" s="217" t="s">
+        <v>399</v>
+      </c>
+      <c r="D31" s="168" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="237" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" s="222" t="s">
+        <v>411</v>
+      </c>
+      <c r="G31" s="217" t="s">
+        <v>410</v>
+      </c>
+      <c r="H31" s="217" t="s">
+        <v>409</v>
+      </c>
+      <c r="I31" s="217" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C32" s="218"/>
+      <c r="D32" s="169" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" s="238"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+    </row>
+    <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C33" s="218"/>
+      <c r="D33" s="169" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" s="238"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" s="218"/>
+      <c r="D34" s="164" t="s">
+        <v>400</v>
+      </c>
+      <c r="E34" s="238"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+    </row>
+    <row r="35" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="218"/>
+      <c r="D35" s="163" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="238"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C36" s="218"/>
+      <c r="D36" s="170" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="239"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+    </row>
+    <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C37" s="218"/>
+      <c r="D37" s="123" t="s">
+        <v>511</v>
+      </c>
+      <c r="E37" s="171" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+    </row>
+    <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="218"/>
+      <c r="D38" s="123" t="s">
+        <v>512</v>
+      </c>
+      <c r="E38" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="126" t="s">
+        <v>412</v>
+      </c>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C39" s="218"/>
+      <c r="D39" s="164" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" s="240" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" s="225"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+    </row>
+    <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="219"/>
+      <c r="D40" s="192" t="s">
+        <v>513</v>
+      </c>
+      <c r="E40" s="241"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+    </row>
+    <row r="41" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="217" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="227"/>
+      <c r="F41" s="242" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="217" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C42" s="218"/>
+      <c r="D42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="207" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="168" t="s">
-        <v>406</v>
-      </c>
-      <c r="E31" s="226" t="s">
-        <v>409</v>
-      </c>
-      <c r="F31" s="212" t="s">
-        <v>414</v>
-      </c>
-      <c r="G31" s="207" t="s">
-        <v>413</v>
-      </c>
-      <c r="H31" s="207" t="s">
-        <v>412</v>
-      </c>
-      <c r="I31" s="207" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" s="208"/>
-      <c r="D32" s="169" t="s">
-        <v>407</v>
-      </c>
-      <c r="E32" s="227"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-    </row>
-    <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C33" s="208"/>
-      <c r="D33" s="169" t="s">
+      <c r="E42" s="228"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C43" s="218"/>
+      <c r="D43" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="229"/>
+      <c r="F43" s="243"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="218"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C44" s="218"/>
+      <c r="D44" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="225"/>
+      <c r="F44" s="243"/>
+      <c r="G44" s="221" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="221" t="s">
+        <v>323</v>
+      </c>
+      <c r="I44" s="218"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C45" s="218"/>
+      <c r="D45" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="208"/>
-      <c r="D34" s="164" t="s">
-        <v>403</v>
-      </c>
-      <c r="E34" s="227"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-    </row>
-    <row r="35" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C35" s="208"/>
-      <c r="D35" s="163" t="s">
-        <v>404</v>
-      </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="208"/>
-      <c r="D36" s="170" t="s">
-        <v>405</v>
-      </c>
-      <c r="E36" s="228"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-    </row>
-    <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C37" s="208"/>
-      <c r="D37" s="123" t="s">
+      <c r="E45" s="228"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="218"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="218"/>
+    </row>
+    <row r="46" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C46" s="218"/>
+      <c r="D46" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="229"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="218"/>
+    </row>
+    <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C47" s="219"/>
+      <c r="D47" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="162" t="s">
+        <v>323</v>
+      </c>
+      <c r="I47" s="219"/>
+    </row>
+    <row r="48" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="217" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="E37" s="171" t="s">
-        <v>410</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-    </row>
-    <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C38" s="208"/>
-      <c r="D38" s="123" t="s">
+      <c r="E48" s="242" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="245" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="217" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="217" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="217" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C49" s="218"/>
+      <c r="D49" s="62" t="s">
         <v>516</v>
       </c>
-      <c r="E38" s="172" t="s">
-        <v>411</v>
-      </c>
-      <c r="F38" s="126" t="s">
-        <v>415</v>
-      </c>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="208"/>
-      <c r="D39" s="164" t="s">
-        <v>408</v>
-      </c>
-      <c r="E39" s="229" t="s">
-        <v>410</v>
-      </c>
-      <c r="F39" s="215"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="208"/>
-      <c r="I39" s="208"/>
-    </row>
-    <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="209"/>
-      <c r="D40" s="295" t="s">
-        <v>517</v>
-      </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
-    </row>
-    <row r="41" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="217"/>
-      <c r="F41" s="231" t="s">
+      <c r="E49" s="243"/>
+      <c r="F49" s="246"/>
+      <c r="G49" s="218"/>
+      <c r="H49" s="218"/>
+      <c r="I49" s="218"/>
+    </row>
+    <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C50" s="219"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="244"/>
+      <c r="F50" s="247"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="219"/>
+      <c r="I50" s="219"/>
+    </row>
+    <row r="51" spans="2:10" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="207" t="s">
-        <v>327</v>
-      </c>
-      <c r="I41" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="208"/>
-      <c r="D42" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="218"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C43" s="208"/>
-      <c r="D43" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="219"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="210"/>
-      <c r="I43" s="208"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C44" s="208"/>
-      <c r="D44" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="215"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="211" t="s">
-        <v>134</v>
-      </c>
-      <c r="H44" s="211" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" s="208"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C45" s="208"/>
-      <c r="D45" s="58" t="s">
-        <v>518</v>
-      </c>
-      <c r="E45" s="218"/>
-      <c r="F45" s="232"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-    </row>
-    <row r="46" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C46" s="208"/>
-      <c r="D46" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="219"/>
-      <c r="F46" s="232"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="210"/>
-      <c r="I46" s="208"/>
-    </row>
-    <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="209"/>
-      <c r="D47" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="233"/>
-      <c r="G47" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="162" t="s">
-        <v>326</v>
-      </c>
-      <c r="I47" s="209"/>
-    </row>
-    <row r="48" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="207" t="s">
+      <c r="D51" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="227"/>
+      <c r="F51" s="242" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="217" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="I51" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="218"/>
+      <c r="D52" s="164" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="228"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="218"/>
+      <c r="H52" s="218"/>
+      <c r="I52" s="218"/>
+    </row>
+    <row r="53" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="218"/>
+      <c r="D53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E48" s="231" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="234" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" s="207" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="207" t="s">
-        <v>326</v>
-      </c>
-      <c r="I48" s="207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C49" s="208"/>
-      <c r="D49" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="E49" s="232"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="208"/>
-      <c r="H49" s="208"/>
-      <c r="I49" s="208"/>
-    </row>
-    <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="209"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="209"/>
-      <c r="H50" s="209"/>
-      <c r="I50" s="209"/>
-    </row>
-    <row r="51" spans="2:10" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="207" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="217"/>
-      <c r="F51" s="231" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="207" t="s">
-        <v>327</v>
-      </c>
-      <c r="I51" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="208"/>
-      <c r="D52" s="164" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" s="218"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="208"/>
-      <c r="H52" s="208"/>
-      <c r="I52" s="208"/>
-    </row>
-    <row r="53" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="208"/>
-      <c r="D53" s="164" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="218"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="208"/>
-      <c r="H53" s="208"/>
-      <c r="I53" s="208"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="218"/>
+      <c r="H53" s="218"/>
+      <c r="I53" s="218"/>
     </row>
     <row r="54" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="208"/>
+      <c r="C54" s="218"/>
       <c r="D54" s="164" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="218"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="208"/>
-      <c r="H54" s="208"/>
-      <c r="I54" s="208"/>
+        <v>349</v>
+      </c>
+      <c r="E54" s="228"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="218"/>
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
     </row>
     <row r="55" spans="2:10" s="160" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="C55" s="208"/>
+      <c r="C55" s="218"/>
       <c r="D55" s="163" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="228"/>
+      <c r="F55" s="243"/>
+      <c r="G55" s="218"/>
+      <c r="H55" s="218"/>
+      <c r="I55" s="218"/>
+    </row>
+    <row r="56" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="218"/>
+      <c r="D56" s="164" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="228"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="218"/>
+      <c r="H56" s="218"/>
+      <c r="I56" s="218"/>
+    </row>
+    <row r="57" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C57" s="219"/>
+      <c r="D57" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="218"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="208"/>
-      <c r="H55" s="208"/>
-      <c r="I55" s="208"/>
-    </row>
-    <row r="56" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="208"/>
-      <c r="D56" s="164" t="s">
-        <v>265</v>
-      </c>
-      <c r="E56" s="218"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="208"/>
-      <c r="I56" s="208"/>
-    </row>
-    <row r="57" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="209"/>
-      <c r="D57" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="E57" s="216"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="209"/>
-      <c r="H57" s="209"/>
-      <c r="I57" s="209"/>
+      <c r="E57" s="226"/>
+      <c r="F57" s="244"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="219"/>
+      <c r="I57" s="219"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="197" t="s">
+      <c r="B59" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="197"/>
-      <c r="D59" s="197"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="233"/>
       <c r="F59" s="161" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="220" t="s">
-        <v>341</v>
-      </c>
-      <c r="I59" s="220"/>
-      <c r="J59" s="220"/>
+      <c r="H59" s="230" t="s">
+        <v>338</v>
+      </c>
+      <c r="I59" s="230"/>
+      <c r="J59" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -14727,9 +14831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C8BACC-4BF9-498D-B7DB-12328A0734E2}">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14742,296 +14844,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="252" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
+      <c r="B1" s="263" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="241" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
+      <c r="C2" s="252" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="109" t="s">
-        <v>118</v>
-      </c>
       <c r="E3" s="112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="C4" s="231" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="264" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="221" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="253" t="s">
+      <c r="H4" s="217" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="232"/>
+      <c r="D5" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="253"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="219"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="207" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="222"/>
-      <c r="D5" s="102" t="s">
+      <c r="D6" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="96"/>
+      <c r="F6" s="260" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="235" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="217" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="232"/>
+      <c r="D7" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="218"/>
+    </row>
+    <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="232"/>
+      <c r="D8" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="242"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="209"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="249" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="224" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="207" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="222"/>
-      <c r="D7" s="102" t="s">
+      <c r="F8" s="261"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="218"/>
+    </row>
+    <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="C9" s="232"/>
+      <c r="D9" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="261"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="218"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C10" s="232"/>
+      <c r="D10" s="126" t="s">
         <v>285</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="208"/>
-    </row>
-    <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="222"/>
-      <c r="D8" s="65" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="250"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="208"/>
-    </row>
-    <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="222"/>
-      <c r="D9" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="250"/>
-      <c r="G9" s="225"/>
-      <c r="H9" s="208"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="222"/>
-      <c r="D10" s="126" t="s">
-        <v>288</v>
       </c>
       <c r="E10" s="126"/>
       <c r="F10" s="22"/>
       <c r="G10" s="136" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="208"/>
+        <v>151</v>
+      </c>
+      <c r="H10" s="218"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="222"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="65" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="246" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="208"/>
+      <c r="G11" s="257" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="222"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="65" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="208"/>
+      <c r="G12" s="258"/>
+      <c r="H12" s="218"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="222"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="114" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="251" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="247"/>
-      <c r="H13" s="208"/>
+      <c r="F13" s="262" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="258"/>
+      <c r="H13" s="218"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="222"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="102" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="218"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="232"/>
+      <c r="D15" s="102" t="s">
         <v>290</v>
-      </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="208"/>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="222"/>
-      <c r="D15" s="102" t="s">
-        <v>293</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="135" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="259"/>
+      <c r="H15" s="219"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="231" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="222" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="217" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="217" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C17" s="232"/>
+      <c r="D17" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="223"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="250"/>
+      <c r="D18" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="255"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C19" s="232" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="242" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="217" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="217" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C20" s="232"/>
+      <c r="D20" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="G15" s="248"/>
-      <c r="H15" s="209"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="E16" s="212" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="207" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="222"/>
-      <c r="D17" s="102" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="213"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="239"/>
-      <c r="D18" s="107" t="s">
+      <c r="E20" s="105"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+    </row>
+    <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C21" s="232"/>
+      <c r="D21" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C22" s="232"/>
+      <c r="D22" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="244"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="222" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="65" t="s">
+      <c r="E22" s="105"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C23" s="232"/>
+      <c r="D23" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="231" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="207" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="222"/>
-      <c r="D20" s="65" t="s">
+      <c r="E23" s="105"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="250"/>
+      <c r="D24" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-    </row>
-    <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="222"/>
-      <c r="D21" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="222"/>
-      <c r="D22" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="222"/>
-      <c r="D23" s="115" t="s">
-        <v>299</v>
-      </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="232"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-    </row>
-    <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="239"/>
-      <c r="D24" s="134" t="s">
-        <v>300</v>
-      </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="233"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C25" s="128"/>
@@ -15041,18 +15143,18 @@
       <c r="G25" s="128"/>
     </row>
     <row r="26" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="B26" s="204" t="s">
+      <c r="B26" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="245" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
+      <c r="G26" s="256" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -15227,8 +15329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52036D13-E1D9-44EC-8394-05A150CFDAEB}">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15244,111 +15346,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="198" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
+      <c r="B1" s="209" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="241" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
+      <c r="C2" s="252" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="G3" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="H3" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C4" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="E4" s="264" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="217" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="265" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="250"/>
+      <c r="D5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="221" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="116" t="s">
+      <c r="E5" s="254"/>
+      <c r="F5" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="G5" s="219"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="219"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="231" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="207" t="s">
+      <c r="D6" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="254" t="s">
-        <v>333</v>
-      </c>
-      <c r="I4" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="239"/>
-      <c r="D5" s="55" t="s">
+      <c r="E6" s="242"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="217" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="243"/>
-      <c r="F5" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="209"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="209"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="221" t="s">
+      <c r="H6" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="232"/>
+      <c r="D7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="231"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="207" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="207" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="222"/>
-      <c r="D7" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="222"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="125" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E8" s="126"/>
       <c r="F8" s="127"/>
@@ -15357,87 +15459,87 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="222"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="53" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H9" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I9" s="100" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="222"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="126" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="127"/>
       <c r="G10" s="124" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H10" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" s="124" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="222"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="124" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I11" s="100" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="222"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="126" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12" s="127"/>
       <c r="G12" s="124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H12" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I12" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="222"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="65" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="1"/>
@@ -15446,436 +15548,436 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="222"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="126" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E14" s="126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F14" s="127"/>
       <c r="G14" s="124" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H14" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="222"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H15" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I15" s="100" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="222"/>
+      <c r="C16" s="232"/>
       <c r="D16" s="126" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E16" s="126" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F16" s="127"/>
       <c r="G16" s="124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H16" s="124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I16" s="124" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="222"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="211" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="211" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="211" t="s">
-        <v>326</v>
+      <c r="G17" s="221" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="221" t="s">
+        <v>323</v>
+      </c>
+      <c r="I17" s="221" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="222"/>
+      <c r="C18" s="232"/>
       <c r="D18" s="119" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="255" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="266" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="267"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+    </row>
+    <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="C19" s="232"/>
+      <c r="D19" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="224"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="218"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C20" s="232"/>
+      <c r="D20" s="65" t="s">
         <v>235</v>
-      </c>
-      <c r="F18" s="256"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-    </row>
-    <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="222"/>
-      <c r="D19" s="118" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="214"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="208"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="222"/>
-      <c r="D20" s="65" t="s">
-        <v>238</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="211" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="211" t="s">
-        <v>327</v>
-      </c>
-      <c r="I20" s="211" t="s">
-        <v>327</v>
+      <c r="G20" s="221" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="221" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="221" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="222"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="65" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="222"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="113" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
+        <v>255</v>
+      </c>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="222"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="115" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="132" t="s">
-        <v>295</v>
-      </c>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
+        <v>292</v>
+      </c>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="222"/>
+      <c r="C24" s="232"/>
       <c r="D24" s="114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="222"/>
+      <c r="C25" s="232"/>
       <c r="D25" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="208"/>
-      <c r="I25" s="208"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="222"/>
+      <c r="C26" s="232"/>
       <c r="D26" s="53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="222"/>
+      <c r="C27" s="232"/>
       <c r="D27" s="53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="222"/>
+      <c r="C28" s="232"/>
       <c r="D28" s="53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="222"/>
+      <c r="C29" s="232"/>
       <c r="D29" s="53" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="208"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="222"/>
+      <c r="C30" s="232"/>
       <c r="D30" s="65" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="222"/>
+      <c r="C31" s="232"/>
       <c r="D31" s="53" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="222"/>
+      <c r="C32" s="232"/>
       <c r="D32" s="53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="222"/>
+      <c r="C33" s="232"/>
       <c r="D33" s="53" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="222"/>
+      <c r="C34" s="232"/>
       <c r="D34" s="53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
+        <v>252</v>
+      </c>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="222"/>
+      <c r="C35" s="232"/>
       <c r="D35" s="53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="208"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="239"/>
+      <c r="C36" s="250"/>
       <c r="D36" s="55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="111"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="209"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="221" t="s">
+      <c r="C37" s="231" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" s="264" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="120"/>
+      <c r="G37" s="217" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="I37" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C38" s="232"/>
+      <c r="D38" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="253"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="250"/>
+      <c r="D39" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="253" t="s">
+      <c r="E39" s="254"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="219"/>
+    </row>
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" s="217" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="117"/>
+      <c r="F40" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="217" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40" s="217" t="s">
+        <v>324</v>
+      </c>
+      <c r="I40" s="217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C41" s="218"/>
+      <c r="D41" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="270"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+    </row>
+    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+      <c r="C42" s="218"/>
+      <c r="D42" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="120"/>
-      <c r="G37" s="207" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="207" t="s">
-        <v>327</v>
-      </c>
-      <c r="I37" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="222"/>
-      <c r="D38" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="242"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-    </row>
-    <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="239"/>
-      <c r="D39" s="55" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="270"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C43" s="218"/>
+      <c r="D43" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="243"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-    </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="207" t="s">
-        <v>264</v>
-      </c>
-      <c r="D40" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="258" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="270"/>
+      <c r="G43" s="218"/>
+      <c r="H43" s="218"/>
+      <c r="I43" s="218"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C44" s="218"/>
+      <c r="D44" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="207" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="207" t="s">
-        <v>327</v>
-      </c>
-      <c r="I40" s="207" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="208"/>
-      <c r="D41" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="259"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-    </row>
-    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C42" s="208"/>
-      <c r="D42" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="259"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C43" s="208"/>
-      <c r="D43" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="259"/>
-      <c r="G43" s="208"/>
-      <c r="H43" s="208"/>
-      <c r="I43" s="208"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C44" s="208"/>
-      <c r="D44" s="53" t="s">
-        <v>272</v>
-      </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="259"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
+      <c r="F44" s="270"/>
+      <c r="G44" s="218"/>
+      <c r="H44" s="218"/>
+      <c r="I44" s="218"/>
     </row>
     <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="209"/>
+      <c r="C45" s="219"/>
       <c r="D45" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="271"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="219"/>
+      <c r="I45" s="219"/>
+    </row>
+    <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B47" s="233" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="260"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="209"/>
-    </row>
-    <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="197" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
       <c r="F47" s="141" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="220" t="s">
-        <v>341</v>
-      </c>
-      <c r="I47" s="220"/>
-      <c r="J47" s="220"/>
+      <c r="H47" s="230" t="s">
+        <v>338</v>
+      </c>
+      <c r="I47" s="230"/>
+      <c r="J47" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC66E7-D0F4-48A5-8BB7-06290DC75497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8AD56-0991-4C4A-98E4-73214B7F51BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="2" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="12" activeTab="19" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -5736,16 +5736,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>盾持ちのアニメーションも検討</t>
-    <rPh sb="0" eb="2">
-      <t>タテモ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6708,6 +6698,28 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初めはアニメーションの方に入っているモデルを使用追々プレイヤーモデルを追加する</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>オイオイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -7888,113 +7900,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8008,22 +8035,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8035,13 +8053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10506,7 +10518,7 @@
         <v>43</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10521,7 +10533,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10536,7 +10548,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -11347,179 +11359,179 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="273"/>
-      <c r="D4" s="227" t="s">
+      <c r="D4" s="231" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="254" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" s="274"/>
-      <c r="D5" s="228"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="F5" s="223"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C6" s="274"/>
-      <c r="D6" s="228"/>
+      <c r="D6" s="232"/>
       <c r="E6" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="223"/>
+      <c r="F6" s="230"/>
     </row>
     <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="274"/>
-      <c r="D7" s="228"/>
+      <c r="D7" s="232"/>
       <c r="E7" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="223"/>
+      <c r="F7" s="230"/>
     </row>
     <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="275"/>
-      <c r="D8" s="226"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="255"/>
+      <c r="F8" s="235"/>
     </row>
     <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="232" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="230" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="228"/>
+      <c r="D10" s="232"/>
       <c r="E10" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="223"/>
+      <c r="F10" s="230"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="228"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="223"/>
+      <c r="F11" s="230"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="228"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="223"/>
+      <c r="F12" s="230"/>
     </row>
     <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="275"/>
-      <c r="D13" s="226"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="255"/>
+      <c r="F13" s="235"/>
     </row>
     <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="273"/>
-      <c r="D14" s="227" t="s">
+      <c r="D14" s="231" t="s">
         <v>380</v>
       </c>
       <c r="E14" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="222" t="s">
+      <c r="F14" s="254" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C15" s="274"/>
-      <c r="D15" s="228"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="157" t="s">
         <v>387</v>
       </c>
-      <c r="F15" s="223"/>
+      <c r="F15" s="230"/>
     </row>
     <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C16" s="274"/>
-      <c r="D16" s="228"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="223"/>
+      <c r="F16" s="230"/>
     </row>
     <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C17" s="274"/>
-      <c r="D17" s="228"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="157" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="223"/>
+      <c r="F17" s="230"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="275"/>
-      <c r="D18" s="226"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="255"/>
+      <c r="F18" s="235"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C19" s="273"/>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="231" t="s">
         <v>385</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="222" t="s">
+      <c r="F19" s="254" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C20" s="274"/>
-      <c r="D20" s="228"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="223"/>
+      <c r="F20" s="230"/>
     </row>
     <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C21" s="274"/>
-      <c r="D21" s="228"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="F21" s="223"/>
+      <c r="F21" s="230"/>
     </row>
     <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C22" s="274"/>
-      <c r="D22" s="228"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="F22" s="223"/>
+      <c r="F22" s="230"/>
     </row>
     <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="275"/>
-      <c r="D23" s="226"/>
+      <c r="D23" s="252"/>
       <c r="E23" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="F23" s="255"/>
+      <c r="F23" s="235"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B25" s="272" t="s">
@@ -11642,7 +11654,7 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="271" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -11657,7 +11669,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="258"/>
+      <c r="D9" s="263"/>
       <c r="E9" s="54" t="s">
         <v>193</v>
       </c>
@@ -11666,7 +11678,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="258"/>
+      <c r="D10" s="263"/>
       <c r="E10" s="54" t="s">
         <v>197</v>
       </c>
@@ -11675,7 +11687,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="258"/>
+      <c r="D11" s="263"/>
       <c r="E11" s="54" t="s">
         <v>195</v>
       </c>
@@ -11684,7 +11696,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="258"/>
+      <c r="D12" s="263"/>
       <c r="E12" s="54" t="s">
         <v>196</v>
       </c>
@@ -11693,7 +11705,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" s="274"/>
-      <c r="D13" s="258"/>
+      <c r="D13" s="263"/>
       <c r="E13" s="54" t="s">
         <v>194</v>
       </c>
@@ -11702,7 +11714,7 @@
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="C14" s="274"/>
-      <c r="D14" s="258"/>
+      <c r="D14" s="263"/>
       <c r="E14" s="65" t="s">
         <v>199</v>
       </c>
@@ -11711,7 +11723,7 @@
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="275"/>
-      <c r="D15" s="259"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
@@ -11734,16 +11746,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C15"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -12060,7 +12072,7 @@
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B17" s="208" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" s="208"/>
       <c r="D17" s="208"/>
@@ -12133,7 +12145,7 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="227"/>
+      <c r="C4" s="231"/>
       <c r="D4" s="217" t="s">
         <v>342</v>
       </c>
@@ -12144,7 +12156,7 @@
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="228"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="218"/>
       <c r="E5" s="102" t="s">
         <v>344</v>
@@ -12174,7 +12186,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="271" t="s">
         <v>350</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -12185,7 +12197,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="258"/>
+      <c r="D9" s="263"/>
       <c r="E9" s="150" t="s">
         <v>348</v>
       </c>
@@ -12194,7 +12206,7 @@
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="275"/>
-      <c r="D10" s="259"/>
+      <c r="D10" s="264"/>
       <c r="E10" s="151" t="s">
         <v>353</v>
       </c>
@@ -12273,10 +12285,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="263"/>
+      <c r="C1" s="256"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
@@ -12504,10 +12516,10 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="233"/>
+      <c r="C21" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12539,52 +12551,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="263"/>
+      <c r="C1" s="256"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" s="285" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E4" s="60"/>
-      <c r="F4" s="248" t="s">
-        <v>496</v>
+      <c r="F4" s="220" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" s="286"/>
       <c r="D5" s="183" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E5" s="183" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" s="249"/>
+        <v>499</v>
+      </c>
+      <c r="F5" s="221"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" s="286"/>
       <c r="D6" s="183" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E6" s="183"/>
       <c r="F6" s="188"/>
@@ -12592,7 +12604,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C7" s="286"/>
       <c r="D7" s="183" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E7" s="183"/>
       <c r="F7" s="188"/>
@@ -12600,7 +12612,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C8" s="286"/>
       <c r="D8" s="183" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8" s="183"/>
       <c r="F8" s="188"/>
@@ -12608,7 +12620,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C9" s="286"/>
       <c r="D9" s="183" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E9" s="183"/>
       <c r="F9" s="188"/>
@@ -12616,7 +12628,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" s="286"/>
       <c r="D10" s="183" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E10" s="183"/>
       <c r="F10" s="188"/>
@@ -12624,7 +12636,7 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="286"/>
       <c r="D11" s="183" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E11" s="183"/>
       <c r="F11" s="188"/>
@@ -12632,7 +12644,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="286"/>
       <c r="D12" s="183" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="183"/>
       <c r="F12" s="188"/>
@@ -12640,7 +12652,7 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C13" s="286"/>
       <c r="D13" s="183" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E13" s="183"/>
       <c r="F13" s="188"/>
@@ -12648,7 +12660,7 @@
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C14" s="286"/>
       <c r="D14" s="183" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E14" s="183"/>
       <c r="F14" s="188"/>
@@ -12656,7 +12668,7 @@
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C15" s="286"/>
       <c r="D15" s="183" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E15" s="183"/>
       <c r="F15" s="188"/>
@@ -12664,7 +12676,7 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C16" s="286"/>
       <c r="D16" s="183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E16" s="183"/>
       <c r="F16" s="188"/>
@@ -12672,7 +12684,7 @@
     <row r="17" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C17" s="286"/>
       <c r="D17" s="183" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E17" s="183"/>
       <c r="F17" s="188"/>
@@ -12680,7 +12692,7 @@
     <row r="18" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C18" s="286"/>
       <c r="D18" s="183" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E18" s="183"/>
       <c r="F18" s="188"/>
@@ -12688,7 +12700,7 @@
     <row r="19" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="287"/>
       <c r="D19" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="189"/>
@@ -12696,10 +12708,10 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C20" s="286" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="183" t="s">
         <v>478</v>
-      </c>
-      <c r="D20" s="183" t="s">
-        <v>479</v>
       </c>
       <c r="E20" s="183"/>
       <c r="F20" s="188"/>
@@ -12707,7 +12719,7 @@
     <row r="21" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C21" s="286"/>
       <c r="D21" s="183" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E21" s="183"/>
       <c r="F21" s="188"/>
@@ -12715,7 +12727,7 @@
     <row r="22" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C22" s="286"/>
       <c r="D22" s="183" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E22" s="183"/>
       <c r="F22" s="188"/>
@@ -12723,7 +12735,7 @@
     <row r="23" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C23" s="286"/>
       <c r="D23" s="183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E23" s="183"/>
       <c r="F23" s="188"/>
@@ -12731,17 +12743,17 @@
     <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C24" s="286"/>
       <c r="D24" s="183" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E24" s="183"/>
       <c r="F24" s="188"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C25" s="285" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="190"/>
@@ -12749,7 +12761,7 @@
     <row r="26" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C26" s="286"/>
       <c r="D26" s="183" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E26" s="183"/>
       <c r="F26" s="188"/>
@@ -12757,7 +12769,7 @@
     <row r="27" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C27" s="286"/>
       <c r="D27" s="183" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E27" s="183"/>
       <c r="F27" s="188"/>
@@ -12765,7 +12777,7 @@
     <row r="28" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C28" s="286"/>
       <c r="D28" s="183" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E28" s="183"/>
       <c r="F28" s="188"/>
@@ -12773,7 +12785,7 @@
     <row r="29" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C29" s="286"/>
       <c r="D29" s="183" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E29" s="183"/>
       <c r="F29" s="188"/>
@@ -12781,7 +12793,7 @@
     <row r="30" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C30" s="286"/>
       <c r="D30" s="183" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E30" s="183"/>
       <c r="F30" s="188"/>
@@ -12789,7 +12801,7 @@
     <row r="31" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C31" s="286"/>
       <c r="D31" s="183" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E31" s="183"/>
       <c r="F31" s="188"/>
@@ -12797,7 +12809,7 @@
     <row r="32" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C32" s="286"/>
       <c r="D32" s="183" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E32" s="183"/>
       <c r="F32" s="188"/>
@@ -12805,19 +12817,19 @@
     <row r="33" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C33" s="287"/>
       <c r="D33" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="189" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="288" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" s="182" t="s">
         <v>492</v>
-      </c>
-      <c r="D34" s="182" t="s">
-        <v>493</v>
       </c>
       <c r="E34" s="183"/>
       <c r="F34" s="188"/>
@@ -12825,11 +12837,11 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C35" s="288"/>
       <c r="D35" s="182" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E35" s="183"/>
       <c r="F35" s="188" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12837,15 +12849,15 @@
       <c r="D36" s="182"/>
       <c r="E36" s="183"/>
       <c r="F36" s="188" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C37" s="285" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="190"/>
@@ -12853,19 +12865,19 @@
     <row r="38" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C38" s="287"/>
       <c r="D38" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F38" s="189"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C39" s="286" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D39" s="183" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E39" s="183"/>
       <c r="F39" s="188"/>
@@ -12873,7 +12885,7 @@
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C40" s="286"/>
       <c r="D40" s="183" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E40" s="183"/>
       <c r="F40" s="188"/>
@@ -12881,16 +12893,16 @@
     <row r="41" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C41" s="287"/>
       <c r="D41" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F41" s="189"/>
     </row>
     <row r="43" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B43" s="208" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C43" s="208"/>
       <c r="D43" s="208"/>
@@ -13137,45 +13149,45 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="158" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B49" s="195" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B50" s="195" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="195" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" s="195" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B53" s="195" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" s="195" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B55" s="195" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A56" s="208" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B56" s="208"/>
     </row>
@@ -13196,8 +13208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A7CD8-A754-4C83-BABD-644593A70B26}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13238,8 +13250,8 @@
       <c r="E4" s="177" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="175" t="s">
-        <v>420</v>
+      <c r="F4" s="178" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13260,8 +13272,8 @@
         <v>418</v>
       </c>
       <c r="E6" s="295"/>
-      <c r="F6" s="227" t="s">
-        <v>423</v>
+      <c r="F6" s="231" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13270,36 +13282,36 @@
         <v>419</v>
       </c>
       <c r="E7" s="297"/>
-      <c r="F7" s="226"/>
+      <c r="F7" s="252"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="179" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="289" t="s">
         <v>421</v>
-      </c>
-      <c r="D8" s="289" t="s">
-        <v>422</v>
       </c>
       <c r="E8" s="290"/>
       <c r="F8" s="175"/>
     </row>
     <row r="9" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="180" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="291" t="s">
         <v>424</v>
-      </c>
-      <c r="D9" s="291" t="s">
-        <v>425</v>
       </c>
       <c r="E9" s="292"/>
       <c r="F9" s="178" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B12" s="237" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="233" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13353,201 +13365,201 @@
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="186" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D3" s="194" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="187" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="187" t="s">
+      <c r="F3" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="61" t="s">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="222" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>431</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="183" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="183"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="232"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="183" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="183"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="183" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="183"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="183" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="183"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="250"/>
+      <c r="C10" s="224"/>
       <c r="D10" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E10" s="184"/>
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D11" s="183" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="231" t="s">
-        <v>451</v>
+      <c r="C12" s="222" t="s">
+        <v>450</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="183" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="183"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="183"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="250"/>
+      <c r="C16" s="224"/>
       <c r="D16" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E16" s="184"/>
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="232" t="s">
-        <v>450</v>
+      <c r="C17" s="223" t="s">
+        <v>449</v>
       </c>
       <c r="D17" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="183"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="232"/>
+      <c r="C18" s="223"/>
       <c r="D18" s="183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="231" t="s">
-        <v>449</v>
+      <c r="C19" s="222" t="s">
+        <v>448</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="183"/>
     </row>
     <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="250"/>
+      <c r="C21" s="224"/>
       <c r="D21" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E21" s="184"/>
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="223" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="183" t="s">
         <v>455</v>
-      </c>
-      <c r="D22" s="183" t="s">
-        <v>456</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="183"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="183" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="183"/>
     </row>
     <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="250"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="32"/>
     </row>
     <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B27" s="208" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C27" s="208"/>
       <c r="D27" s="208"/>
@@ -13573,7 +13585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57465328-AF83-465A-8937-084765CF5F6C}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -13971,10 +13983,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" s="252"/>
+      <c r="C2" s="228" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="228"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -14004,20 +14016,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>504</v>
-      </c>
-      <c r="E4" s="227" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="227"/>
+      <c r="F4" s="231"/>
       <c r="G4" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="222" t="s">
         <v>323</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -14025,51 +14037,51 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="218"/>
-      <c r="H5" s="232"/>
+      <c r="H5" s="223"/>
       <c r="I5" s="218"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="232"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="218"/>
-      <c r="H6" s="232"/>
+      <c r="H6" s="223"/>
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="232"/>
+      <c r="H7" s="223"/>
       <c r="I7" s="218"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="218"/>
-      <c r="H8" s="232"/>
+      <c r="H8" s="223"/>
       <c r="I8" s="218"/>
     </row>
     <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="250"/>
+      <c r="C9" s="224"/>
       <c r="D9" s="142" t="s">
         <v>237</v>
       </c>
@@ -14088,19 +14100,19 @@
       <c r="I9" s="219"/>
     </row>
     <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="222" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="253" t="s">
+      <c r="E10" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="235" t="s">
+      <c r="G10" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="217" t="s">
@@ -14111,35 +14123,35 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="191" t="s">
-        <v>505</v>
-      </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="236"/>
+        <v>504</v>
+      </c>
+      <c r="E11" s="233"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="226"/>
       <c r="H11" s="218"/>
       <c r="I11" s="218"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="253"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="236"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="226"/>
       <c r="H12" s="218"/>
       <c r="I12" s="218"/>
     </row>
     <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="250"/>
+      <c r="C13" s="224"/>
       <c r="D13" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="251"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="227"/>
       <c r="H13" s="219"/>
       <c r="I13" s="219"/>
     </row>
@@ -14150,13 +14162,13 @@
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="240" t="s">
+      <c r="E14" s="229" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="223" t="s">
+      <c r="F14" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="236" t="s">
+      <c r="G14" s="226" t="s">
         <v>151</v>
       </c>
       <c r="H14" s="217" t="s">
@@ -14169,11 +14181,11 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C15" s="218"/>
       <c r="D15" s="65" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="240"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="236"/>
+        <v>507</v>
+      </c>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="226"/>
       <c r="H15" s="218"/>
       <c r="I15" s="218"/>
     </row>
@@ -14182,9 +14194,9 @@
       <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="240"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="236"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="226"/>
       <c r="H16" s="218"/>
       <c r="I16" s="218"/>
     </row>
@@ -14193,9 +14205,9 @@
       <c r="D17" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="240"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="236"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="226"/>
       <c r="H17" s="218"/>
       <c r="I17" s="218"/>
     </row>
@@ -14208,7 +14220,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="54"/>
-      <c r="G18" s="236"/>
+      <c r="G18" s="226"/>
       <c r="H18" s="219"/>
       <c r="I18" s="219"/>
     </row>
@@ -14219,13 +14231,13 @@
       <c r="D19" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="234" t="s">
+      <c r="E19" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="220" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="235" t="s">
+      <c r="G19" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="217" t="s">
@@ -14238,11 +14250,11 @@
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C20" s="218"/>
       <c r="D20" s="58" t="s">
-        <v>506</v>
-      </c>
-      <c r="E20" s="223"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="236"/>
+        <v>505</v>
+      </c>
+      <c r="E20" s="230"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="226"/>
       <c r="H20" s="218"/>
       <c r="I20" s="218"/>
     </row>
@@ -14251,9 +14263,9 @@
       <c r="D21" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="223"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="236"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="226"/>
       <c r="H21" s="218"/>
       <c r="I21" s="218"/>
     </row>
@@ -14262,28 +14274,28 @@
       <c r="D22" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="223"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="236"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="226"/>
       <c r="H22" s="218"/>
       <c r="I22" s="218"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C23" s="218"/>
       <c r="D23" s="74" t="s">
-        <v>507</v>
-      </c>
-      <c r="E23" s="225" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" s="239" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="221" t="s">
+      <c r="F23" s="239"/>
+      <c r="G23" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="221" t="s">
+      <c r="H23" s="240" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="221" t="s">
+      <c r="I23" s="240" t="s">
         <v>323</v>
       </c>
     </row>
@@ -14292,8 +14304,8 @@
       <c r="D24" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
       <c r="G24" s="218"/>
       <c r="H24" s="218"/>
       <c r="I24" s="218"/>
@@ -14303,8 +14315,8 @@
       <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
       <c r="G25" s="218"/>
       <c r="H25" s="218"/>
       <c r="I25" s="218"/>
@@ -14314,11 +14326,11 @@
       <c r="D26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C27" s="218"/>
@@ -14340,22 +14352,22 @@
     <row r="28" spans="3:9" ht="54" x14ac:dyDescent="0.45">
       <c r="C28" s="218"/>
       <c r="D28" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>527</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>529</v>
-      </c>
-      <c r="E28" s="185" t="s">
-        <v>528</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>530</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="218"/>
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="232"/>
+      <c r="C29" s="223"/>
       <c r="D29" s="58" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>155</v>
@@ -14385,10 +14397,10 @@
       <c r="D31" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="E31" s="237" t="s">
+      <c r="E31" s="242" t="s">
         <v>406</v>
       </c>
-      <c r="F31" s="222" t="s">
+      <c r="F31" s="254" t="s">
         <v>411</v>
       </c>
       <c r="G31" s="217" t="s">
@@ -14406,8 +14418,8 @@
       <c r="D32" s="169" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="238"/>
-      <c r="F32" s="223"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="230"/>
       <c r="G32" s="218"/>
       <c r="H32" s="218"/>
       <c r="I32" s="218"/>
@@ -14415,10 +14427,10 @@
     <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C33" s="218"/>
       <c r="D33" s="169" t="s">
-        <v>510</v>
-      </c>
-      <c r="E33" s="238"/>
-      <c r="F33" s="223"/>
+        <v>509</v>
+      </c>
+      <c r="E33" s="243"/>
+      <c r="F33" s="230"/>
       <c r="G33" s="218"/>
       <c r="H33" s="218"/>
       <c r="I33" s="218"/>
@@ -14428,8 +14440,8 @@
       <c r="D34" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E34" s="238"/>
-      <c r="F34" s="223"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="230"/>
       <c r="G34" s="218"/>
       <c r="H34" s="218"/>
       <c r="I34" s="218"/>
@@ -14439,8 +14451,8 @@
       <c r="D35" s="163" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="238"/>
-      <c r="F35" s="223"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="230"/>
       <c r="G35" s="218"/>
       <c r="H35" s="218"/>
       <c r="I35" s="218"/>
@@ -14450,8 +14462,8 @@
       <c r="D36" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="239"/>
-      <c r="F36" s="224"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="218"/>
       <c r="H36" s="218"/>
       <c r="I36" s="218"/>
@@ -14459,7 +14471,7 @@
     <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C37" s="218"/>
       <c r="D37" s="123" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E37" s="171" t="s">
         <v>407</v>
@@ -14472,7 +14484,7 @@
     <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
       <c r="C38" s="218"/>
       <c r="D38" s="123" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E38" s="172" t="s">
         <v>408</v>
@@ -14489,10 +14501,10 @@
       <c r="D39" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="240" t="s">
+      <c r="E39" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="F39" s="225"/>
+      <c r="F39" s="239"/>
       <c r="G39" s="218"/>
       <c r="H39" s="218"/>
       <c r="I39" s="218"/>
@@ -14500,10 +14512,10 @@
     <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C40" s="219"/>
       <c r="D40" s="192" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="241"/>
-      <c r="F40" s="226"/>
+        <v>512</v>
+      </c>
+      <c r="E40" s="245"/>
+      <c r="F40" s="252"/>
       <c r="G40" s="219"/>
       <c r="H40" s="219"/>
       <c r="I40" s="219"/>
@@ -14515,8 +14527,8 @@
       <c r="D41" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="227"/>
-      <c r="F41" s="242" t="s">
+      <c r="E41" s="231"/>
+      <c r="F41" s="246" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="217" t="s">
@@ -14534,8 +14546,8 @@
       <c r="D42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="243"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="247"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -14545,10 +14557,10 @@
       <c r="D43" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="229"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="247"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
       <c r="I43" s="218"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.45">
@@ -14556,12 +14568,12 @@
       <c r="D44" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="225"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="221" t="s">
+      <c r="E44" s="239"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="221" t="s">
+      <c r="H44" s="240" t="s">
         <v>323</v>
       </c>
       <c r="I44" s="218"/>
@@ -14569,10 +14581,10 @@
     <row r="45" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C45" s="218"/>
       <c r="D45" s="58" t="s">
-        <v>514</v>
-      </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="243"/>
+        <v>513</v>
+      </c>
+      <c r="E45" s="232"/>
+      <c r="F45" s="247"/>
       <c r="G45" s="218"/>
       <c r="H45" s="218"/>
       <c r="I45" s="218"/>
@@ -14582,10 +14594,10 @@
       <c r="D46" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="229"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="220"/>
-      <c r="H46" s="220"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="247"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
       <c r="I46" s="218"/>
     </row>
     <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -14594,7 +14606,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="244"/>
+      <c r="F47" s="248"/>
       <c r="G47" s="68" t="s">
         <v>151</v>
       </c>
@@ -14608,12 +14620,12 @@
         <v>166</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>515</v>
-      </c>
-      <c r="E48" s="242" t="s">
+        <v>514</v>
+      </c>
+      <c r="E48" s="246" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="245" t="s">
+      <c r="F48" s="249" t="s">
         <v>167</v>
       </c>
       <c r="G48" s="217" t="s">
@@ -14629,10 +14641,10 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C49" s="218"/>
       <c r="D49" s="62" t="s">
-        <v>516</v>
-      </c>
-      <c r="E49" s="243"/>
-      <c r="F49" s="246"/>
+        <v>515</v>
+      </c>
+      <c r="E49" s="247"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="218"/>
       <c r="H49" s="218"/>
       <c r="I49" s="218"/>
@@ -14640,8 +14652,8 @@
     <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="219"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="244"/>
-      <c r="F50" s="247"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="251"/>
       <c r="G50" s="219"/>
       <c r="H50" s="219"/>
       <c r="I50" s="219"/>
@@ -14653,8 +14665,8 @@
       <c r="D51" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="227"/>
-      <c r="F51" s="242" t="s">
+      <c r="E51" s="231"/>
+      <c r="F51" s="246" t="s">
         <v>170</v>
       </c>
       <c r="G51" s="217" t="s">
@@ -14672,8 +14684,8 @@
       <c r="D52" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="228"/>
-      <c r="F52" s="243"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="247"/>
       <c r="G52" s="218"/>
       <c r="H52" s="218"/>
       <c r="I52" s="218"/>
@@ -14683,8 +14695,8 @@
       <c r="D53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="228"/>
-      <c r="F53" s="243"/>
+      <c r="E53" s="232"/>
+      <c r="F53" s="247"/>
       <c r="G53" s="218"/>
       <c r="H53" s="218"/>
       <c r="I53" s="218"/>
@@ -14694,8 +14706,8 @@
       <c r="D54" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="228"/>
-      <c r="F54" s="243"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="247"/>
       <c r="G54" s="218"/>
       <c r="H54" s="218"/>
       <c r="I54" s="218"/>
@@ -14705,8 +14717,8 @@
       <c r="D55" s="163" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="228"/>
-      <c r="F55" s="243"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="247"/>
       <c r="G55" s="218"/>
       <c r="H55" s="218"/>
       <c r="I55" s="218"/>
@@ -14716,8 +14728,8 @@
       <c r="D56" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="228"/>
-      <c r="F56" s="243"/>
+      <c r="E56" s="232"/>
+      <c r="F56" s="247"/>
       <c r="G56" s="218"/>
       <c r="H56" s="218"/>
       <c r="I56" s="218"/>
@@ -14727,44 +14739,64 @@
       <c r="D57" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E57" s="226"/>
-      <c r="F57" s="244"/>
+      <c r="E57" s="252"/>
+      <c r="F57" s="248"/>
       <c r="G57" s="219"/>
       <c r="H57" s="219"/>
       <c r="I57" s="219"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="233" t="s">
+      <c r="B59" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
+      <c r="C59" s="237"/>
+      <c r="D59" s="237"/>
       <c r="F59" s="161" t="s">
         <v>329</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="230" t="s">
+      <c r="H59" s="253" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="230"/>
-      <c r="J59" s="230"/>
+      <c r="I59" s="253"/>
+      <c r="J59" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="C19:C30"/>
@@ -14781,40 +14813,20 @@
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="I31:I40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14844,22 +14856,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
@@ -14882,13 +14894,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="257" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
@@ -14900,27 +14912,27 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="253"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="59"/>
       <c r="G5" s="218"/>
       <c r="H5" s="219"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="222" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>281</v>
       </c>
       <c r="E6" s="96"/>
-      <c r="F6" s="260" t="s">
+      <c r="F6" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="235" t="s">
+      <c r="G6" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="217" t="s">
@@ -14928,41 +14940,41 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="102" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="97"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="236"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="226"/>
       <c r="H7" s="218"/>
     </row>
     <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="65" t="s">
         <v>299</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="261"/>
-      <c r="G8" s="236"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="226"/>
       <c r="H8" s="218"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="65" t="s">
         <v>298</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="261"/>
-      <c r="G9" s="236"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="226"/>
       <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="232"/>
+      <c r="C10" s="223"/>
       <c r="D10" s="126" t="s">
         <v>285</v>
       </c>
@@ -14974,51 +14986,51 @@
       <c r="H10" s="218"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="257" t="s">
+      <c r="G11" s="262" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="65" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="258"/>
+      <c r="G12" s="263"/>
       <c r="H12" s="218"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="114" t="s">
         <v>286</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="262" t="s">
+      <c r="F13" s="260" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="258"/>
+      <c r="G13" s="263"/>
       <c r="H13" s="218"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="102" t="s">
         <v>287</v>
       </c>
       <c r="E14" s="102"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="258"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="263"/>
       <c r="H14" s="218"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="102" t="s">
         <v>290</v>
       </c>
@@ -15026,17 +15038,17 @@
       <c r="F15" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="259"/>
+      <c r="G15" s="264"/>
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="231" t="s">
+      <c r="C16" s="222" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="254" t="s">
         <v>260</v>
       </c>
       <c r="F16" s="60"/>
@@ -15048,34 +15060,34 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="232"/>
+      <c r="C17" s="223"/>
       <c r="D17" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="223"/>
+      <c r="E17" s="230"/>
       <c r="F17" s="54"/>
       <c r="G17" s="218"/>
       <c r="H17" s="218"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="250"/>
+      <c r="C18" s="224"/>
       <c r="D18" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="255"/>
+      <c r="E18" s="235"/>
       <c r="F18" s="32"/>
       <c r="G18" s="219"/>
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="223" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="242" t="s">
+      <c r="F19" s="246" t="s">
         <v>170</v>
       </c>
       <c r="G19" s="217" t="s">
@@ -15086,52 +15098,52 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="243"/>
+      <c r="F20" s="247"/>
       <c r="G20" s="218"/>
       <c r="H20" s="218"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="232"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="65" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="243"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="218"/>
       <c r="H21" s="218"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="232"/>
+      <c r="C22" s="223"/>
       <c r="D22" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="243"/>
+      <c r="F22" s="247"/>
       <c r="G22" s="218"/>
       <c r="H22" s="218"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="115" t="s">
         <v>296</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="243"/>
+      <c r="F23" s="247"/>
       <c r="G23" s="218"/>
       <c r="H23" s="218"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="250"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="134" t="s">
         <v>297</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="244"/>
+      <c r="F24" s="248"/>
       <c r="G24" s="219"/>
       <c r="H24" s="219"/>
     </row>
@@ -15150,11 +15162,11 @@
       <c r="D26" s="208"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="256" t="s">
+      <c r="G26" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="261"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -15291,12 +15303,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F6:F9"/>
@@ -15305,14 +15319,12 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C19:C24"/>
-    <mergeCell ref="H6:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15354,11 +15366,11 @@
       <c r="E1" s="209"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
@@ -15384,20 +15396,20 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="257" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="217" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="265" t="s">
+      <c r="H4" s="271" t="s">
         <v>330</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -15405,27 +15417,27 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="250"/>
+      <c r="C5" s="224"/>
       <c r="D5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="234"/>
       <c r="F5" s="121" t="s">
         <v>212</v>
       </c>
       <c r="G5" s="219"/>
-      <c r="H5" s="259"/>
+      <c r="H5" s="264"/>
       <c r="I5" s="219"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="222" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="227"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="231"/>
       <c r="G6" s="217" t="s">
         <v>213</v>
       </c>
@@ -15437,18 +15449,18 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="229"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="236"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="125" t="s">
         <v>218</v>
       </c>
@@ -15459,7 +15471,7 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="53" t="s">
         <v>300</v>
       </c>
@@ -15478,7 +15490,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="232"/>
+      <c r="C10" s="223"/>
       <c r="D10" s="126" t="s">
         <v>301</v>
       </c>
@@ -15497,7 +15509,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="53" t="s">
         <v>221</v>
       </c>
@@ -15518,7 +15530,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="126" t="s">
         <v>302</v>
       </c>
@@ -15537,7 +15549,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="65" t="s">
         <v>220</v>
       </c>
@@ -15548,7 +15560,7 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="126" t="s">
         <v>303</v>
       </c>
@@ -15567,7 +15579,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="53" t="s">
         <v>304</v>
       </c>
@@ -15586,7 +15598,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="232"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="126" t="s">
         <v>305</v>
       </c>
@@ -15605,65 +15617,65 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="232"/>
+      <c r="C17" s="223"/>
       <c r="D17" s="65" t="s">
         <v>306</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="221" t="s">
+      <c r="G17" s="240" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="221" t="s">
+      <c r="H17" s="240" t="s">
         <v>323</v>
       </c>
-      <c r="I17" s="221" t="s">
+      <c r="I17" s="240" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="232"/>
+      <c r="C18" s="223"/>
       <c r="D18" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="266" t="s">
+      <c r="E18" s="268" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="267"/>
+      <c r="F18" s="269"/>
       <c r="G18" s="218"/>
       <c r="H18" s="218"/>
       <c r="I18" s="218"/>
     </row>
     <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="232"/>
+      <c r="C19" s="223"/>
       <c r="D19" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
       <c r="I19" s="218"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="221" t="s">
+      <c r="G20" s="240" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="221" t="s">
+      <c r="H20" s="240" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="221" t="s">
+      <c r="I20" s="240" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="232"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="65" t="s">
         <v>236</v>
       </c>
@@ -15674,7 +15686,7 @@
       <c r="I21" s="218"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="232"/>
+      <c r="C22" s="223"/>
       <c r="D22" s="65" t="s">
         <v>239</v>
       </c>
@@ -15687,7 +15699,7 @@
       <c r="I22" s="218"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="115" t="s">
         <v>249</v>
       </c>
@@ -15700,7 +15712,7 @@
       <c r="I23" s="218"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="232"/>
+      <c r="C24" s="223"/>
       <c r="D24" s="114" t="s">
         <v>250</v>
       </c>
@@ -15711,7 +15723,7 @@
       <c r="I24" s="218"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="232"/>
+      <c r="C25" s="223"/>
       <c r="D25" s="53" t="s">
         <v>240</v>
       </c>
@@ -15722,7 +15734,7 @@
       <c r="I25" s="218"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="232"/>
+      <c r="C26" s="223"/>
       <c r="D26" s="53" t="s">
         <v>241</v>
       </c>
@@ -15733,7 +15745,7 @@
       <c r="I26" s="218"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="232"/>
+      <c r="C27" s="223"/>
       <c r="D27" s="53" t="s">
         <v>242</v>
       </c>
@@ -15744,7 +15756,7 @@
       <c r="I27" s="218"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="232"/>
+      <c r="C28" s="223"/>
       <c r="D28" s="53" t="s">
         <v>243</v>
       </c>
@@ -15755,7 +15767,7 @@
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="232"/>
+      <c r="C29" s="223"/>
       <c r="D29" s="53" t="s">
         <v>248</v>
       </c>
@@ -15766,7 +15778,7 @@
       <c r="I29" s="218"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="232"/>
+      <c r="C30" s="223"/>
       <c r="D30" s="65" t="s">
         <v>244</v>
       </c>
@@ -15777,7 +15789,7 @@
       <c r="I30" s="218"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="232"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="53" t="s">
         <v>245</v>
       </c>
@@ -15788,7 +15800,7 @@
       <c r="I31" s="218"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="232"/>
+      <c r="C32" s="223"/>
       <c r="D32" s="53" t="s">
         <v>246</v>
       </c>
@@ -15799,7 +15811,7 @@
       <c r="I32" s="218"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="232"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="53" t="s">
         <v>247</v>
       </c>
@@ -15810,7 +15822,7 @@
       <c r="I33" s="218"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="232"/>
+      <c r="C34" s="223"/>
       <c r="D34" s="53" t="s">
         <v>253</v>
       </c>
@@ -15823,7 +15835,7 @@
       <c r="I34" s="218"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="232"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="53" t="s">
         <v>254</v>
       </c>
@@ -15834,7 +15846,7 @@
       <c r="I35" s="218"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="250"/>
+      <c r="C36" s="224"/>
       <c r="D36" s="55" t="s">
         <v>251</v>
       </c>
@@ -15845,13 +15857,13 @@
       <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="231" t="s">
+      <c r="C37" s="222" t="s">
         <v>256</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="257" t="s">
         <v>260</v>
       </c>
       <c r="F37" s="120"/>
@@ -15866,22 +15878,22 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="232"/>
+      <c r="C38" s="223"/>
       <c r="D38" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="253"/>
+      <c r="E38" s="233"/>
       <c r="F38" s="122"/>
       <c r="G38" s="218"/>
       <c r="H38" s="218"/>
       <c r="I38" s="218"/>
     </row>
     <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="250"/>
+      <c r="C39" s="224"/>
       <c r="D39" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="254"/>
+      <c r="E39" s="234"/>
       <c r="F39" s="110"/>
       <c r="G39" s="219"/>
       <c r="H39" s="219"/>
@@ -15895,7 +15907,7 @@
         <v>293</v>
       </c>
       <c r="E40" s="117"/>
-      <c r="F40" s="269" t="s">
+      <c r="F40" s="265" t="s">
         <v>266</v>
       </c>
       <c r="G40" s="217" t="s">
@@ -15914,7 +15926,7 @@
         <v>270</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="270"/>
+      <c r="F41" s="266"/>
       <c r="G41" s="218"/>
       <c r="H41" s="218"/>
       <c r="I41" s="218"/>
@@ -15925,7 +15937,7 @@
         <v>263</v>
       </c>
       <c r="E42" s="47"/>
-      <c r="F42" s="270"/>
+      <c r="F42" s="266"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -15936,7 +15948,7 @@
         <v>262</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="270"/>
+      <c r="F43" s="266"/>
       <c r="G43" s="218"/>
       <c r="H43" s="218"/>
       <c r="I43" s="218"/>
@@ -15947,7 +15959,7 @@
         <v>269</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="270"/>
+      <c r="F44" s="266"/>
       <c r="G44" s="218"/>
       <c r="H44" s="218"/>
       <c r="I44" s="218"/>
@@ -15958,49 +15970,29 @@
         <v>268</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="271"/>
+      <c r="F45" s="267"/>
       <c r="G45" s="219"/>
       <c r="H45" s="219"/>
       <c r="I45" s="219"/>
     </row>
     <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="233" t="s">
+      <c r="B47" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
+      <c r="C47" s="237"/>
+      <c r="D47" s="237"/>
       <c r="F47" s="141" t="s">
         <v>329</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="230" t="s">
+      <c r="H47" s="253" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
+      <c r="I47" s="253"/>
+      <c r="J47" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:G36"/>
-    <mergeCell ref="C6:C36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H37:H39"/>
@@ -16014,6 +16006,26 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I36"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G20:G36"/>
+    <mergeCell ref="C6:C36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="F40:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8AD56-0991-4C4A-98E4-73214B7F51BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22B33D-D2EC-4D62-8F37-53D2BC3ECEF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="12" activeTab="19" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="12" activeTab="18" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -6328,22 +6328,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>歩きの音声を倍速で使う</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バイソク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上記と同じものを使用</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -6720,6 +6704,25 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>歩きの音声を倍速で使う予定</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バイソク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -10518,7 +10521,7 @@
         <v>43</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10533,7 +10536,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -10548,7 +10551,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12072,7 +12075,7 @@
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B17" s="208" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="208"/>
       <c r="D17" s="208"/>
@@ -12537,8 +12540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCEF241-5FB4-4628-BA45-DE684B49B157}">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12589,7 +12592,7 @@
         <v>462</v>
       </c>
       <c r="E5" s="183" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="F5" s="221"/>
     </row>
@@ -12821,7 +12824,7 @@
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="189" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -12868,7 +12871,7 @@
         <v>489</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F38" s="189"/>
     </row>
@@ -12896,7 +12899,7 @@
         <v>490</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F41" s="189"/>
     </row>
@@ -13149,45 +13152,45 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="158" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B49" s="195" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B50" s="195" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B51" s="195" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" s="195" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B53" s="195" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B54" s="195" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B55" s="195" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A56" s="208" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B56" s="208"/>
     </row>
@@ -13208,8 +13211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A7CD8-A754-4C83-BABD-644593A70B26}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13251,7 +13254,7 @@
         <v>415</v>
       </c>
       <c r="F4" s="178" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -13984,7 +13987,7 @@
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="228" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="228"/>
       <c r="E2" s="29"/>
@@ -14020,7 +14023,7 @@
         <v>126</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" s="231" t="s">
         <v>125</v>
@@ -14125,7 +14128,7 @@
     <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="223"/>
       <c r="D11" s="191" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E11" s="233"/>
       <c r="F11" s="230"/>
@@ -14181,7 +14184,7 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C15" s="218"/>
       <c r="D15" s="65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E15" s="229"/>
       <c r="F15" s="230"/>
@@ -14250,7 +14253,7 @@
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C20" s="218"/>
       <c r="D20" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E20" s="230"/>
       <c r="F20" s="221"/>
@@ -14283,7 +14286,7 @@
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C23" s="218"/>
       <c r="D23" s="74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E23" s="239" t="s">
         <v>150</v>
@@ -14352,13 +14355,13 @@
     <row r="28" spans="3:9" ht="54" x14ac:dyDescent="0.45">
       <c r="C28" s="218"/>
       <c r="D28" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="185" t="s">
+        <v>526</v>
+      </c>
+      <c r="F28" s="46" t="s">
         <v>528</v>
-      </c>
-      <c r="E28" s="185" t="s">
-        <v>527</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>529</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="218"/>
@@ -14367,7 +14370,7 @@
     <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
       <c r="C29" s="223"/>
       <c r="D29" s="58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>155</v>
@@ -14427,7 +14430,7 @@
     <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C33" s="218"/>
       <c r="D33" s="169" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E33" s="243"/>
       <c r="F33" s="230"/>
@@ -14471,7 +14474,7 @@
     <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
       <c r="C37" s="218"/>
       <c r="D37" s="123" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" s="171" t="s">
         <v>407</v>
@@ -14484,7 +14487,7 @@
     <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
       <c r="C38" s="218"/>
       <c r="D38" s="123" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E38" s="172" t="s">
         <v>408</v>
@@ -14512,7 +14515,7 @@
     <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C40" s="219"/>
       <c r="D40" s="192" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E40" s="245"/>
       <c r="F40" s="252"/>
@@ -14581,7 +14584,7 @@
     <row r="45" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C45" s="218"/>
       <c r="D45" s="58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E45" s="232"/>
       <c r="F45" s="247"/>
@@ -14620,7 +14623,7 @@
         <v>166</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E48" s="246" t="s">
         <v>172</v>
@@ -14641,7 +14644,7 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C49" s="218"/>
       <c r="D49" s="62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22B33D-D2EC-4D62-8F37-53D2BC3ECEF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBC85A1-5609-480B-94A0-B0071628A73A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="12" activeTab="18" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="3" activeTab="6" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="533">
   <si>
     <t>■仕様書リスト</t>
     <rPh sb="1" eb="4">
@@ -6725,6 +6725,9 @@
       <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.ac-illust.com/main/detail.php?id=23286803&amp;word=%E4%BD%93%E5%8A%9B%E3%82%B2%E3%83%BC%E3%82%B8&amp;data_type=&amp;from_order_history=</t>
   </si>
 </sst>
 </file>
@@ -7903,27 +7906,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7931,18 +8006,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7951,65 +8014,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -8017,25 +8041,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8045,18 +8060,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11362,179 +11365,179 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="273"/>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="227" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="222" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" s="274"/>
-      <c r="D5" s="232"/>
+      <c r="D5" s="228"/>
       <c r="E5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="F5" s="230"/>
+      <c r="F5" s="223"/>
     </row>
     <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C6" s="274"/>
-      <c r="D6" s="232"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="230"/>
+      <c r="F6" s="223"/>
     </row>
     <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="274"/>
-      <c r="D7" s="232"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="230"/>
+      <c r="F7" s="223"/>
     </row>
     <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="275"/>
-      <c r="D8" s="252"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="235"/>
+      <c r="F8" s="255"/>
     </row>
     <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="232" t="s">
+      <c r="D9" s="228" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="230" t="s">
+      <c r="F9" s="223" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="232"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="223"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="232"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="230"/>
+      <c r="F11" s="223"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="232"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="230"/>
+      <c r="F12" s="223"/>
     </row>
     <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="275"/>
-      <c r="D13" s="252"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="235"/>
+      <c r="F13" s="255"/>
     </row>
     <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="273"/>
-      <c r="D14" s="231" t="s">
+      <c r="D14" s="227" t="s">
         <v>380</v>
       </c>
       <c r="E14" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="254" t="s">
+      <c r="F14" s="222" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C15" s="274"/>
-      <c r="D15" s="232"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="157" t="s">
         <v>387</v>
       </c>
-      <c r="F15" s="230"/>
+      <c r="F15" s="223"/>
     </row>
     <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C16" s="274"/>
-      <c r="D16" s="232"/>
+      <c r="D16" s="228"/>
       <c r="E16" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="230"/>
+      <c r="F16" s="223"/>
     </row>
     <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C17" s="274"/>
-      <c r="D17" s="232"/>
+      <c r="D17" s="228"/>
       <c r="E17" s="157" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="230"/>
+      <c r="F17" s="223"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="275"/>
-      <c r="D18" s="252"/>
+      <c r="D18" s="226"/>
       <c r="E18" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="235"/>
+      <c r="F18" s="255"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C19" s="273"/>
-      <c r="D19" s="231" t="s">
+      <c r="D19" s="227" t="s">
         <v>385</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="254" t="s">
+      <c r="F19" s="222" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C20" s="274"/>
-      <c r="D20" s="232"/>
+      <c r="D20" s="228"/>
       <c r="E20" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="230"/>
+      <c r="F20" s="223"/>
     </row>
     <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C21" s="274"/>
-      <c r="D21" s="232"/>
+      <c r="D21" s="228"/>
       <c r="E21" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="F21" s="230"/>
+      <c r="F21" s="223"/>
     </row>
     <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C22" s="274"/>
-      <c r="D22" s="232"/>
+      <c r="D22" s="228"/>
       <c r="E22" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="F22" s="230"/>
+      <c r="F22" s="223"/>
     </row>
     <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="275"/>
-      <c r="D23" s="252"/>
+      <c r="D23" s="226"/>
       <c r="E23" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="F23" s="235"/>
+      <c r="F23" s="255"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B25" s="272" t="s">
@@ -11657,7 +11660,7 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="271" t="s">
+      <c r="D8" s="265" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -11672,7 +11675,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="263"/>
+      <c r="D9" s="258"/>
       <c r="E9" s="54" t="s">
         <v>193</v>
       </c>
@@ -11681,7 +11684,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="263"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="54" t="s">
         <v>197</v>
       </c>
@@ -11690,7 +11693,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="263"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="54" t="s">
         <v>195</v>
       </c>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="263"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="54" t="s">
         <v>196</v>
       </c>
@@ -11708,7 +11711,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" s="274"/>
-      <c r="D13" s="263"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="54" t="s">
         <v>194</v>
       </c>
@@ -11717,7 +11720,7 @@
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="C14" s="274"/>
-      <c r="D14" s="263"/>
+      <c r="D14" s="258"/>
       <c r="E14" s="65" t="s">
         <v>199</v>
       </c>
@@ -11726,7 +11729,7 @@
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="275"/>
-      <c r="D15" s="264"/>
+      <c r="D15" s="259"/>
       <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
@@ -11749,16 +11752,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G8:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -12148,7 +12151,7 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="231"/>
+      <c r="C4" s="227"/>
       <c r="D4" s="217" t="s">
         <v>342</v>
       </c>
@@ -12159,7 +12162,7 @@
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="232"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="218"/>
       <c r="E5" s="102" t="s">
         <v>344</v>
@@ -12189,7 +12192,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="271" t="s">
+      <c r="D8" s="265" t="s">
         <v>350</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -12200,7 +12203,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="263"/>
+      <c r="D9" s="258"/>
       <c r="E9" s="150" t="s">
         <v>348</v>
       </c>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="275"/>
-      <c r="D10" s="264"/>
+      <c r="D10" s="259"/>
       <c r="E10" s="151" t="s">
         <v>353</v>
       </c>
@@ -12288,10 +12291,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="256"/>
+      <c r="C1" s="263"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
@@ -12519,10 +12522,10 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="237"/>
+      <c r="C21" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12540,7 +12543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCEF241-5FB4-4628-BA45-DE684B49B157}">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -12554,10 +12557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="256"/>
+      <c r="C1" s="263"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12582,7 +12585,7 @@
         <v>461</v>
       </c>
       <c r="E4" s="60"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="248" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12594,7 +12597,7 @@
       <c r="E5" s="183" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="221"/>
+      <c r="F5" s="249"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" s="286"/>
@@ -13275,7 +13278,7 @@
         <v>418</v>
       </c>
       <c r="E6" s="295"/>
-      <c r="F6" s="231" t="s">
+      <c r="F6" s="227" t="s">
         <v>422</v>
       </c>
     </row>
@@ -13285,7 +13288,7 @@
         <v>419</v>
       </c>
       <c r="E7" s="297"/>
-      <c r="F7" s="252"/>
+      <c r="F7" s="226"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="179" t="s">
@@ -13310,11 +13313,11 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="233" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13348,7 +13351,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13380,26 +13383,28 @@
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="231" t="s">
         <v>436</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="260" t="s">
+        <v>532</v>
+      </c>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="223"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="183" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="261"/>
       <c r="F5" s="183"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="223"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="183" t="s">
         <v>432</v>
       </c>
@@ -13407,7 +13412,7 @@
       <c r="F6" s="183"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="183" t="s">
         <v>433</v>
       </c>
@@ -13415,7 +13420,7 @@
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="183" t="s">
         <v>434</v>
       </c>
@@ -13423,7 +13428,7 @@
       <c r="F8" s="183"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="183" t="s">
         <v>435</v>
       </c>
@@ -13431,7 +13436,7 @@
       <c r="F9" s="183"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="224"/>
+      <c r="C10" s="250"/>
       <c r="D10" s="32" t="s">
         <v>437</v>
       </c>
@@ -13449,7 +13454,7 @@
       <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="231" t="s">
         <v>450</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -13459,7 +13464,7 @@
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="183" t="s">
         <v>442</v>
       </c>
@@ -13467,7 +13472,7 @@
       <c r="F13" s="183"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="183" t="s">
         <v>443</v>
       </c>
@@ -13475,7 +13480,7 @@
       <c r="F14" s="183"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="223"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="183" t="s">
         <v>444</v>
       </c>
@@ -13483,7 +13488,7 @@
       <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="224"/>
+      <c r="C16" s="250"/>
       <c r="D16" s="32" t="s">
         <v>445</v>
       </c>
@@ -13491,7 +13496,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="232" t="s">
         <v>449</v>
       </c>
       <c r="D17" s="183" t="s">
@@ -13501,7 +13506,7 @@
       <c r="F17" s="183"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="223"/>
+      <c r="C18" s="232"/>
       <c r="D18" s="183" t="s">
         <v>447</v>
       </c>
@@ -13509,7 +13514,7 @@
       <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="222" t="s">
+      <c r="C19" s="231" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -13519,7 +13524,7 @@
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="183" t="s">
         <v>452</v>
       </c>
@@ -13527,7 +13532,7 @@
       <c r="F20" s="183"/>
     </row>
     <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="224"/>
+      <c r="C21" s="250"/>
       <c r="D21" s="32" t="s">
         <v>453</v>
       </c>
@@ -13535,7 +13540,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="232" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="183" t="s">
@@ -13545,7 +13550,7 @@
       <c r="F22" s="183"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="183" t="s">
         <v>456</v>
       </c>
@@ -13553,7 +13558,7 @@
       <c r="F23" s="183"/>
     </row>
     <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="224"/>
+      <c r="C24" s="250"/>
       <c r="D24" s="32" t="s">
         <v>457</v>
       </c>
@@ -13568,7 +13573,8 @@
       <c r="D27" s="208"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="C12:C16"/>
@@ -13579,6 +13585,7 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="B27" location="リスト!A1" display="仕様書リストに戻る" xr:uid="{FFA22856-A739-438A-9C24-9282828AC6C0}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{75D96EA2-8331-4C85-9026-92D117A27667}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13964,8 +13971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F728D6-6012-4598-8A5B-E2689D47448D}">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13986,10 +13993,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="252" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="228"/>
+      <c r="D2" s="252"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -14019,20 +14026,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="231" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>502</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="227" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="231"/>
+      <c r="F4" s="227"/>
       <c r="G4" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="231" t="s">
         <v>323</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -14040,51 +14047,51 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="223"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
       <c r="G5" s="218"/>
-      <c r="H5" s="223"/>
+      <c r="H5" s="232"/>
       <c r="I5" s="218"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="223"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
       <c r="G6" s="218"/>
-      <c r="H6" s="223"/>
+      <c r="H6" s="232"/>
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="223"/>
+      <c r="H7" s="232"/>
       <c r="I7" s="218"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="232"/>
-      <c r="F8" s="236"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="229"/>
       <c r="G8" s="218"/>
-      <c r="H8" s="223"/>
+      <c r="H8" s="232"/>
       <c r="I8" s="218"/>
     </row>
     <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="224"/>
+      <c r="C9" s="250"/>
       <c r="D9" s="142" t="s">
         <v>237</v>
       </c>
@@ -14103,19 +14110,19 @@
       <c r="I9" s="219"/>
     </row>
     <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="222" t="s">
+      <c r="C10" s="231" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="233" t="s">
+      <c r="E10" s="253" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="230" t="s">
+      <c r="F10" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="225" t="s">
+      <c r="G10" s="235" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="217" t="s">
@@ -14126,35 +14133,35 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="191" t="s">
         <v>503</v>
       </c>
-      <c r="E11" s="233"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="226"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="236"/>
       <c r="H11" s="218"/>
       <c r="I11" s="218"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="233"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="226"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="236"/>
       <c r="H12" s="218"/>
       <c r="I12" s="218"/>
     </row>
     <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="224"/>
+      <c r="C13" s="250"/>
       <c r="D13" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="227"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="251"/>
       <c r="H13" s="219"/>
       <c r="I13" s="219"/>
     </row>
@@ -14165,13 +14172,13 @@
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="229" t="s">
+      <c r="E14" s="240" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="230" t="s">
+      <c r="F14" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="226" t="s">
+      <c r="G14" s="236" t="s">
         <v>151</v>
       </c>
       <c r="H14" s="217" t="s">
@@ -14186,9 +14193,9 @@
       <c r="D15" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="226"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="236"/>
       <c r="H15" s="218"/>
       <c r="I15" s="218"/>
     </row>
@@ -14197,9 +14204,9 @@
       <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="229"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="226"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="236"/>
       <c r="H16" s="218"/>
       <c r="I16" s="218"/>
     </row>
@@ -14208,9 +14215,9 @@
       <c r="D17" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="226"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="236"/>
       <c r="H17" s="218"/>
       <c r="I17" s="218"/>
     </row>
@@ -14223,7 +14230,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="54"/>
-      <c r="G18" s="226"/>
+      <c r="G18" s="236"/>
       <c r="H18" s="219"/>
       <c r="I18" s="219"/>
     </row>
@@ -14234,13 +14241,13 @@
       <c r="D19" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="238" t="s">
+      <c r="E19" s="234" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="220" t="s">
+      <c r="F19" s="248" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="225" t="s">
+      <c r="G19" s="235" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="217" t="s">
@@ -14255,9 +14262,9 @@
       <c r="D20" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="230"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="226"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="236"/>
       <c r="H20" s="218"/>
       <c r="I20" s="218"/>
     </row>
@@ -14266,9 +14273,9 @@
       <c r="D21" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="230"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="226"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="236"/>
       <c r="H21" s="218"/>
       <c r="I21" s="218"/>
     </row>
@@ -14277,9 +14284,9 @@
       <c r="D22" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="230"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="226"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="236"/>
       <c r="H22" s="218"/>
       <c r="I22" s="218"/>
     </row>
@@ -14288,17 +14295,17 @@
       <c r="D23" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="239" t="s">
+      <c r="E23" s="225" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="240" t="s">
+      <c r="F23" s="225"/>
+      <c r="G23" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="240" t="s">
+      <c r="H23" s="221" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="240" t="s">
+      <c r="I23" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -14307,8 +14314,8 @@
       <c r="D24" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
       <c r="G24" s="218"/>
       <c r="H24" s="218"/>
       <c r="I24" s="218"/>
@@ -14318,8 +14325,8 @@
       <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
       <c r="G25" s="218"/>
       <c r="H25" s="218"/>
       <c r="I25" s="218"/>
@@ -14329,11 +14336,11 @@
       <c r="D26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C27" s="218"/>
@@ -14368,7 +14375,7 @@
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="223"/>
+      <c r="C29" s="232"/>
       <c r="D29" s="58" t="s">
         <v>507</v>
       </c>
@@ -14400,10 +14407,10 @@
       <c r="D31" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="E31" s="242" t="s">
+      <c r="E31" s="237" t="s">
         <v>406</v>
       </c>
-      <c r="F31" s="254" t="s">
+      <c r="F31" s="222" t="s">
         <v>411</v>
       </c>
       <c r="G31" s="217" t="s">
@@ -14421,8 +14428,8 @@
       <c r="D32" s="169" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="243"/>
-      <c r="F32" s="230"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="223"/>
       <c r="G32" s="218"/>
       <c r="H32" s="218"/>
       <c r="I32" s="218"/>
@@ -14432,8 +14439,8 @@
       <c r="D33" s="169" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="230"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="223"/>
       <c r="G33" s="218"/>
       <c r="H33" s="218"/>
       <c r="I33" s="218"/>
@@ -14443,8 +14450,8 @@
       <c r="D34" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E34" s="243"/>
-      <c r="F34" s="230"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="223"/>
       <c r="G34" s="218"/>
       <c r="H34" s="218"/>
       <c r="I34" s="218"/>
@@ -14454,8 +14461,8 @@
       <c r="D35" s="163" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="243"/>
-      <c r="F35" s="230"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="218"/>
       <c r="H35" s="218"/>
       <c r="I35" s="218"/>
@@ -14465,8 +14472,8 @@
       <c r="D36" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="255"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="224"/>
       <c r="G36" s="218"/>
       <c r="H36" s="218"/>
       <c r="I36" s="218"/>
@@ -14504,10 +14511,10 @@
       <c r="D39" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="229" t="s">
+      <c r="E39" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="F39" s="239"/>
+      <c r="F39" s="225"/>
       <c r="G39" s="218"/>
       <c r="H39" s="218"/>
       <c r="I39" s="218"/>
@@ -14517,8 +14524,8 @@
       <c r="D40" s="192" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="245"/>
-      <c r="F40" s="252"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="226"/>
       <c r="G40" s="219"/>
       <c r="H40" s="219"/>
       <c r="I40" s="219"/>
@@ -14530,8 +14537,8 @@
       <c r="D41" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="231"/>
-      <c r="F41" s="246" t="s">
+      <c r="E41" s="227"/>
+      <c r="F41" s="242" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="217" t="s">
@@ -14549,8 +14556,8 @@
       <c r="D42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="232"/>
-      <c r="F42" s="247"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -14560,10 +14567,10 @@
       <c r="D43" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="236"/>
-      <c r="F43" s="247"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="243"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
       <c r="I43" s="218"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.45">
@@ -14571,12 +14578,12 @@
       <c r="D44" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="239"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="240" t="s">
+      <c r="E44" s="225"/>
+      <c r="F44" s="243"/>
+      <c r="G44" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="240" t="s">
+      <c r="H44" s="221" t="s">
         <v>323</v>
       </c>
       <c r="I44" s="218"/>
@@ -14586,8 +14593,8 @@
       <c r="D45" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="E45" s="232"/>
-      <c r="F45" s="247"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="243"/>
       <c r="G45" s="218"/>
       <c r="H45" s="218"/>
       <c r="I45" s="218"/>
@@ -14597,10 +14604,10 @@
       <c r="D46" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="236"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="241"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
       <c r="I46" s="218"/>
     </row>
     <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -14609,7 +14616,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="248"/>
+      <c r="F47" s="244"/>
       <c r="G47" s="68" t="s">
         <v>151</v>
       </c>
@@ -14625,10 +14632,10 @@
       <c r="D48" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E48" s="246" t="s">
+      <c r="E48" s="242" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="249" t="s">
+      <c r="F48" s="245" t="s">
         <v>167</v>
       </c>
       <c r="G48" s="217" t="s">
@@ -14646,8 +14653,8 @@
       <c r="D49" s="62" t="s">
         <v>514</v>
       </c>
-      <c r="E49" s="247"/>
-      <c r="F49" s="250"/>
+      <c r="E49" s="243"/>
+      <c r="F49" s="246"/>
       <c r="G49" s="218"/>
       <c r="H49" s="218"/>
       <c r="I49" s="218"/>
@@ -14655,8 +14662,8 @@
     <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="219"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="248"/>
-      <c r="F50" s="251"/>
+      <c r="E50" s="244"/>
+      <c r="F50" s="247"/>
       <c r="G50" s="219"/>
       <c r="H50" s="219"/>
       <c r="I50" s="219"/>
@@ -14668,8 +14675,8 @@
       <c r="D51" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="231"/>
-      <c r="F51" s="246" t="s">
+      <c r="E51" s="227"/>
+      <c r="F51" s="242" t="s">
         <v>170</v>
       </c>
       <c r="G51" s="217" t="s">
@@ -14687,8 +14694,8 @@
       <c r="D52" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="232"/>
-      <c r="F52" s="247"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="243"/>
       <c r="G52" s="218"/>
       <c r="H52" s="218"/>
       <c r="I52" s="218"/>
@@ -14698,8 +14705,8 @@
       <c r="D53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="232"/>
-      <c r="F53" s="247"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="243"/>
       <c r="G53" s="218"/>
       <c r="H53" s="218"/>
       <c r="I53" s="218"/>
@@ -14709,8 +14716,8 @@
       <c r="D54" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="232"/>
-      <c r="F54" s="247"/>
+      <c r="E54" s="228"/>
+      <c r="F54" s="243"/>
       <c r="G54" s="218"/>
       <c r="H54" s="218"/>
       <c r="I54" s="218"/>
@@ -14720,8 +14727,8 @@
       <c r="D55" s="163" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="232"/>
-      <c r="F55" s="247"/>
+      <c r="E55" s="228"/>
+      <c r="F55" s="243"/>
       <c r="G55" s="218"/>
       <c r="H55" s="218"/>
       <c r="I55" s="218"/>
@@ -14731,8 +14738,8 @@
       <c r="D56" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="232"/>
-      <c r="F56" s="247"/>
+      <c r="E56" s="228"/>
+      <c r="F56" s="243"/>
       <c r="G56" s="218"/>
       <c r="H56" s="218"/>
       <c r="I56" s="218"/>
@@ -14742,64 +14749,44 @@
       <c r="D57" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E57" s="252"/>
-      <c r="F57" s="248"/>
+      <c r="E57" s="226"/>
+      <c r="F57" s="244"/>
       <c r="G57" s="219"/>
       <c r="H57" s="219"/>
       <c r="I57" s="219"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="237" t="s">
+      <c r="B59" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="237"/>
-      <c r="D59" s="237"/>
+      <c r="C59" s="233"/>
+      <c r="D59" s="233"/>
       <c r="F59" s="161" t="s">
         <v>329</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="253" t="s">
+      <c r="H59" s="230" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="253"/>
-      <c r="J59" s="253"/>
+      <c r="I59" s="230"/>
+      <c r="J59" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="I31:I40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="F4:F8"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="C19:C30"/>
@@ -14816,20 +14803,40 @@
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14859,22 +14866,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="263" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="252" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
@@ -14897,13 +14904,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="231" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="264" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
@@ -14915,27 +14922,27 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="223"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="233"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="59"/>
       <c r="G5" s="218"/>
       <c r="H5" s="219"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="231" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>281</v>
       </c>
       <c r="E6" s="96"/>
-      <c r="F6" s="258" t="s">
+      <c r="F6" s="260" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="225" t="s">
+      <c r="G6" s="235" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="217" t="s">
@@ -14943,41 +14950,41 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="102" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="97"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="226"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="236"/>
       <c r="H7" s="218"/>
     </row>
     <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="65" t="s">
         <v>299</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="226"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="236"/>
       <c r="H8" s="218"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="65" t="s">
         <v>298</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="259"/>
-      <c r="G9" s="226"/>
+      <c r="F9" s="261"/>
+      <c r="G9" s="236"/>
       <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="223"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="126" t="s">
         <v>285</v>
       </c>
@@ -14989,51 +14996,51 @@
       <c r="H10" s="218"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="262" t="s">
+      <c r="G11" s="257" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="65" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="263"/>
+      <c r="G12" s="258"/>
       <c r="H12" s="218"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="114" t="s">
         <v>286</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="260" t="s">
+      <c r="F13" s="262" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="263"/>
+      <c r="G13" s="258"/>
       <c r="H13" s="218"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="102" t="s">
         <v>287</v>
       </c>
       <c r="E14" s="102"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="263"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="258"/>
       <c r="H14" s="218"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="223"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="102" t="s">
         <v>290</v>
       </c>
@@ -15041,17 +15048,17 @@
       <c r="F15" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="264"/>
+      <c r="G15" s="259"/>
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="222" t="s">
+      <c r="C16" s="231" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="254" t="s">
+      <c r="E16" s="222" t="s">
         <v>260</v>
       </c>
       <c r="F16" s="60"/>
@@ -15063,34 +15070,34 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="223"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="230"/>
+      <c r="E17" s="223"/>
       <c r="F17" s="54"/>
       <c r="G17" s="218"/>
       <c r="H17" s="218"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="224"/>
+      <c r="C18" s="250"/>
       <c r="D18" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="235"/>
+      <c r="E18" s="255"/>
       <c r="F18" s="32"/>
       <c r="G18" s="219"/>
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="232" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="242" t="s">
         <v>170</v>
       </c>
       <c r="G19" s="217" t="s">
@@ -15101,52 +15108,52 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="247"/>
+      <c r="F20" s="243"/>
       <c r="G20" s="218"/>
       <c r="H20" s="218"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="223"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="65" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="247"/>
+      <c r="F21" s="243"/>
       <c r="G21" s="218"/>
       <c r="H21" s="218"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="223"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="247"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="218"/>
       <c r="H22" s="218"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="115" t="s">
         <v>296</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="247"/>
+      <c r="F23" s="243"/>
       <c r="G23" s="218"/>
       <c r="H23" s="218"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="224"/>
+      <c r="C24" s="250"/>
       <c r="D24" s="134" t="s">
         <v>297</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="248"/>
+      <c r="F24" s="244"/>
       <c r="G24" s="219"/>
       <c r="H24" s="219"/>
     </row>
@@ -15165,11 +15172,11 @@
       <c r="D26" s="208"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="261" t="s">
+      <c r="G26" s="256" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -15306,6 +15313,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H24"/>
@@ -15314,20 +15335,6 @@
     <mergeCell ref="G11:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15369,11 +15376,11 @@
       <c r="E1" s="209"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="252" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
@@ -15399,20 +15406,20 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="231" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="264" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="217" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="265" t="s">
         <v>330</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -15420,27 +15427,27 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="224"/>
+      <c r="C5" s="250"/>
       <c r="D5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="234"/>
+      <c r="E5" s="254"/>
       <c r="F5" s="121" t="s">
         <v>212</v>
       </c>
       <c r="G5" s="219"/>
-      <c r="H5" s="264"/>
+      <c r="H5" s="259"/>
       <c r="I5" s="219"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="231" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="231"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="227"/>
       <c r="G6" s="217" t="s">
         <v>213</v>
       </c>
@@ -15452,18 +15459,18 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="236"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="125" t="s">
         <v>218</v>
       </c>
@@ -15474,7 +15481,7 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="53" t="s">
         <v>300</v>
       </c>
@@ -15493,7 +15500,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="223"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="126" t="s">
         <v>301</v>
       </c>
@@ -15512,7 +15519,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="53" t="s">
         <v>221</v>
       </c>
@@ -15533,7 +15540,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="126" t="s">
         <v>302</v>
       </c>
@@ -15552,7 +15559,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="65" t="s">
         <v>220</v>
       </c>
@@ -15563,7 +15570,7 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="126" t="s">
         <v>303</v>
       </c>
@@ -15582,7 +15589,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="223"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="53" t="s">
         <v>304</v>
       </c>
@@ -15601,7 +15608,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="223"/>
+      <c r="C16" s="232"/>
       <c r="D16" s="126" t="s">
         <v>305</v>
       </c>
@@ -15620,65 +15627,65 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="223"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="65" t="s">
         <v>306</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="240" t="s">
+      <c r="G17" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="240" t="s">
+      <c r="H17" s="221" t="s">
         <v>323</v>
       </c>
-      <c r="I17" s="240" t="s">
+      <c r="I17" s="221" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="223"/>
+      <c r="C18" s="232"/>
       <c r="D18" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="268" t="s">
+      <c r="E18" s="266" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="269"/>
+      <c r="F18" s="267"/>
       <c r="G18" s="218"/>
       <c r="H18" s="218"/>
       <c r="I18" s="218"/>
     </row>
     <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="223"/>
+      <c r="C19" s="232"/>
       <c r="D19" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="255"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
       <c r="I19" s="218"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="240" t="s">
+      <c r="G20" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="240" t="s">
+      <c r="H20" s="221" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="240" t="s">
+      <c r="I20" s="221" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="223"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="65" t="s">
         <v>236</v>
       </c>
@@ -15689,7 +15696,7 @@
       <c r="I21" s="218"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="223"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="65" t="s">
         <v>239</v>
       </c>
@@ -15702,7 +15709,7 @@
       <c r="I22" s="218"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="115" t="s">
         <v>249</v>
       </c>
@@ -15715,7 +15722,7 @@
       <c r="I23" s="218"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="223"/>
+      <c r="C24" s="232"/>
       <c r="D24" s="114" t="s">
         <v>250</v>
       </c>
@@ -15726,7 +15733,7 @@
       <c r="I24" s="218"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="223"/>
+      <c r="C25" s="232"/>
       <c r="D25" s="53" t="s">
         <v>240</v>
       </c>
@@ -15737,7 +15744,7 @@
       <c r="I25" s="218"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="223"/>
+      <c r="C26" s="232"/>
       <c r="D26" s="53" t="s">
         <v>241</v>
       </c>
@@ -15748,7 +15755,7 @@
       <c r="I26" s="218"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="223"/>
+      <c r="C27" s="232"/>
       <c r="D27" s="53" t="s">
         <v>242</v>
       </c>
@@ -15759,7 +15766,7 @@
       <c r="I27" s="218"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="223"/>
+      <c r="C28" s="232"/>
       <c r="D28" s="53" t="s">
         <v>243</v>
       </c>
@@ -15770,7 +15777,7 @@
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="223"/>
+      <c r="C29" s="232"/>
       <c r="D29" s="53" t="s">
         <v>248</v>
       </c>
@@ -15781,7 +15788,7 @@
       <c r="I29" s="218"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="223"/>
+      <c r="C30" s="232"/>
       <c r="D30" s="65" t="s">
         <v>244</v>
       </c>
@@ -15792,7 +15799,7 @@
       <c r="I30" s="218"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="223"/>
+      <c r="C31" s="232"/>
       <c r="D31" s="53" t="s">
         <v>245</v>
       </c>
@@ -15803,7 +15810,7 @@
       <c r="I31" s="218"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="223"/>
+      <c r="C32" s="232"/>
       <c r="D32" s="53" t="s">
         <v>246</v>
       </c>
@@ -15814,7 +15821,7 @@
       <c r="I32" s="218"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="223"/>
+      <c r="C33" s="232"/>
       <c r="D33" s="53" t="s">
         <v>247</v>
       </c>
@@ -15825,7 +15832,7 @@
       <c r="I33" s="218"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="223"/>
+      <c r="C34" s="232"/>
       <c r="D34" s="53" t="s">
         <v>253</v>
       </c>
@@ -15838,7 +15845,7 @@
       <c r="I34" s="218"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="223"/>
+      <c r="C35" s="232"/>
       <c r="D35" s="53" t="s">
         <v>254</v>
       </c>
@@ -15849,7 +15856,7 @@
       <c r="I35" s="218"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="224"/>
+      <c r="C36" s="250"/>
       <c r="D36" s="55" t="s">
         <v>251</v>
       </c>
@@ -15860,13 +15867,13 @@
       <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="222" t="s">
+      <c r="C37" s="231" t="s">
         <v>256</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="257" t="s">
+      <c r="E37" s="264" t="s">
         <v>260</v>
       </c>
       <c r="F37" s="120"/>
@@ -15881,22 +15888,22 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="223"/>
+      <c r="C38" s="232"/>
       <c r="D38" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="233"/>
+      <c r="E38" s="253"/>
       <c r="F38" s="122"/>
       <c r="G38" s="218"/>
       <c r="H38" s="218"/>
       <c r="I38" s="218"/>
     </row>
     <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="224"/>
+      <c r="C39" s="250"/>
       <c r="D39" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="234"/>
+      <c r="E39" s="254"/>
       <c r="F39" s="110"/>
       <c r="G39" s="219"/>
       <c r="H39" s="219"/>
@@ -15910,7 +15917,7 @@
         <v>293</v>
       </c>
       <c r="E40" s="117"/>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="269" t="s">
         <v>266</v>
       </c>
       <c r="G40" s="217" t="s">
@@ -15929,7 +15936,7 @@
         <v>270</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="266"/>
+      <c r="F41" s="270"/>
       <c r="G41" s="218"/>
       <c r="H41" s="218"/>
       <c r="I41" s="218"/>
@@ -15940,7 +15947,7 @@
         <v>263</v>
       </c>
       <c r="E42" s="47"/>
-      <c r="F42" s="266"/>
+      <c r="F42" s="270"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -15951,7 +15958,7 @@
         <v>262</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="266"/>
+      <c r="F43" s="270"/>
       <c r="G43" s="218"/>
       <c r="H43" s="218"/>
       <c r="I43" s="218"/>
@@ -15962,7 +15969,7 @@
         <v>269</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="266"/>
+      <c r="F44" s="270"/>
       <c r="G44" s="218"/>
       <c r="H44" s="218"/>
       <c r="I44" s="218"/>
@@ -15973,29 +15980,49 @@
         <v>268</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="267"/>
+      <c r="F45" s="271"/>
       <c r="G45" s="219"/>
       <c r="H45" s="219"/>
       <c r="I45" s="219"/>
     </row>
     <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="237" t="s">
+      <c r="B47" s="233" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="237"/>
-      <c r="D47" s="237"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
       <c r="F47" s="141" t="s">
         <v>329</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="253" t="s">
+      <c r="H47" s="230" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="253"/>
-      <c r="J47" s="253"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G20:G36"/>
+    <mergeCell ref="C6:C36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H37:H39"/>
@@ -16009,26 +16036,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I36"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:G36"/>
-    <mergeCell ref="C6:C36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="F40:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBC85A1-5609-480B-94A0-B0071628A73A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C3CB-2573-486D-A9BD-1B1DCCE8D8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="3" activeTab="6" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="11" activeTab="19" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -7906,113 +7906,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8026,22 +8041,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8053,13 +8059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11365,179 +11365,179 @@
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="273"/>
-      <c r="D4" s="227" t="s">
+      <c r="D4" s="231" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="254" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C5" s="274"/>
-      <c r="D5" s="228"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="F5" s="223"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C6" s="274"/>
-      <c r="D6" s="228"/>
+      <c r="D6" s="232"/>
       <c r="E6" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="223"/>
+      <c r="F6" s="230"/>
     </row>
     <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="274"/>
-      <c r="D7" s="228"/>
+      <c r="D7" s="232"/>
       <c r="E7" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="223"/>
+      <c r="F7" s="230"/>
     </row>
     <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="275"/>
-      <c r="D8" s="226"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="255"/>
+      <c r="F8" s="235"/>
     </row>
     <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="232" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="230" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="228"/>
+      <c r="D10" s="232"/>
       <c r="E10" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="223"/>
+      <c r="F10" s="230"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="228"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="223"/>
+      <c r="F11" s="230"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="228"/>
+      <c r="D12" s="232"/>
       <c r="E12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="223"/>
+      <c r="F12" s="230"/>
     </row>
     <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="275"/>
-      <c r="D13" s="226"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="255"/>
+      <c r="F13" s="235"/>
     </row>
     <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="273"/>
-      <c r="D14" s="227" t="s">
+      <c r="D14" s="231" t="s">
         <v>380</v>
       </c>
       <c r="E14" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="222" t="s">
+      <c r="F14" s="254" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C15" s="274"/>
-      <c r="D15" s="228"/>
+      <c r="D15" s="232"/>
       <c r="E15" s="157" t="s">
         <v>387</v>
       </c>
-      <c r="F15" s="223"/>
+      <c r="F15" s="230"/>
     </row>
     <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C16" s="274"/>
-      <c r="D16" s="228"/>
+      <c r="D16" s="232"/>
       <c r="E16" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="223"/>
+      <c r="F16" s="230"/>
     </row>
     <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C17" s="274"/>
-      <c r="D17" s="228"/>
+      <c r="D17" s="232"/>
       <c r="E17" s="157" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="223"/>
+      <c r="F17" s="230"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C18" s="275"/>
-      <c r="D18" s="226"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="255"/>
+      <c r="F18" s="235"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C19" s="273"/>
-      <c r="D19" s="227" t="s">
+      <c r="D19" s="231" t="s">
         <v>385</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="222" t="s">
+      <c r="F19" s="254" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C20" s="274"/>
-      <c r="D20" s="228"/>
+      <c r="D20" s="232"/>
       <c r="E20" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="223"/>
+      <c r="F20" s="230"/>
     </row>
     <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C21" s="274"/>
-      <c r="D21" s="228"/>
+      <c r="D21" s="232"/>
       <c r="E21" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="F21" s="223"/>
+      <c r="F21" s="230"/>
     </row>
     <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="C22" s="274"/>
-      <c r="D22" s="228"/>
+      <c r="D22" s="232"/>
       <c r="E22" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="F22" s="223"/>
+      <c r="F22" s="230"/>
     </row>
     <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="275"/>
-      <c r="D23" s="226"/>
+      <c r="D23" s="252"/>
       <c r="E23" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="F23" s="255"/>
+      <c r="F23" s="235"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B25" s="272" t="s">
@@ -11660,7 +11660,7 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="271" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -11675,7 +11675,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="258"/>
+      <c r="D9" s="263"/>
       <c r="E9" s="54" t="s">
         <v>193</v>
       </c>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10" s="274"/>
-      <c r="D10" s="258"/>
+      <c r="D10" s="263"/>
       <c r="E10" s="54" t="s">
         <v>197</v>
       </c>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" s="274"/>
-      <c r="D11" s="258"/>
+      <c r="D11" s="263"/>
       <c r="E11" s="54" t="s">
         <v>195</v>
       </c>
@@ -11702,7 +11702,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="274"/>
-      <c r="D12" s="258"/>
+      <c r="D12" s="263"/>
       <c r="E12" s="54" t="s">
         <v>196</v>
       </c>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" s="274"/>
-      <c r="D13" s="258"/>
+      <c r="D13" s="263"/>
       <c r="E13" s="54" t="s">
         <v>194</v>
       </c>
@@ -11720,7 +11720,7 @@
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="C14" s="274"/>
-      <c r="D14" s="258"/>
+      <c r="D14" s="263"/>
       <c r="E14" s="65" t="s">
         <v>199</v>
       </c>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="275"/>
-      <c r="D15" s="259"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
@@ -11752,16 +11752,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G8:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C15"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -11976,7 +11976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528173E-8324-4AE9-B1D3-CA80F2EF098B}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
@@ -12151,7 +12151,7 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="227"/>
+      <c r="C4" s="231"/>
       <c r="D4" s="217" t="s">
         <v>342</v>
       </c>
@@ -12162,7 +12162,7 @@
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="228"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="218"/>
       <c r="E5" s="102" t="s">
         <v>344</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C8" s="273"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="271" t="s">
         <v>350</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -12203,7 +12203,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9" s="274"/>
-      <c r="D9" s="258"/>
+      <c r="D9" s="263"/>
       <c r="E9" s="150" t="s">
         <v>348</v>
       </c>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="275"/>
-      <c r="D10" s="259"/>
+      <c r="D10" s="264"/>
       <c r="E10" s="151" t="s">
         <v>353</v>
       </c>
@@ -12291,10 +12291,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="263"/>
+      <c r="C1" s="256"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
@@ -12522,10 +12522,10 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="233"/>
+      <c r="C21" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12557,10 +12557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="263"/>
+      <c r="C1" s="256"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12585,7 +12585,7 @@
         <v>461</v>
       </c>
       <c r="E4" s="60"/>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="220" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
       <c r="E5" s="183" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="249"/>
+      <c r="F5" s="221"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C6" s="286"/>
@@ -13214,8 +13214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A7CD8-A754-4C83-BABD-644593A70B26}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13278,7 +13278,7 @@
         <v>418</v>
       </c>
       <c r="E6" s="295"/>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="231" t="s">
         <v>422</v>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
         <v>419</v>
       </c>
       <c r="E7" s="297"/>
-      <c r="F7" s="226"/>
+      <c r="F7" s="252"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="179" t="s">
@@ -13313,11 +13313,11 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="237" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13384,27 +13384,27 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>436</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="260" t="s">
+      <c r="E4" s="258" t="s">
         <v>532</v>
       </c>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="183" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="261"/>
+      <c r="E5" s="259"/>
       <c r="F5" s="183"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="232"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="183" t="s">
         <v>432</v>
       </c>
@@ -13412,7 +13412,7 @@
       <c r="F6" s="183"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="183" t="s">
         <v>433</v>
       </c>
@@ -13420,7 +13420,7 @@
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="183" t="s">
         <v>434</v>
       </c>
@@ -13428,7 +13428,7 @@
       <c r="F8" s="183"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="183" t="s">
         <v>435</v>
       </c>
@@ -13436,7 +13436,7 @@
       <c r="F9" s="183"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="250"/>
+      <c r="C10" s="224"/>
       <c r="D10" s="32" t="s">
         <v>437</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="231" t="s">
+      <c r="C12" s="222" t="s">
         <v>450</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -13464,7 +13464,7 @@
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="183" t="s">
         <v>442</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="F13" s="183"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="183" t="s">
         <v>443</v>
       </c>
@@ -13480,7 +13480,7 @@
       <c r="F14" s="183"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="183" t="s">
         <v>444</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="250"/>
+      <c r="C16" s="224"/>
       <c r="D16" s="32" t="s">
         <v>445</v>
       </c>
@@ -13496,7 +13496,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="232" t="s">
+      <c r="C17" s="223" t="s">
         <v>449</v>
       </c>
       <c r="D17" s="183" t="s">
@@ -13506,7 +13506,7 @@
       <c r="F17" s="183"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="232"/>
+      <c r="C18" s="223"/>
       <c r="D18" s="183" t="s">
         <v>447</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="222" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -13524,7 +13524,7 @@
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="183" t="s">
         <v>452</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="F20" s="183"/>
     </row>
     <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="250"/>
+      <c r="C21" s="224"/>
       <c r="D21" s="32" t="s">
         <v>453</v>
       </c>
@@ -13540,7 +13540,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="232" t="s">
+      <c r="C22" s="223" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="183" t="s">
@@ -13550,7 +13550,7 @@
       <c r="F22" s="183"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="183" t="s">
         <v>456</v>
       </c>
@@ -13558,7 +13558,7 @@
       <c r="F23" s="183"/>
     </row>
     <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="250"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="32" t="s">
         <v>457</v>
       </c>
@@ -13971,7 +13971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F728D6-6012-4598-8A5B-E2689D47448D}">
   <dimension ref="B1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -13993,10 +13993,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="228" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="252"/>
+      <c r="D2" s="228"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -14026,20 +14026,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>502</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="227"/>
+      <c r="F4" s="231"/>
       <c r="G4" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="222" t="s">
         <v>323</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -14047,51 +14047,51 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
       <c r="G5" s="218"/>
-      <c r="H5" s="232"/>
+      <c r="H5" s="223"/>
       <c r="I5" s="218"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="232"/>
+      <c r="C6" s="223"/>
       <c r="D6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
       <c r="G6" s="218"/>
-      <c r="H6" s="232"/>
+      <c r="H6" s="223"/>
       <c r="I6" s="218"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="232"/>
+      <c r="H7" s="223"/>
       <c r="I7" s="218"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="236"/>
       <c r="G8" s="218"/>
-      <c r="H8" s="232"/>
+      <c r="H8" s="223"/>
       <c r="I8" s="218"/>
     </row>
     <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="250"/>
+      <c r="C9" s="224"/>
       <c r="D9" s="142" t="s">
         <v>237</v>
       </c>
@@ -14110,19 +14110,19 @@
       <c r="I9" s="219"/>
     </row>
     <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="222" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="253" t="s">
+      <c r="E10" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="235" t="s">
+      <c r="G10" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="217" t="s">
@@ -14133,35 +14133,35 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="191" t="s">
         <v>503</v>
       </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="236"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="226"/>
       <c r="H11" s="218"/>
       <c r="I11" s="218"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="253"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="236"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="226"/>
       <c r="H12" s="218"/>
       <c r="I12" s="218"/>
     </row>
     <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="250"/>
+      <c r="C13" s="224"/>
       <c r="D13" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="251"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="227"/>
       <c r="H13" s="219"/>
       <c r="I13" s="219"/>
     </row>
@@ -14172,13 +14172,13 @@
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="240" t="s">
+      <c r="E14" s="229" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="223" t="s">
+      <c r="F14" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="236" t="s">
+      <c r="G14" s="226" t="s">
         <v>151</v>
       </c>
       <c r="H14" s="217" t="s">
@@ -14193,9 +14193,9 @@
       <c r="D15" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="240"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="236"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="226"/>
       <c r="H15" s="218"/>
       <c r="I15" s="218"/>
     </row>
@@ -14204,9 +14204,9 @@
       <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="240"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="236"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="226"/>
       <c r="H16" s="218"/>
       <c r="I16" s="218"/>
     </row>
@@ -14215,9 +14215,9 @@
       <c r="D17" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="240"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="236"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="226"/>
       <c r="H17" s="218"/>
       <c r="I17" s="218"/>
     </row>
@@ -14230,7 +14230,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="54"/>
-      <c r="G18" s="236"/>
+      <c r="G18" s="226"/>
       <c r="H18" s="219"/>
       <c r="I18" s="219"/>
     </row>
@@ -14241,13 +14241,13 @@
       <c r="D19" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="234" t="s">
+      <c r="E19" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="220" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="235" t="s">
+      <c r="G19" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="217" t="s">
@@ -14262,9 +14262,9 @@
       <c r="D20" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="223"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="236"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="226"/>
       <c r="H20" s="218"/>
       <c r="I20" s="218"/>
     </row>
@@ -14273,9 +14273,9 @@
       <c r="D21" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="223"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="236"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="226"/>
       <c r="H21" s="218"/>
       <c r="I21" s="218"/>
     </row>
@@ -14284,9 +14284,9 @@
       <c r="D22" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="223"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="236"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="226"/>
       <c r="H22" s="218"/>
       <c r="I22" s="218"/>
     </row>
@@ -14295,17 +14295,17 @@
       <c r="D23" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="225" t="s">
+      <c r="E23" s="239" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="221" t="s">
+      <c r="F23" s="239"/>
+      <c r="G23" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="221" t="s">
+      <c r="H23" s="240" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="221" t="s">
+      <c r="I23" s="240" t="s">
         <v>323</v>
       </c>
     </row>
@@ -14314,8 +14314,8 @@
       <c r="D24" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
       <c r="G24" s="218"/>
       <c r="H24" s="218"/>
       <c r="I24" s="218"/>
@@ -14325,8 +14325,8 @@
       <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
       <c r="G25" s="218"/>
       <c r="H25" s="218"/>
       <c r="I25" s="218"/>
@@ -14336,11 +14336,11 @@
       <c r="D26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
+      <c r="I26" s="241"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C27" s="218"/>
@@ -14375,7 +14375,7 @@
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="232"/>
+      <c r="C29" s="223"/>
       <c r="D29" s="58" t="s">
         <v>507</v>
       </c>
@@ -14407,10 +14407,10 @@
       <c r="D31" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="E31" s="237" t="s">
+      <c r="E31" s="242" t="s">
         <v>406</v>
       </c>
-      <c r="F31" s="222" t="s">
+      <c r="F31" s="254" t="s">
         <v>411</v>
       </c>
       <c r="G31" s="217" t="s">
@@ -14428,8 +14428,8 @@
       <c r="D32" s="169" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="238"/>
-      <c r="F32" s="223"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="230"/>
       <c r="G32" s="218"/>
       <c r="H32" s="218"/>
       <c r="I32" s="218"/>
@@ -14439,8 +14439,8 @@
       <c r="D33" s="169" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="238"/>
-      <c r="F33" s="223"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="230"/>
       <c r="G33" s="218"/>
       <c r="H33" s="218"/>
       <c r="I33" s="218"/>
@@ -14450,8 +14450,8 @@
       <c r="D34" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E34" s="238"/>
-      <c r="F34" s="223"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="230"/>
       <c r="G34" s="218"/>
       <c r="H34" s="218"/>
       <c r="I34" s="218"/>
@@ -14461,8 +14461,8 @@
       <c r="D35" s="163" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="238"/>
-      <c r="F35" s="223"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="230"/>
       <c r="G35" s="218"/>
       <c r="H35" s="218"/>
       <c r="I35" s="218"/>
@@ -14472,8 +14472,8 @@
       <c r="D36" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="239"/>
-      <c r="F36" s="224"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="218"/>
       <c r="H36" s="218"/>
       <c r="I36" s="218"/>
@@ -14511,10 +14511,10 @@
       <c r="D39" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="240" t="s">
+      <c r="E39" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="F39" s="225"/>
+      <c r="F39" s="239"/>
       <c r="G39" s="218"/>
       <c r="H39" s="218"/>
       <c r="I39" s="218"/>
@@ -14524,8 +14524,8 @@
       <c r="D40" s="192" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="241"/>
-      <c r="F40" s="226"/>
+      <c r="E40" s="245"/>
+      <c r="F40" s="252"/>
       <c r="G40" s="219"/>
       <c r="H40" s="219"/>
       <c r="I40" s="219"/>
@@ -14537,8 +14537,8 @@
       <c r="D41" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="227"/>
-      <c r="F41" s="242" t="s">
+      <c r="E41" s="231"/>
+      <c r="F41" s="246" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="217" t="s">
@@ -14556,8 +14556,8 @@
       <c r="D42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="243"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="247"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -14567,10 +14567,10 @@
       <c r="D43" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="229"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="220"/>
-      <c r="H43" s="220"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="247"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
       <c r="I43" s="218"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.45">
@@ -14578,12 +14578,12 @@
       <c r="D44" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="225"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="221" t="s">
+      <c r="E44" s="239"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="221" t="s">
+      <c r="H44" s="240" t="s">
         <v>323</v>
       </c>
       <c r="I44" s="218"/>
@@ -14593,8 +14593,8 @@
       <c r="D45" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="E45" s="228"/>
-      <c r="F45" s="243"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="247"/>
       <c r="G45" s="218"/>
       <c r="H45" s="218"/>
       <c r="I45" s="218"/>
@@ -14604,10 +14604,10 @@
       <c r="D46" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="229"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="220"/>
-      <c r="H46" s="220"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="247"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
       <c r="I46" s="218"/>
     </row>
     <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -14616,7 +14616,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="244"/>
+      <c r="F47" s="248"/>
       <c r="G47" s="68" t="s">
         <v>151</v>
       </c>
@@ -14632,10 +14632,10 @@
       <c r="D48" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E48" s="242" t="s">
+      <c r="E48" s="246" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="245" t="s">
+      <c r="F48" s="249" t="s">
         <v>167</v>
       </c>
       <c r="G48" s="217" t="s">
@@ -14653,8 +14653,8 @@
       <c r="D49" s="62" t="s">
         <v>514</v>
       </c>
-      <c r="E49" s="243"/>
-      <c r="F49" s="246"/>
+      <c r="E49" s="247"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="218"/>
       <c r="H49" s="218"/>
       <c r="I49" s="218"/>
@@ -14662,8 +14662,8 @@
     <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C50" s="219"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="244"/>
-      <c r="F50" s="247"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="251"/>
       <c r="G50" s="219"/>
       <c r="H50" s="219"/>
       <c r="I50" s="219"/>
@@ -14675,8 +14675,8 @@
       <c r="D51" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="227"/>
-      <c r="F51" s="242" t="s">
+      <c r="E51" s="231"/>
+      <c r="F51" s="246" t="s">
         <v>170</v>
       </c>
       <c r="G51" s="217" t="s">
@@ -14694,8 +14694,8 @@
       <c r="D52" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="228"/>
-      <c r="F52" s="243"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="247"/>
       <c r="G52" s="218"/>
       <c r="H52" s="218"/>
       <c r="I52" s="218"/>
@@ -14705,8 +14705,8 @@
       <c r="D53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="228"/>
-      <c r="F53" s="243"/>
+      <c r="E53" s="232"/>
+      <c r="F53" s="247"/>
       <c r="G53" s="218"/>
       <c r="H53" s="218"/>
       <c r="I53" s="218"/>
@@ -14716,8 +14716,8 @@
       <c r="D54" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="228"/>
-      <c r="F54" s="243"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="247"/>
       <c r="G54" s="218"/>
       <c r="H54" s="218"/>
       <c r="I54" s="218"/>
@@ -14727,8 +14727,8 @@
       <c r="D55" s="163" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="228"/>
-      <c r="F55" s="243"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="247"/>
       <c r="G55" s="218"/>
       <c r="H55" s="218"/>
       <c r="I55" s="218"/>
@@ -14738,8 +14738,8 @@
       <c r="D56" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="228"/>
-      <c r="F56" s="243"/>
+      <c r="E56" s="232"/>
+      <c r="F56" s="247"/>
       <c r="G56" s="218"/>
       <c r="H56" s="218"/>
       <c r="I56" s="218"/>
@@ -14749,44 +14749,64 @@
       <c r="D57" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E57" s="226"/>
-      <c r="F57" s="244"/>
+      <c r="E57" s="252"/>
+      <c r="F57" s="248"/>
       <c r="G57" s="219"/>
       <c r="H57" s="219"/>
       <c r="I57" s="219"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="233" t="s">
+      <c r="B59" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="233"/>
-      <c r="D59" s="233"/>
+      <c r="C59" s="237"/>
+      <c r="D59" s="237"/>
       <c r="F59" s="161" t="s">
         <v>329</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="230" t="s">
+      <c r="H59" s="253" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="230"/>
-      <c r="J59" s="230"/>
+      <c r="I59" s="253"/>
+      <c r="J59" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="C19:C30"/>
@@ -14803,40 +14823,20 @@
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="I31:I40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14853,7 +14853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C8BACC-4BF9-498D-B7DB-12328A0734E2}">
   <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -14866,22 +14868,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="256" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
@@ -14904,13 +14906,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="257" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
@@ -14922,27 +14924,27 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="232"/>
+      <c r="C5" s="223"/>
       <c r="D5" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="253"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="59"/>
       <c r="G5" s="218"/>
       <c r="H5" s="219"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="222" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>281</v>
       </c>
       <c r="E6" s="96"/>
-      <c r="F6" s="260" t="s">
+      <c r="F6" s="258" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="235" t="s">
+      <c r="G6" s="225" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="217" t="s">
@@ -14950,41 +14952,41 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="102" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="97"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="236"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="226"/>
       <c r="H7" s="218"/>
     </row>
     <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="65" t="s">
         <v>299</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="261"/>
-      <c r="G8" s="236"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="226"/>
       <c r="H8" s="218"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="65" t="s">
         <v>298</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="261"/>
-      <c r="G9" s="236"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="226"/>
       <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="232"/>
+      <c r="C10" s="223"/>
       <c r="D10" s="126" t="s">
         <v>285</v>
       </c>
@@ -14996,51 +14998,51 @@
       <c r="H10" s="218"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="257" t="s">
+      <c r="G11" s="262" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="65" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="258"/>
+      <c r="G12" s="263"/>
       <c r="H12" s="218"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="114" t="s">
         <v>286</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="262" t="s">
+      <c r="F13" s="260" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="258"/>
+      <c r="G13" s="263"/>
       <c r="H13" s="218"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="102" t="s">
         <v>287</v>
       </c>
       <c r="E14" s="102"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="258"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="263"/>
       <c r="H14" s="218"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="102" t="s">
         <v>290</v>
       </c>
@@ -15048,17 +15050,17 @@
       <c r="F15" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="259"/>
+      <c r="G15" s="264"/>
       <c r="H15" s="219"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="231" t="s">
+      <c r="C16" s="222" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="254" t="s">
         <v>260</v>
       </c>
       <c r="F16" s="60"/>
@@ -15070,34 +15072,34 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="232"/>
+      <c r="C17" s="223"/>
       <c r="D17" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="223"/>
+      <c r="E17" s="230"/>
       <c r="F17" s="54"/>
       <c r="G17" s="218"/>
       <c r="H17" s="218"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="250"/>
+      <c r="C18" s="224"/>
       <c r="D18" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="255"/>
+      <c r="E18" s="235"/>
       <c r="F18" s="32"/>
       <c r="G18" s="219"/>
       <c r="H18" s="219"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="232" t="s">
+      <c r="C19" s="223" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="242" t="s">
+      <c r="F19" s="246" t="s">
         <v>170</v>
       </c>
       <c r="G19" s="217" t="s">
@@ -15108,52 +15110,52 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="243"/>
+      <c r="F20" s="247"/>
       <c r="G20" s="218"/>
       <c r="H20" s="218"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="232"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="65" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="243"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="218"/>
       <c r="H21" s="218"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="232"/>
+      <c r="C22" s="223"/>
       <c r="D22" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="243"/>
+      <c r="F22" s="247"/>
       <c r="G22" s="218"/>
       <c r="H22" s="218"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="115" t="s">
         <v>296</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="243"/>
+      <c r="F23" s="247"/>
       <c r="G23" s="218"/>
       <c r="H23" s="218"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="250"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="134" t="s">
         <v>297</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="244"/>
+      <c r="F24" s="248"/>
       <c r="G24" s="219"/>
       <c r="H24" s="219"/>
     </row>
@@ -15172,11 +15174,11 @@
       <c r="D26" s="208"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="256" t="s">
+      <c r="G26" s="261" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="261"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -15313,12 +15315,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="F6:F9"/>
@@ -15327,14 +15331,12 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C19:C24"/>
-    <mergeCell ref="H6:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15344,6 +15346,7 @@
     <hyperlink ref="G26:H26" location="サウンド!A1" display="サウンドに戻る" xr:uid="{8CB777CC-E823-420C-9135-405AC49E67CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15351,8 +15354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52036D13-E1D9-44EC-8394-05A150CFDAEB}">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15376,11 +15379,11 @@
       <c r="E1" s="209"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
@@ -15406,20 +15409,20 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="222" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="264" t="s">
+      <c r="E4" s="257" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
       <c r="G4" s="217" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="265" t="s">
+      <c r="H4" s="271" t="s">
         <v>330</v>
       </c>
       <c r="I4" s="217" t="s">
@@ -15427,27 +15430,27 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="250"/>
+      <c r="C5" s="224"/>
       <c r="D5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="234"/>
       <c r="F5" s="121" t="s">
         <v>212</v>
       </c>
       <c r="G5" s="219"/>
-      <c r="H5" s="259"/>
+      <c r="H5" s="264"/>
       <c r="I5" s="219"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="231" t="s">
+      <c r="C6" s="222" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="227"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="231"/>
       <c r="G6" s="217" t="s">
         <v>213</v>
       </c>
@@ -15459,18 +15462,18 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="232"/>
+      <c r="C7" s="223"/>
       <c r="D7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="268"/>
-      <c r="F7" s="229"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="236"/>
       <c r="G7" s="218"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="232"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="125" t="s">
         <v>218</v>
       </c>
@@ -15481,7 +15484,7 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="232"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="53" t="s">
         <v>300</v>
       </c>
@@ -15500,7 +15503,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="232"/>
+      <c r="C10" s="223"/>
       <c r="D10" s="126" t="s">
         <v>301</v>
       </c>
@@ -15519,7 +15522,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="232"/>
+      <c r="C11" s="223"/>
       <c r="D11" s="53" t="s">
         <v>221</v>
       </c>
@@ -15540,7 +15543,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="232"/>
+      <c r="C12" s="223"/>
       <c r="D12" s="126" t="s">
         <v>302</v>
       </c>
@@ -15559,7 +15562,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="232"/>
+      <c r="C13" s="223"/>
       <c r="D13" s="65" t="s">
         <v>220</v>
       </c>
@@ -15570,7 +15573,7 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="232"/>
+      <c r="C14" s="223"/>
       <c r="D14" s="126" t="s">
         <v>303</v>
       </c>
@@ -15589,7 +15592,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="232"/>
+      <c r="C15" s="223"/>
       <c r="D15" s="53" t="s">
         <v>304</v>
       </c>
@@ -15608,7 +15611,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="232"/>
+      <c r="C16" s="223"/>
       <c r="D16" s="126" t="s">
         <v>305</v>
       </c>
@@ -15627,65 +15630,65 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="232"/>
+      <c r="C17" s="223"/>
       <c r="D17" s="65" t="s">
         <v>306</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="221" t="s">
+      <c r="G17" s="240" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="221" t="s">
+      <c r="H17" s="240" t="s">
         <v>323</v>
       </c>
-      <c r="I17" s="221" t="s">
+      <c r="I17" s="240" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="232"/>
+      <c r="C18" s="223"/>
       <c r="D18" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="266" t="s">
+      <c r="E18" s="268" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="267"/>
+      <c r="F18" s="269"/>
       <c r="G18" s="218"/>
       <c r="H18" s="218"/>
       <c r="I18" s="218"/>
     </row>
     <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="232"/>
+      <c r="C19" s="223"/>
       <c r="D19" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="241"/>
       <c r="I19" s="218"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="232"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="221" t="s">
+      <c r="G20" s="240" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="221" t="s">
+      <c r="H20" s="240" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="221" t="s">
+      <c r="I20" s="240" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="232"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="65" t="s">
         <v>236</v>
       </c>
@@ -15696,7 +15699,7 @@
       <c r="I21" s="218"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="232"/>
+      <c r="C22" s="223"/>
       <c r="D22" s="65" t="s">
         <v>239</v>
       </c>
@@ -15709,7 +15712,7 @@
       <c r="I22" s="218"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="232"/>
+      <c r="C23" s="223"/>
       <c r="D23" s="115" t="s">
         <v>249</v>
       </c>
@@ -15722,7 +15725,7 @@
       <c r="I23" s="218"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="232"/>
+      <c r="C24" s="223"/>
       <c r="D24" s="114" t="s">
         <v>250</v>
       </c>
@@ -15733,7 +15736,7 @@
       <c r="I24" s="218"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="232"/>
+      <c r="C25" s="223"/>
       <c r="D25" s="53" t="s">
         <v>240</v>
       </c>
@@ -15744,7 +15747,7 @@
       <c r="I25" s="218"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="232"/>
+      <c r="C26" s="223"/>
       <c r="D26" s="53" t="s">
         <v>241</v>
       </c>
@@ -15755,7 +15758,7 @@
       <c r="I26" s="218"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="232"/>
+      <c r="C27" s="223"/>
       <c r="D27" s="53" t="s">
         <v>242</v>
       </c>
@@ -15766,7 +15769,7 @@
       <c r="I27" s="218"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="232"/>
+      <c r="C28" s="223"/>
       <c r="D28" s="53" t="s">
         <v>243</v>
       </c>
@@ -15777,7 +15780,7 @@
       <c r="I28" s="218"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="232"/>
+      <c r="C29" s="223"/>
       <c r="D29" s="53" t="s">
         <v>248</v>
       </c>
@@ -15788,7 +15791,7 @@
       <c r="I29" s="218"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="232"/>
+      <c r="C30" s="223"/>
       <c r="D30" s="65" t="s">
         <v>244</v>
       </c>
@@ -15799,7 +15802,7 @@
       <c r="I30" s="218"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="232"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="53" t="s">
         <v>245</v>
       </c>
@@ -15810,7 +15813,7 @@
       <c r="I31" s="218"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="232"/>
+      <c r="C32" s="223"/>
       <c r="D32" s="53" t="s">
         <v>246</v>
       </c>
@@ -15821,7 +15824,7 @@
       <c r="I32" s="218"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="232"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="53" t="s">
         <v>247</v>
       </c>
@@ -15832,7 +15835,7 @@
       <c r="I33" s="218"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="232"/>
+      <c r="C34" s="223"/>
       <c r="D34" s="53" t="s">
         <v>253</v>
       </c>
@@ -15845,7 +15848,7 @@
       <c r="I34" s="218"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="232"/>
+      <c r="C35" s="223"/>
       <c r="D35" s="53" t="s">
         <v>254</v>
       </c>
@@ -15856,7 +15859,7 @@
       <c r="I35" s="218"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="250"/>
+      <c r="C36" s="224"/>
       <c r="D36" s="55" t="s">
         <v>251</v>
       </c>
@@ -15867,13 +15870,13 @@
       <c r="I36" s="219"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="231" t="s">
+      <c r="C37" s="222" t="s">
         <v>256</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="257" t="s">
         <v>260</v>
       </c>
       <c r="F37" s="120"/>
@@ -15888,22 +15891,22 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="232"/>
+      <c r="C38" s="223"/>
       <c r="D38" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="253"/>
+      <c r="E38" s="233"/>
       <c r="F38" s="122"/>
       <c r="G38" s="218"/>
       <c r="H38" s="218"/>
       <c r="I38" s="218"/>
     </row>
     <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="250"/>
+      <c r="C39" s="224"/>
       <c r="D39" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="254"/>
+      <c r="E39" s="234"/>
       <c r="F39" s="110"/>
       <c r="G39" s="219"/>
       <c r="H39" s="219"/>
@@ -15917,7 +15920,7 @@
         <v>293</v>
       </c>
       <c r="E40" s="117"/>
-      <c r="F40" s="269" t="s">
+      <c r="F40" s="265" t="s">
         <v>266</v>
       </c>
       <c r="G40" s="217" t="s">
@@ -15936,7 +15939,7 @@
         <v>270</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="270"/>
+      <c r="F41" s="266"/>
       <c r="G41" s="218"/>
       <c r="H41" s="218"/>
       <c r="I41" s="218"/>
@@ -15947,7 +15950,7 @@
         <v>263</v>
       </c>
       <c r="E42" s="47"/>
-      <c r="F42" s="270"/>
+      <c r="F42" s="266"/>
       <c r="G42" s="218"/>
       <c r="H42" s="218"/>
       <c r="I42" s="218"/>
@@ -15958,7 +15961,7 @@
         <v>262</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="270"/>
+      <c r="F43" s="266"/>
       <c r="G43" s="218"/>
       <c r="H43" s="218"/>
       <c r="I43" s="218"/>
@@ -15969,7 +15972,7 @@
         <v>269</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="270"/>
+      <c r="F44" s="266"/>
       <c r="G44" s="218"/>
       <c r="H44" s="218"/>
       <c r="I44" s="218"/>
@@ -15980,49 +15983,29 @@
         <v>268</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="271"/>
+      <c r="F45" s="267"/>
       <c r="G45" s="219"/>
       <c r="H45" s="219"/>
       <c r="I45" s="219"/>
     </row>
     <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="233" t="s">
+      <c r="B47" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
+      <c r="C47" s="237"/>
+      <c r="D47" s="237"/>
       <c r="F47" s="141" t="s">
         <v>329</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="230" t="s">
+      <c r="H47" s="253" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
+      <c r="I47" s="253"/>
+      <c r="J47" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:G36"/>
-    <mergeCell ref="C6:C36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H37:H39"/>
@@ -16036,6 +16019,26 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I36"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G20:G36"/>
+    <mergeCell ref="C6:C36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="F40:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/3DLv3_2023_vs2019/Plan/仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiror\OneDrive\デスクトップ\game programming\授業\12Saitoh\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C3CB-2573-486D-A9BD-1B1DCCE8D8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3F950-1BD0-47E9-9984-75E72105C775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="11" activeTab="19" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" firstSheet="12" activeTab="20" xr2:uid="{FBCDE34A-9B76-4E1C-B224-8F42BEFF261E}"/>
   </bookViews>
   <sheets>
     <sheet name="リスト" sheetId="1" r:id="rId1"/>
@@ -6727,7 +6727,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>https://www.ac-illust.com/main/detail.php?id=23286803&amp;word=%E4%BD%93%E5%8A%9B%E3%82%B2%E3%83%BC%E3%82%B8&amp;data_type=&amp;from_order_history=</t>
+    <t>2D素材 │ 空の缶詰 (karanokan.info)</t>
   </si>
 </sst>
 </file>
@@ -7245,7 +7245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7807,9 +7807,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -7906,27 +7903,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7934,18 +8003,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7954,65 +8011,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -8020,25 +8038,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8048,18 +8057,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -10236,30 +10233,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="200"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
-      <c r="F3" s="204" t="s">
+      <c r="F3" s="203" t="s">
         <v>396</v>
       </c>
-      <c r="G3" s="204"/>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
@@ -10279,7 +10276,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="200" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -10296,7 +10293,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="202"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="41" t="s">
         <v>82</v>
       </c>
@@ -10310,7 +10307,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="202"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
@@ -10323,7 +10320,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="202"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
@@ -10336,7 +10333,7 @@
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="203"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
@@ -10351,7 +10348,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="195" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="78" t="s">
@@ -10366,7 +10363,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="197"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="79" t="s">
         <v>19</v>
       </c>
@@ -10379,7 +10376,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="197"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="79" t="s">
         <v>21</v>
       </c>
@@ -10392,7 +10389,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="197"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="79" t="s">
         <v>20</v>
       </c>
@@ -10405,7 +10402,7 @@
       <c r="F13" s="84"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="197"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="25" t="s">
         <v>171</v>
       </c>
@@ -10418,7 +10415,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="197"/>
+      <c r="B15" s="196"/>
       <c r="C15" s="79" t="s">
         <v>23</v>
       </c>
@@ -10431,7 +10428,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="197"/>
+      <c r="B16" s="196"/>
       <c r="C16" s="79" t="s">
         <v>34</v>
       </c>
@@ -10444,7 +10441,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="197"/>
+      <c r="B17" s="196"/>
       <c r="C17" s="79" t="s">
         <v>24</v>
       </c>
@@ -10457,7 +10454,7 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="197"/>
+      <c r="B18" s="196"/>
       <c r="C18" s="79" t="s">
         <v>25</v>
       </c>
@@ -10472,7 +10469,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="197"/>
+      <c r="B19" s="196"/>
       <c r="C19" s="79" t="s">
         <v>26</v>
       </c>
@@ -10485,7 +10482,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="197"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
@@ -10498,7 +10495,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="198"/>
+      <c r="B21" s="197"/>
       <c r="C21" s="154" t="s">
         <v>17</v>
       </c>
@@ -10511,7 +10508,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="204" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="173" t="s">
@@ -10528,7 +10525,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="206"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="41" t="s">
         <v>41</v>
       </c>
@@ -10543,7 +10540,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="207"/>
+      <c r="B24" s="206"/>
       <c r="C24" s="174" t="s">
         <v>42</v>
       </c>
@@ -11304,10 +11301,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="208"/>
+      <c r="C11" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11364,186 +11361,186 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="273"/>
-      <c r="D4" s="231" t="s">
+      <c r="C4" s="272"/>
+      <c r="D4" s="226" t="s">
         <v>175</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="221" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="274"/>
-      <c r="D5" s="232"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="F5" s="230"/>
+      <c r="F5" s="222"/>
     </row>
     <row r="6" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C6" s="274"/>
-      <c r="D6" s="232"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="227"/>
       <c r="E6" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="230"/>
+      <c r="F6" s="222"/>
     </row>
     <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="274"/>
-      <c r="D7" s="232"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="227"/>
       <c r="E7" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="230"/>
+      <c r="F7" s="222"/>
     </row>
     <row r="8" spans="2:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="275"/>
-      <c r="D8" s="252"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="225"/>
       <c r="E8" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="235"/>
+      <c r="F8" s="254"/>
     </row>
     <row r="9" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="274"/>
-      <c r="D9" s="232" t="s">
+      <c r="C9" s="273"/>
+      <c r="D9" s="227" t="s">
         <v>180</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="230" t="s">
+      <c r="F9" s="222" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="274"/>
-      <c r="D10" s="232"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="222"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="274"/>
-      <c r="D11" s="232"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="227"/>
       <c r="E11" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="230"/>
+      <c r="F11" s="222"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="274"/>
-      <c r="D12" s="232"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="230"/>
+      <c r="F12" s="222"/>
     </row>
     <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="275"/>
-      <c r="D13" s="252"/>
+      <c r="C13" s="274"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="235"/>
+      <c r="F13" s="254"/>
     </row>
     <row r="14" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="273"/>
-      <c r="D14" s="231" t="s">
+      <c r="C14" s="272"/>
+      <c r="D14" s="226" t="s">
         <v>380</v>
       </c>
       <c r="E14" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="254" t="s">
+      <c r="F14" s="221" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="274"/>
-      <c r="D15" s="232"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="227"/>
       <c r="E15" s="157" t="s">
         <v>387</v>
       </c>
-      <c r="F15" s="230"/>
+      <c r="F15" s="222"/>
     </row>
     <row r="16" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="274"/>
-      <c r="D16" s="232"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="227"/>
       <c r="E16" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="230"/>
+      <c r="F16" s="222"/>
     </row>
     <row r="17" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="274"/>
-      <c r="D17" s="232"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="227"/>
       <c r="E17" s="157" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="230"/>
+      <c r="F17" s="222"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="275"/>
-      <c r="D18" s="252"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="225"/>
       <c r="E18" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="235"/>
+      <c r="F18" s="254"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="273"/>
-      <c r="D19" s="231" t="s">
+      <c r="C19" s="272"/>
+      <c r="D19" s="226" t="s">
         <v>385</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="254" t="s">
+      <c r="F19" s="221" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="274"/>
-      <c r="D20" s="232"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="227"/>
       <c r="E20" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="230"/>
+      <c r="F20" s="222"/>
     </row>
     <row r="21" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="274"/>
-      <c r="D21" s="232"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="227"/>
       <c r="E21" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="F21" s="230"/>
+      <c r="F21" s="222"/>
     </row>
     <row r="22" spans="2:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="C22" s="274"/>
-      <c r="D22" s="232"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="227"/>
       <c r="E22" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="F22" s="230"/>
+      <c r="F22" s="222"/>
     </row>
     <row r="23" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="275"/>
-      <c r="D23" s="252"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="225"/>
       <c r="E23" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="F23" s="235"/>
+      <c r="F23" s="254"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B25" s="272" t="s">
+      <c r="B25" s="271" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="272"/>
+      <c r="C25" s="271"/>
       <c r="D25" s="158"/>
       <c r="E25" s="159" t="s">
         <v>186</v>
@@ -11617,151 +11614,151 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="273"/>
-      <c r="D4" s="217" t="s">
+      <c r="C4" s="272"/>
+      <c r="D4" s="216" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="276" t="s">
+      <c r="F4" s="275" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="217" t="s">
+      <c r="G4" s="216" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C5" s="274"/>
-      <c r="D5" s="218"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="277"/>
-      <c r="G5" s="218"/>
+      <c r="F5" s="276"/>
+      <c r="G5" s="217"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="274"/>
-      <c r="D6" s="218"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="218"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="217"/>
     </row>
     <row r="7" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="275"/>
-      <c r="D7" s="219"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="278"/>
-      <c r="G7" s="219"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="218"/>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="273"/>
-      <c r="D8" s="271" t="s">
+      <c r="C8" s="272"/>
+      <c r="D8" s="264" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="279" t="s">
+      <c r="F8" s="278" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="217" t="s">
+      <c r="G8" s="216" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="274"/>
-      <c r="D9" s="263"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="257"/>
       <c r="E9" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="280"/>
-      <c r="G9" s="218"/>
+      <c r="F9" s="279"/>
+      <c r="G9" s="217"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="274"/>
-      <c r="D10" s="263"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="257"/>
       <c r="E10" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="280"/>
-      <c r="G10" s="218"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="274"/>
-      <c r="D11" s="263"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="257"/>
       <c r="E11" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="280"/>
-      <c r="G11" s="218"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="217"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="274"/>
-      <c r="D12" s="263"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="280"/>
-      <c r="G12" s="218"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="217"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="274"/>
-      <c r="D13" s="263"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="280"/>
-      <c r="G13" s="218"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="217"/>
     </row>
     <row r="14" spans="2:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="274"/>
-      <c r="D14" s="263"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="257"/>
       <c r="E14" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="280"/>
-      <c r="G14" s="218"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="217"/>
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="275"/>
-      <c r="D15" s="264"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="258"/>
       <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="281"/>
-      <c r="G15" s="219"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="218"/>
     </row>
     <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="210" t="s">
+      <c r="F17" s="209" t="s">
         <v>329</v>
       </c>
-      <c r="G17" s="210"/>
+      <c r="G17" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C15"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G8:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -11819,11 +11816,11 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11862,20 +11859,20 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="211" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C5" s="282" t="s">
+      <c r="C5" s="281" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" s="139" t="s">
@@ -11948,11 +11945,11 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11997,12 +11994,12 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="211" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
@@ -12010,23 +12007,23 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="282" t="s">
+      <c r="C6" s="281" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="204" t="s">
+      <c r="C7" s="203" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="204"/>
+      <c r="D7" s="203"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="203" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="204"/>
+      <c r="D8" s="203"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
@@ -12034,54 +12031,54 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="283" t="s">
+      <c r="C11" s="282" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="282"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="283" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="284"/>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="283"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="213" t="s">
         <v>362</v>
       </c>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
-      <c r="I14" s="214"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="213"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="204" t="s">
+      <c r="C15" s="203" t="s">
         <v>361</v>
       </c>
-      <c r="D15" s="204"/>
+      <c r="D15" s="203"/>
     </row>
     <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="207" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12151,8 +12148,8 @@
       <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C4" s="231"/>
-      <c r="D4" s="217" t="s">
+      <c r="C4" s="226"/>
+      <c r="D4" s="216" t="s">
         <v>342</v>
       </c>
       <c r="E4" s="60" t="s">
@@ -12162,8 +12159,8 @@
       <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="232"/>
-      <c r="D5" s="218"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="102" t="s">
         <v>344</v>
       </c>
@@ -12171,8 +12168,8 @@
       <c r="G5" s="144"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="273"/>
-      <c r="D6" s="217" t="s">
+      <c r="C6" s="272"/>
+      <c r="D6" s="216" t="s">
         <v>345</v>
       </c>
       <c r="E6" s="146" t="s">
@@ -12182,8 +12179,8 @@
       <c r="G6" s="144"/>
     </row>
     <row r="7" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="275"/>
-      <c r="D7" s="219"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="134" t="s">
         <v>347</v>
       </c>
@@ -12191,8 +12188,8 @@
       <c r="G7" s="144"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C8" s="273"/>
-      <c r="D8" s="271" t="s">
+      <c r="C8" s="272"/>
+      <c r="D8" s="264" t="s">
         <v>350</v>
       </c>
       <c r="E8" s="60" t="s">
@@ -12202,8 +12199,8 @@
       <c r="G8" s="144"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="274"/>
-      <c r="D9" s="263"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="257"/>
       <c r="E9" s="150" t="s">
         <v>348</v>
       </c>
@@ -12211,8 +12208,8 @@
       <c r="G9" s="144"/>
     </row>
     <row r="10" spans="2:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="275"/>
-      <c r="D10" s="264"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="151" t="s">
         <v>353</v>
       </c>
@@ -12227,10 +12224,10 @@
       <c r="G11" s="144"/>
     </row>
     <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="210"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="129"/>
       <c r="E12" s="1"/>
       <c r="F12" s="133"/>
@@ -12291,10 +12288,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="256"/>
+      <c r="C1" s="262"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="95" t="s">
@@ -12312,94 +12309,94 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="213" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="213" t="s">
         <v>357</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="213" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="214"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="214" t="s">
+      <c r="B12" s="213" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="214"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="214"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="211" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
     </row>
     <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12522,10 +12519,10 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="237"/>
+      <c r="C21" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12557,10 +12554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="256"/>
+      <c r="C1" s="262"/>
     </row>
     <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:6" s="166" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -12578,340 +12575,340 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="284" t="s">
         <v>459</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>461</v>
       </c>
       <c r="E4" s="60"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="247" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="286"/>
+      <c r="C5" s="285"/>
       <c r="D5" s="183" t="s">
         <v>462</v>
       </c>
       <c r="E5" s="183" t="s">
         <v>531</v>
       </c>
-      <c r="F5" s="221"/>
+      <c r="F5" s="248"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="286"/>
+      <c r="C6" s="285"/>
       <c r="D6" s="183" t="s">
         <v>463</v>
       </c>
       <c r="E6" s="183"/>
-      <c r="F6" s="188"/>
+      <c r="F6" s="187"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="286"/>
+      <c r="C7" s="285"/>
       <c r="D7" s="183" t="s">
         <v>464</v>
       </c>
       <c r="E7" s="183"/>
-      <c r="F7" s="188"/>
+      <c r="F7" s="187"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="286"/>
+      <c r="C8" s="285"/>
       <c r="D8" s="183" t="s">
         <v>465</v>
       </c>
       <c r="E8" s="183"/>
-      <c r="F8" s="188"/>
+      <c r="F8" s="187"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="286"/>
+      <c r="C9" s="285"/>
       <c r="D9" s="183" t="s">
         <v>466</v>
       </c>
       <c r="E9" s="183"/>
-      <c r="F9" s="188"/>
+      <c r="F9" s="187"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="286"/>
+      <c r="C10" s="285"/>
       <c r="D10" s="183" t="s">
         <v>467</v>
       </c>
       <c r="E10" s="183"/>
-      <c r="F10" s="188"/>
+      <c r="F10" s="187"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C11" s="286"/>
+      <c r="C11" s="285"/>
       <c r="D11" s="183" t="s">
         <v>476</v>
       </c>
       <c r="E11" s="183"/>
-      <c r="F11" s="188"/>
+      <c r="F11" s="187"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="286"/>
+      <c r="C12" s="285"/>
       <c r="D12" s="183" t="s">
         <v>475</v>
       </c>
       <c r="E12" s="183"/>
-      <c r="F12" s="188"/>
+      <c r="F12" s="187"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="286"/>
+      <c r="C13" s="285"/>
       <c r="D13" s="183" t="s">
         <v>468</v>
       </c>
       <c r="E13" s="183"/>
-      <c r="F13" s="188"/>
+      <c r="F13" s="187"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="286"/>
+      <c r="C14" s="285"/>
       <c r="D14" s="183" t="s">
         <v>469</v>
       </c>
       <c r="E14" s="183"/>
-      <c r="F14" s="188"/>
+      <c r="F14" s="187"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="286"/>
+      <c r="C15" s="285"/>
       <c r="D15" s="183" t="s">
         <v>470</v>
       </c>
       <c r="E15" s="183"/>
-      <c r="F15" s="188"/>
+      <c r="F15" s="187"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="286"/>
+      <c r="C16" s="285"/>
       <c r="D16" s="183" t="s">
         <v>471</v>
       </c>
       <c r="E16" s="183"/>
-      <c r="F16" s="188"/>
+      <c r="F16" s="187"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="286"/>
+      <c r="C17" s="285"/>
       <c r="D17" s="183" t="s">
         <v>472</v>
       </c>
       <c r="E17" s="183"/>
-      <c r="F17" s="188"/>
+      <c r="F17" s="187"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C18" s="286"/>
+      <c r="C18" s="285"/>
       <c r="D18" s="183" t="s">
         <v>473</v>
       </c>
       <c r="E18" s="183"/>
-      <c r="F18" s="188"/>
+      <c r="F18" s="187"/>
     </row>
     <row r="19" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="287"/>
+      <c r="C19" s="286"/>
       <c r="D19" s="32" t="s">
         <v>474</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="189"/>
+      <c r="F19" s="188"/>
       <c r="K19" s="160"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C20" s="286" t="s">
+      <c r="C20" s="285" t="s">
         <v>477</v>
       </c>
       <c r="D20" s="183" t="s">
         <v>478</v>
       </c>
       <c r="E20" s="183"/>
-      <c r="F20" s="188"/>
+      <c r="F20" s="187"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C21" s="286"/>
+      <c r="C21" s="285"/>
       <c r="D21" s="183" t="s">
         <v>479</v>
       </c>
       <c r="E21" s="183"/>
-      <c r="F21" s="188"/>
+      <c r="F21" s="187"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="286"/>
+      <c r="C22" s="285"/>
       <c r="D22" s="183" t="s">
         <v>480</v>
       </c>
       <c r="E22" s="183"/>
-      <c r="F22" s="188"/>
+      <c r="F22" s="187"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C23" s="286"/>
+      <c r="C23" s="285"/>
       <c r="D23" s="183" t="s">
         <v>481</v>
       </c>
       <c r="E23" s="183"/>
-      <c r="F23" s="188"/>
+      <c r="F23" s="187"/>
     </row>
     <row r="24" spans="3:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="286"/>
+      <c r="C24" s="285"/>
       <c r="D24" s="183" t="s">
         <v>488</v>
       </c>
       <c r="E24" s="183"/>
-      <c r="F24" s="188"/>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="285" t="s">
+      <c r="C25" s="284" t="s">
         <v>482</v>
       </c>
       <c r="D25" s="60" t="s">
         <v>478</v>
       </c>
       <c r="E25" s="60"/>
-      <c r="F25" s="190"/>
+      <c r="F25" s="189"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="286"/>
+      <c r="C26" s="285"/>
       <c r="D26" s="183" t="s">
         <v>483</v>
       </c>
       <c r="E26" s="183"/>
-      <c r="F26" s="188"/>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="286"/>
+      <c r="C27" s="285"/>
       <c r="D27" s="183" t="s">
         <v>484</v>
       </c>
       <c r="E27" s="183"/>
-      <c r="F27" s="188"/>
+      <c r="F27" s="187"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="286"/>
+      <c r="C28" s="285"/>
       <c r="D28" s="183" t="s">
         <v>485</v>
       </c>
       <c r="E28" s="183"/>
-      <c r="F28" s="188"/>
+      <c r="F28" s="187"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="286"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="183" t="s">
         <v>481</v>
       </c>
       <c r="E29" s="183"/>
-      <c r="F29" s="188"/>
+      <c r="F29" s="187"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C30" s="286"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="183" t="s">
         <v>486</v>
       </c>
       <c r="E30" s="183"/>
-      <c r="F30" s="188"/>
+      <c r="F30" s="187"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C31" s="286"/>
+      <c r="C31" s="285"/>
       <c r="D31" s="183" t="s">
         <v>487</v>
       </c>
       <c r="E31" s="183"/>
-      <c r="F31" s="188"/>
+      <c r="F31" s="187"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C32" s="286"/>
+      <c r="C32" s="285"/>
       <c r="D32" s="183" t="s">
         <v>480</v>
       </c>
       <c r="E32" s="183"/>
-      <c r="F32" s="188"/>
+      <c r="F32" s="187"/>
     </row>
     <row r="33" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C33" s="287"/>
+      <c r="C33" s="286"/>
       <c r="D33" s="32" t="s">
         <v>488</v>
       </c>
       <c r="E33" s="32"/>
-      <c r="F33" s="189" t="s">
+      <c r="F33" s="188" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="288" t="s">
+      <c r="C34" s="287" t="s">
         <v>491</v>
       </c>
       <c r="D34" s="182" t="s">
         <v>492</v>
       </c>
       <c r="E34" s="183"/>
-      <c r="F34" s="188"/>
+      <c r="F34" s="187"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C35" s="288"/>
+      <c r="C35" s="287"/>
       <c r="D35" s="182" t="s">
         <v>496</v>
       </c>
       <c r="E35" s="183"/>
-      <c r="F35" s="188" t="s">
+      <c r="F35" s="187" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="288"/>
+      <c r="C36" s="287"/>
       <c r="D36" s="182"/>
       <c r="E36" s="183"/>
-      <c r="F36" s="188" t="s">
+      <c r="F36" s="187" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C37" s="285" t="s">
+      <c r="C37" s="284" t="s">
         <v>438</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>488</v>
       </c>
       <c r="E37" s="60"/>
-      <c r="F37" s="190"/>
+      <c r="F37" s="189"/>
     </row>
     <row r="38" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C38" s="287"/>
+      <c r="C38" s="286"/>
       <c r="D38" s="32" t="s">
         <v>489</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F38" s="189"/>
+      <c r="F38" s="188"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C39" s="286" t="s">
+      <c r="C39" s="285" t="s">
         <v>450</v>
       </c>
       <c r="D39" s="183" t="s">
         <v>493</v>
       </c>
       <c r="E39" s="183"/>
-      <c r="F39" s="188"/>
+      <c r="F39" s="187"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C40" s="286"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="183" t="s">
         <v>494</v>
       </c>
       <c r="E40" s="183"/>
-      <c r="F40" s="188"/>
+      <c r="F40" s="187"/>
     </row>
     <row r="41" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="287"/>
+      <c r="C41" s="286"/>
       <c r="D41" s="32" t="s">
         <v>490</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="F41" s="189"/>
+      <c r="F41" s="188"/>
     </row>
     <row r="43" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="208" t="s">
+      <c r="B43" s="207" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="208"/>
-      <c r="D43" s="208"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13157,45 +13154,45 @@
       <c r="A49" s="158" t="s">
         <v>524</v>
       </c>
-      <c r="B49" s="195" t="s">
+      <c r="B49" s="194" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="195" t="s">
+      <c r="B50" s="194" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="195" t="s">
+      <c r="B51" s="194" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="195" t="s">
+      <c r="B52" s="194" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="195" t="s">
+      <c r="B53" s="194" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="195" t="s">
+      <c r="B54" s="194" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="195" t="s">
+      <c r="B55" s="194" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A56" s="208" t="s">
+      <c r="A56" s="207" t="s">
         <v>525</v>
       </c>
-      <c r="B56" s="208"/>
+      <c r="B56" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13214,7 +13211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A7CD8-A754-4C83-BABD-644593A70B26}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
@@ -13264,60 +13261,60 @@
       <c r="C5" s="179" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="293" t="s">
+      <c r="D5" s="292" t="s">
         <v>417</v>
       </c>
-      <c r="E5" s="294"/>
+      <c r="E5" s="293"/>
       <c r="F5" s="175"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="298" t="s">
+      <c r="C6" s="297" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="D6" s="294" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="295"/>
-      <c r="F6" s="231" t="s">
+      <c r="E6" s="294"/>
+      <c r="F6" s="226" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="299"/>
-      <c r="D7" s="296" t="s">
+      <c r="C7" s="298"/>
+      <c r="D7" s="295" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="297"/>
-      <c r="F7" s="252"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="225"/>
     </row>
     <row r="8" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="179" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="289" t="s">
+      <c r="D8" s="288" t="s">
         <v>421</v>
       </c>
-      <c r="E8" s="290"/>
+      <c r="E8" s="289"/>
       <c r="F8" s="175"/>
     </row>
     <row r="9" spans="2:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="D9" s="291" t="s">
+      <c r="D9" s="290" t="s">
         <v>424</v>
       </c>
-      <c r="E9" s="292"/>
+      <c r="E9" s="291"/>
       <c r="F9" s="178" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="237" t="s">
+      <c r="B12" s="232" t="s">
         <v>426</v>
       </c>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13350,8 +13347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4269B017-789B-41ED-BD77-7D4EFB97B036}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -13373,10 +13370,10 @@
       <c r="C3" s="186" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="193" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="187" t="s">
+      <c r="E3" s="179" t="s">
         <v>428</v>
       </c>
       <c r="F3" s="61" t="s">
@@ -13384,27 +13381,27 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="230" t="s">
         <v>436</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="258" t="s">
+      <c r="E4" s="244" t="s">
         <v>532</v>
       </c>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C5" s="223"/>
+      <c r="C5" s="231"/>
       <c r="D5" s="183" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="259"/>
+      <c r="E5" s="245"/>
       <c r="F5" s="183"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6" s="223"/>
+      <c r="C6" s="231"/>
       <c r="D6" s="183" t="s">
         <v>432</v>
       </c>
@@ -13412,7 +13409,7 @@
       <c r="F6" s="183"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="183" t="s">
         <v>433</v>
       </c>
@@ -13420,7 +13417,7 @@
       <c r="F7" s="183"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="231"/>
       <c r="D8" s="183" t="s">
         <v>434</v>
       </c>
@@ -13428,7 +13425,7 @@
       <c r="F8" s="183"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="231"/>
       <c r="D9" s="183" t="s">
         <v>435</v>
       </c>
@@ -13436,7 +13433,7 @@
       <c r="F9" s="183"/>
     </row>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="224"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="32" t="s">
         <v>437</v>
       </c>
@@ -13444,7 +13441,7 @@
       <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>438</v>
       </c>
       <c r="D11" s="183" t="s">
@@ -13454,7 +13451,7 @@
       <c r="F11" s="183"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="230" t="s">
         <v>450</v>
       </c>
       <c r="D12" s="60" t="s">
@@ -13464,7 +13461,7 @@
       <c r="F12" s="60"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="183" t="s">
         <v>442</v>
       </c>
@@ -13472,7 +13469,7 @@
       <c r="F13" s="183"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="183" t="s">
         <v>443</v>
       </c>
@@ -13480,7 +13477,7 @@
       <c r="F14" s="183"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="223"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="183" t="s">
         <v>444</v>
       </c>
@@ -13488,7 +13485,7 @@
       <c r="F15" s="183"/>
     </row>
     <row r="16" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="224"/>
+      <c r="C16" s="249"/>
       <c r="D16" s="32" t="s">
         <v>445</v>
       </c>
@@ -13496,7 +13493,7 @@
       <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="231" t="s">
         <v>449</v>
       </c>
       <c r="D17" s="183" t="s">
@@ -13506,7 +13503,7 @@
       <c r="F17" s="183"/>
     </row>
     <row r="18" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="223"/>
+      <c r="C18" s="231"/>
       <c r="D18" s="183" t="s">
         <v>447</v>
       </c>
@@ -13514,7 +13511,7 @@
       <c r="F18" s="183"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="222" t="s">
+      <c r="C19" s="230" t="s">
         <v>448</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -13524,7 +13521,7 @@
       <c r="F19" s="60"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="231"/>
       <c r="D20" s="183" t="s">
         <v>452</v>
       </c>
@@ -13532,7 +13529,7 @@
       <c r="F20" s="183"/>
     </row>
     <row r="21" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="224"/>
+      <c r="C21" s="249"/>
       <c r="D21" s="32" t="s">
         <v>453</v>
       </c>
@@ -13540,7 +13537,7 @@
       <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="223" t="s">
+      <c r="C22" s="231" t="s">
         <v>454</v>
       </c>
       <c r="D22" s="183" t="s">
@@ -13550,7 +13547,7 @@
       <c r="F22" s="183"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="183" t="s">
         <v>456</v>
       </c>
@@ -13558,7 +13555,7 @@
       <c r="F23" s="183"/>
     </row>
     <row r="24" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="224"/>
+      <c r="C24" s="249"/>
       <c r="D24" s="32" t="s">
         <v>457</v>
       </c>
@@ -13566,11 +13563,11 @@
       <c r="F24" s="32"/>
     </row>
     <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="207" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="208"/>
-      <c r="D27" s="208"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13585,9 +13582,10 @@
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="B27" location="リスト!A1" display="仕様書リストに戻る" xr:uid="{FFA22856-A739-438A-9C24-9282828AC6C0}"/>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{75D96EA2-8331-4C85-9026-92D117A27667}"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://karanokan.info/texture/" xr:uid="{3D6A2FC5-501D-4A99-B609-AC2520244AC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13603,25 +13601,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="209"/>
+      <c r="C1" s="208"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="209"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="36"/>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="209"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13651,10 +13649,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="210" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="211"/>
+      <c r="C1" s="210"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13665,56 +13663,56 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
     </row>
     <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
     </row>
     <row r="18" spans="7:14" x14ac:dyDescent="0.45">
-      <c r="G18" s="213" t="s">
+      <c r="G18" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
     </row>
@@ -13752,10 +13750,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="209"/>
+      <c r="C1" s="208"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13776,93 +13774,93 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="212"/>
+      <c r="C5" s="211"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="212"/>
+      <c r="C6" s="211"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="212"/>
+      <c r="C7" s="211"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="214"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="214"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="214"/>
-      <c r="C12" s="214"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="214"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="I18" s="212" t="s">
+      <c r="I18" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
     </row>
     <row r="20" spans="2:13" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13901,10 +13899,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="209"/>
+      <c r="C1" s="208"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
@@ -13912,30 +13910,30 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="214" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
@@ -13943,12 +13941,12 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13993,10 +13991,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="251" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="228"/>
+      <c r="D2" s="251"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -14026,72 +14024,72 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="230" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="137" t="s">
         <v>502</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="G4" s="217" t="s">
+      <c r="F4" s="226"/>
+      <c r="G4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="230" t="s">
         <v>323</v>
       </c>
-      <c r="I4" s="217" t="s">
+      <c r="I4" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C5" s="223"/>
+      <c r="C5" s="231"/>
       <c r="D5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="218"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="217"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C6" s="223"/>
+      <c r="C6" s="231"/>
       <c r="D6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="218"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="217"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="218"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="217"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="231"/>
       <c r="D8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="232"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="218"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="217"/>
     </row>
     <row r="9" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="224"/>
+      <c r="C9" s="249"/>
       <c r="D9" s="142" t="s">
         <v>237</v>
       </c>
@@ -14107,122 +14105,122 @@
       <c r="H9" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="219"/>
+      <c r="I9" s="218"/>
     </row>
     <row r="10" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="222" t="s">
+      <c r="C10" s="230" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="233" t="s">
+      <c r="E10" s="252" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="230" t="s">
+      <c r="F10" s="222" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="225" t="s">
+      <c r="G10" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="217" t="s">
+      <c r="H10" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="I10" s="217" t="s">
+      <c r="I10" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
-      <c r="D11" s="191" t="s">
+      <c r="C11" s="231"/>
+      <c r="D11" s="190" t="s">
         <v>503</v>
       </c>
-      <c r="E11" s="233"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="217"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="233"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="217"/>
     </row>
     <row r="13" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="224"/>
+      <c r="C13" s="249"/>
       <c r="D13" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="216" t="s">
         <v>135</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="229" t="s">
+      <c r="E14" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="230" t="s">
+      <c r="F14" s="222" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="226" t="s">
+      <c r="G14" s="235" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="217" t="s">
+      <c r="H14" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="I14" s="217" t="s">
+      <c r="I14" s="216" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C15" s="218"/>
+      <c r="C15" s="217"/>
       <c r="D15" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C16" s="218"/>
+      <c r="C16" s="217"/>
       <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="229"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
     </row>
     <row r="17" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="218"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
     </row>
     <row r="18" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="219"/>
+      <c r="C18" s="218"/>
       <c r="D18" s="55" t="s">
         <v>139</v>
       </c>
@@ -14230,137 +14228,137 @@
         <v>141</v>
       </c>
       <c r="F18" s="54"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="219"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
     </row>
     <row r="19" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="217" t="s">
+      <c r="C19" s="216" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="238" t="s">
+      <c r="E19" s="233" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="220" t="s">
+      <c r="F19" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="225" t="s">
+      <c r="G19" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="217" t="s">
+      <c r="H19" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="I19" s="217" t="s">
+      <c r="I19" s="216" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="218"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="E20" s="230"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="217"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C21" s="218"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="230"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="218"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="230"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="218"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="E23" s="239" t="s">
+      <c r="E23" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="240" t="s">
+      <c r="F23" s="224"/>
+      <c r="G23" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="240" t="s">
+      <c r="H23" s="220" t="s">
         <v>323</v>
       </c>
-      <c r="I23" s="240" t="s">
+      <c r="I23" s="220" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="218"/>
+      <c r="C24" s="217"/>
       <c r="D24" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="218"/>
+      <c r="C25" s="217"/>
       <c r="D25" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="232"/>
-      <c r="F25" s="232"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="218"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
     </row>
     <row r="26" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C26" s="218"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="218"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="58" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="218" t="s">
+      <c r="G27" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="218" t="s">
+      <c r="H27" s="217" t="s">
         <v>323</v>
       </c>
-      <c r="I27" s="218" t="s">
+      <c r="I27" s="217" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C28" s="218"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="58" t="s">
         <v>527</v>
       </c>
@@ -14370,12 +14368,12 @@
       <c r="F28" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="G28" s="218"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="218"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
     </row>
     <row r="29" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="223"/>
+      <c r="C29" s="231"/>
       <c r="D29" s="58" t="s">
         <v>507</v>
       </c>
@@ -14385,101 +14383,101 @@
       <c r="F29" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
     </row>
     <row r="30" spans="3:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="218"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="38"/>
       <c r="E30" s="167"/>
       <c r="F30" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="217" t="s">
+      <c r="C31" s="216" t="s">
         <v>399</v>
       </c>
       <c r="D31" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="E31" s="242" t="s">
+      <c r="E31" s="236" t="s">
         <v>406</v>
       </c>
-      <c r="F31" s="254" t="s">
+      <c r="F31" s="221" t="s">
         <v>411</v>
       </c>
-      <c r="G31" s="217" t="s">
+      <c r="G31" s="216" t="s">
         <v>410</v>
       </c>
-      <c r="H31" s="217" t="s">
+      <c r="H31" s="216" t="s">
         <v>409</v>
       </c>
-      <c r="I31" s="217" t="s">
+      <c r="I31" s="216" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" s="218"/>
+      <c r="C32" s="217"/>
       <c r="D32" s="169" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="243"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
     </row>
     <row r="33" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C33" s="218"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="169" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="218"/>
+      <c r="C34" s="217"/>
       <c r="D34" s="164" t="s">
         <v>400</v>
       </c>
-      <c r="E34" s="243"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
+      <c r="E34" s="237"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
     </row>
     <row r="35" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C35" s="218"/>
+      <c r="C35" s="217"/>
       <c r="D35" s="163" t="s">
         <v>401</v>
       </c>
-      <c r="E35" s="243"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
+      <c r="E35" s="237"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="218"/>
+      <c r="C36" s="217"/>
       <c r="D36" s="170" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
     </row>
     <row r="37" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C37" s="218"/>
+      <c r="C37" s="217"/>
       <c r="D37" s="123" t="s">
         <v>509</v>
       </c>
@@ -14487,12 +14485,12 @@
         <v>407</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="218"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="3:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C38" s="218"/>
+      <c r="C38" s="217"/>
       <c r="D38" s="123" t="s">
         <v>510</v>
       </c>
@@ -14502,311 +14500,291 @@
       <c r="F38" s="126" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="218"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="164" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="229" t="s">
+      <c r="E39" s="239" t="s">
         <v>407</v>
       </c>
-      <c r="F39" s="239"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
+      <c r="F39" s="224"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
     </row>
     <row r="40" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="219"/>
-      <c r="D40" s="192" t="s">
+      <c r="C40" s="218"/>
+      <c r="D40" s="191" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="245"/>
-      <c r="F40" s="252"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
+      <c r="E40" s="240"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
     </row>
     <row r="41" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="217" t="s">
+      <c r="C41" s="216" t="s">
         <v>158</v>
       </c>
       <c r="D41" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="231"/>
-      <c r="F41" s="246" t="s">
+      <c r="E41" s="226"/>
+      <c r="F41" s="241" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="217" t="s">
+      <c r="G41" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="217" t="s">
+      <c r="H41" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="I41" s="217" t="s">
+      <c r="I41" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="218"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="232"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="242"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="217"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C43" s="218"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="236"/>
-      <c r="F43" s="247"/>
-      <c r="G43" s="241"/>
-      <c r="H43" s="241"/>
-      <c r="I43" s="218"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="242"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="217"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C44" s="218"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="239"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="240" t="s">
+      <c r="E44" s="224"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="240" t="s">
+      <c r="H44" s="220" t="s">
         <v>323</v>
       </c>
-      <c r="I44" s="218"/>
+      <c r="I44" s="217"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C45" s="218"/>
+      <c r="C45" s="217"/>
       <c r="D45" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="E45" s="232"/>
-      <c r="F45" s="247"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="218"/>
-      <c r="I45" s="218"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="242"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
     </row>
     <row r="46" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C46" s="218"/>
+      <c r="C46" s="217"/>
       <c r="D46" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="236"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="241"/>
-      <c r="H46" s="241"/>
-      <c r="I46" s="218"/>
+      <c r="E46" s="228"/>
+      <c r="F46" s="242"/>
+      <c r="G46" s="219"/>
+      <c r="H46" s="219"/>
+      <c r="I46" s="217"/>
     </row>
     <row r="47" spans="3:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="219"/>
+      <c r="C47" s="218"/>
       <c r="D47" s="70" t="s">
         <v>164</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="248"/>
+      <c r="F47" s="243"/>
       <c r="G47" s="68" t="s">
         <v>151</v>
       </c>
       <c r="H47" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="I47" s="219"/>
+      <c r="I47" s="218"/>
     </row>
     <row r="48" spans="3:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="217" t="s">
+      <c r="C48" s="216" t="s">
         <v>166</v>
       </c>
       <c r="D48" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E48" s="246" t="s">
+      <c r="E48" s="241" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="249" t="s">
+      <c r="F48" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="217" t="s">
+      <c r="G48" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="217" t="s">
+      <c r="H48" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="I48" s="217" t="s">
+      <c r="I48" s="216" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C49" s="218"/>
+      <c r="C49" s="217"/>
       <c r="D49" s="62" t="s">
         <v>514</v>
       </c>
-      <c r="E49" s="247"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="218"/>
-      <c r="H49" s="218"/>
-      <c r="I49" s="218"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
     </row>
     <row r="50" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="219"/>
+      <c r="C50" s="218"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="248"/>
-      <c r="F50" s="251"/>
-      <c r="G50" s="219"/>
-      <c r="H50" s="219"/>
-      <c r="I50" s="219"/>
+      <c r="E50" s="243"/>
+      <c r="F50" s="246"/>
+      <c r="G50" s="218"/>
+      <c r="H50" s="218"/>
+      <c r="I50" s="218"/>
     </row>
     <row r="51" spans="2:10" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="217" t="s">
+      <c r="C51" s="216" t="s">
         <v>168</v>
       </c>
       <c r="D51" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="E51" s="231"/>
-      <c r="F51" s="246" t="s">
+      <c r="E51" s="226"/>
+      <c r="F51" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="217" t="s">
+      <c r="G51" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="217" t="s">
+      <c r="H51" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="I51" s="217" t="s">
+      <c r="I51" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="218"/>
+      <c r="C52" s="217"/>
       <c r="D52" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="232"/>
-      <c r="F52" s="247"/>
-      <c r="G52" s="218"/>
-      <c r="H52" s="218"/>
-      <c r="I52" s="218"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="217"/>
+      <c r="H52" s="217"/>
+      <c r="I52" s="217"/>
     </row>
     <row r="53" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="218"/>
+      <c r="C53" s="217"/>
       <c r="D53" s="164" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="232"/>
-      <c r="F53" s="247"/>
-      <c r="G53" s="218"/>
-      <c r="H53" s="218"/>
-      <c r="I53" s="218"/>
+      <c r="E53" s="227"/>
+      <c r="F53" s="242"/>
+      <c r="G53" s="217"/>
+      <c r="H53" s="217"/>
+      <c r="I53" s="217"/>
     </row>
     <row r="54" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="218"/>
+      <c r="C54" s="217"/>
       <c r="D54" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="E54" s="232"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="218"/>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
+      <c r="E54" s="227"/>
+      <c r="F54" s="242"/>
+      <c r="G54" s="217"/>
+      <c r="H54" s="217"/>
+      <c r="I54" s="217"/>
     </row>
     <row r="55" spans="2:10" s="160" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="C55" s="218"/>
+      <c r="C55" s="217"/>
       <c r="D55" s="163" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="232"/>
-      <c r="F55" s="247"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
-      <c r="I55" s="218"/>
+      <c r="E55" s="227"/>
+      <c r="F55" s="242"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="217"/>
+      <c r="I55" s="217"/>
     </row>
     <row r="56" spans="2:10" s="160" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="218"/>
+      <c r="C56" s="217"/>
       <c r="D56" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="232"/>
-      <c r="F56" s="247"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
+      <c r="E56" s="227"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="217"/>
+      <c r="H56" s="217"/>
+      <c r="I56" s="217"/>
     </row>
     <row r="57" spans="2:10" s="160" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="219"/>
+      <c r="C57" s="218"/>
       <c r="D57" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="E57" s="252"/>
-      <c r="F57" s="248"/>
-      <c r="G57" s="219"/>
-      <c r="H57" s="219"/>
-      <c r="I57" s="219"/>
+      <c r="E57" s="225"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="218"/>
+      <c r="H57" s="218"/>
+      <c r="I57" s="218"/>
     </row>
     <row r="59" spans="2:10" s="160" customFormat="1" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B59" s="237" t="s">
+      <c r="B59" s="232" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="237"/>
-      <c r="D59" s="237"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
       <c r="F59" s="161" t="s">
         <v>329</v>
       </c>
       <c r="G59" s="140"/>
-      <c r="H59" s="253" t="s">
+      <c r="H59" s="229" t="s">
         <v>338</v>
       </c>
-      <c r="I59" s="253"/>
-      <c r="J59" s="253"/>
+      <c r="I59" s="229"/>
+      <c r="J59" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I41:I47"/>
-    <mergeCell ref="I31:I40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="F4:F8"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="C19:C30"/>
@@ -14823,20 +14801,40 @@
     <mergeCell ref="F51:F57"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I41:I47"/>
+    <mergeCell ref="I31:I40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="H51:H57"/>
+    <mergeCell ref="I51:I57"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -14868,22 +14866,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="262" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
     </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="251" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="104" t="s">
@@ -14906,87 +14904,87 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="230" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="263" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
-      <c r="G4" s="217" t="s">
+      <c r="G4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="217" t="s">
+      <c r="H4" s="216" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="223"/>
+      <c r="C5" s="231"/>
       <c r="D5" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="233"/>
+      <c r="E5" s="252"/>
       <c r="F5" s="59"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="219"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="218"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="230" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="101" t="s">
         <v>281</v>
       </c>
       <c r="E6" s="96"/>
-      <c r="F6" s="258" t="s">
+      <c r="F6" s="259" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="225" t="s">
+      <c r="G6" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="217" t="s">
+      <c r="H6" s="216" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="102" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="97"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="218"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="217"/>
     </row>
     <row r="8" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="231"/>
       <c r="D8" s="65" t="s">
         <v>299</v>
       </c>
       <c r="E8" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="218"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="217"/>
     </row>
     <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="231"/>
       <c r="D9" s="65" t="s">
         <v>298</v>
       </c>
       <c r="E9" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="259"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="218"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="217"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C10" s="223"/>
+      <c r="C10" s="231"/>
       <c r="D10" s="126" t="s">
         <v>285</v>
       </c>
@@ -14995,54 +14993,54 @@
       <c r="G10" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="218"/>
+      <c r="H10" s="217"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
-      <c r="G11" s="262" t="s">
+      <c r="G11" s="256" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="218"/>
+      <c r="H11" s="217"/>
     </row>
     <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="65" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="263"/>
-      <c r="H12" s="218"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="217"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="114" t="s">
         <v>286</v>
       </c>
       <c r="E13" s="102"/>
-      <c r="F13" s="260" t="s">
+      <c r="F13" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="263"/>
-      <c r="H13" s="218"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="217"/>
     </row>
     <row r="14" spans="2:8" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="102" t="s">
         <v>287</v>
       </c>
       <c r="E14" s="102"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="263"/>
-      <c r="H14" s="218"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="217"/>
     </row>
     <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="223"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="102" t="s">
         <v>290</v>
       </c>
@@ -15050,114 +15048,114 @@
       <c r="F15" s="135" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="264"/>
-      <c r="H15" s="219"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="218"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C16" s="222" t="s">
+      <c r="C16" s="230" t="s">
         <v>256</v>
       </c>
       <c r="D16" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="254" t="s">
+      <c r="E16" s="221" t="s">
         <v>260</v>
       </c>
       <c r="F16" s="60"/>
-      <c r="G16" s="217" t="s">
+      <c r="G16" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="217" t="s">
+      <c r="H16" s="216" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="223"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="230"/>
+      <c r="E17" s="222"/>
       <c r="F17" s="54"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="224"/>
+      <c r="C18" s="249"/>
       <c r="D18" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="235"/>
+      <c r="E18" s="254"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="231" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>293</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="217" t="s">
+      <c r="G19" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="217" t="s">
+      <c r="H19" s="216" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="231"/>
       <c r="D20" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="217"/>
     </row>
     <row r="21" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="223"/>
+      <c r="C21" s="231"/>
       <c r="D21" s="65" t="s">
         <v>295</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="218"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="223"/>
+      <c r="C22" s="231"/>
       <c r="D22" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="115" t="s">
         <v>296</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C24" s="224"/>
+      <c r="C24" s="249"/>
       <c r="D24" s="134" t="s">
         <v>297</v>
       </c>
       <c r="E24" s="106"/>
-      <c r="F24" s="248"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C25" s="128"/>
@@ -15167,18 +15165,18 @@
       <c r="G25" s="128"/>
     </row>
     <row r="26" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="105"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="261" t="s">
+      <c r="G26" s="255" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C27" s="128"/>
@@ -15315,6 +15313,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H24"/>
@@ -15323,20 +15335,6 @@
     <mergeCell ref="G11:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15371,19 +15369,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="208" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
     </row>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="251" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="48" t="s">
@@ -15409,71 +15407,71 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="230" t="s">
         <v>208</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="263" t="s">
         <v>211</v>
       </c>
       <c r="F4" s="120"/>
-      <c r="G4" s="217" t="s">
+      <c r="G4" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="264" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="217" t="s">
+      <c r="I4" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="224"/>
+      <c r="C5" s="249"/>
       <c r="D5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="234"/>
+      <c r="E5" s="253"/>
       <c r="F5" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="219"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="219"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="218"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="230" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="217" t="s">
+      <c r="E6" s="241"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="H6" s="217" t="s">
+      <c r="H6" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="I6" s="217" t="s">
+      <c r="I6" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="223"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="223"/>
+      <c r="C8" s="231"/>
       <c r="D8" s="125" t="s">
         <v>218</v>
       </c>
@@ -15484,7 +15482,7 @@
       <c r="I8" s="143"/>
     </row>
     <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C9" s="223"/>
+      <c r="C9" s="231"/>
       <c r="D9" s="53" t="s">
         <v>300</v>
       </c>
@@ -15503,7 +15501,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="223"/>
+      <c r="C10" s="231"/>
       <c r="D10" s="126" t="s">
         <v>301</v>
       </c>
@@ -15522,7 +15520,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="C11" s="223"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="53" t="s">
         <v>221</v>
       </c>
@@ -15543,7 +15541,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="C12" s="223"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="126" t="s">
         <v>302</v>
       </c>
@@ -15562,7 +15560,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="223"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="65" t="s">
         <v>220</v>
       </c>
@@ -15573,7 +15571,7 @@
       <c r="I13" s="100"/>
     </row>
     <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C14" s="223"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="126" t="s">
         <v>303</v>
       </c>
@@ -15592,7 +15590,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="223"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="53" t="s">
         <v>304</v>
       </c>
@@ -15611,7 +15609,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="223"/>
+      <c r="C16" s="231"/>
       <c r="D16" s="126" t="s">
         <v>305</v>
       </c>
@@ -15630,76 +15628,76 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" s="223"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="65" t="s">
         <v>306</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="240" t="s">
+      <c r="G17" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="H17" s="240" t="s">
+      <c r="H17" s="220" t="s">
         <v>323</v>
       </c>
-      <c r="I17" s="240" t="s">
+      <c r="I17" s="220" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="223"/>
+      <c r="C18" s="231"/>
       <c r="D18" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="268" t="s">
+      <c r="E18" s="265" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="269"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
     </row>
     <row r="19" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C19" s="223"/>
+      <c r="C19" s="231"/>
       <c r="D19" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="255"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="218"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="217"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" s="223"/>
+      <c r="C20" s="231"/>
       <c r="D20" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="240" t="s">
+      <c r="G20" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="240" t="s">
+      <c r="H20" s="220" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="240" t="s">
+      <c r="I20" s="220" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="223"/>
+      <c r="C21" s="231"/>
       <c r="D21" s="65" t="s">
         <v>236</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C22" s="223"/>
+      <c r="C22" s="231"/>
       <c r="D22" s="65" t="s">
         <v>239</v>
       </c>
@@ -15707,12 +15705,12 @@
       <c r="F22" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="217"/>
     </row>
     <row r="23" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C23" s="223"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="115" t="s">
         <v>249</v>
       </c>
@@ -15720,122 +15718,122 @@
       <c r="F23" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C24" s="223"/>
+      <c r="C24" s="231"/>
       <c r="D24" s="114" t="s">
         <v>250</v>
       </c>
       <c r="E24" s="53"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="223"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="53" t="s">
         <v>240</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="218"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" s="223"/>
+      <c r="C26" s="231"/>
       <c r="D26" s="53" t="s">
         <v>241</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" s="223"/>
+      <c r="C27" s="231"/>
       <c r="D27" s="53" t="s">
         <v>242</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="218"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="217"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" s="223"/>
+      <c r="C28" s="231"/>
       <c r="D28" s="53" t="s">
         <v>243</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="218"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="218"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" s="223"/>
+      <c r="C29" s="231"/>
       <c r="D29" s="53" t="s">
         <v>248</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C30" s="223"/>
+      <c r="C30" s="231"/>
       <c r="D30" s="65" t="s">
         <v>244</v>
       </c>
       <c r="E30" s="53"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C31" s="223"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="53" t="s">
         <v>245</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="218"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
     </row>
     <row r="32" spans="3:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="223"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="53" t="s">
         <v>246</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
     </row>
     <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="223"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="53" t="s">
         <v>247</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
     </row>
     <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="223"/>
+      <c r="C34" s="231"/>
       <c r="D34" s="53" t="s">
         <v>253</v>
       </c>
@@ -15843,169 +15841,189 @@
       <c r="F34" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
     </row>
     <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C35" s="223"/>
+      <c r="C35" s="231"/>
       <c r="D35" s="53" t="s">
         <v>254</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
     </row>
     <row r="36" spans="2:10" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="224"/>
+      <c r="C36" s="249"/>
       <c r="D36" s="55" t="s">
         <v>251</v>
       </c>
       <c r="E36" s="55"/>
       <c r="F36" s="111"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
     </row>
     <row r="37" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="222" t="s">
+      <c r="C37" s="230" t="s">
         <v>256</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="257" t="s">
+      <c r="E37" s="263" t="s">
         <v>260</v>
       </c>
       <c r="F37" s="120"/>
-      <c r="G37" s="217" t="s">
+      <c r="G37" s="216" t="s">
         <v>233</v>
       </c>
-      <c r="H37" s="217" t="s">
+      <c r="H37" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="I37" s="217" t="s">
+      <c r="I37" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C38" s="223"/>
+      <c r="C38" s="231"/>
       <c r="D38" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="E38" s="233"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="122"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="218"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
     </row>
     <row r="39" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="224"/>
+      <c r="C39" s="249"/>
       <c r="D39" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="234"/>
+      <c r="E39" s="253"/>
       <c r="F39" s="110"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="217" t="s">
+      <c r="C40" s="216" t="s">
         <v>261</v>
       </c>
       <c r="D40" s="116" t="s">
         <v>293</v>
       </c>
       <c r="E40" s="117"/>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="268" t="s">
         <v>266</v>
       </c>
-      <c r="G40" s="217" t="s">
+      <c r="G40" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="H40" s="217" t="s">
+      <c r="H40" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="I40" s="217" t="s">
+      <c r="I40" s="216" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="218"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="53" t="s">
         <v>270</v>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="266"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="218"/>
-      <c r="I41" s="218"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
     </row>
     <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.45">
-      <c r="C42" s="218"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="53" t="s">
         <v>263</v>
       </c>
       <c r="E42" s="47"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="217"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C43" s="218"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="53" t="s">
         <v>262</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="218"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="218"/>
+      <c r="F43" s="269"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C44" s="218"/>
+      <c r="C44" s="217"/>
       <c r="D44" s="53" t="s">
         <v>269</v>
       </c>
       <c r="E44" s="47"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="218"/>
-      <c r="H44" s="218"/>
-      <c r="I44" s="218"/>
+      <c r="F44" s="269"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="217"/>
     </row>
     <row r="45" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="219"/>
+      <c r="C45" s="218"/>
       <c r="D45" s="72" t="s">
         <v>268</v>
       </c>
       <c r="E45" s="50"/>
-      <c r="F45" s="267"/>
-      <c r="G45" s="219"/>
-      <c r="H45" s="219"/>
-      <c r="I45" s="219"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="218"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="218"/>
     </row>
     <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="237" t="s">
+      <c r="B47" s="232" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="237"/>
-      <c r="D47" s="237"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
       <c r="F47" s="141" t="s">
         <v>329</v>
       </c>
       <c r="G47" s="140"/>
-      <c r="H47" s="253" t="s">
+      <c r="H47" s="229" t="s">
         <v>338</v>
       </c>
-      <c r="I47" s="253"/>
-      <c r="J47" s="253"/>
+      <c r="I47" s="229"/>
+      <c r="J47" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="G20:G36"/>
+    <mergeCell ref="C6:C36"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H37:H39"/>
@@ -16019,26 +16037,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I36"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G20:G36"/>
-    <mergeCell ref="C6:C36"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="F40:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
